--- a/input_data/titanium_base/titanium_base_unsh.xlsx
+++ b/input_data/titanium_base/titanium_base_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/titanium_base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/titanium_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40175C6A-3C61-6C4A-B813-F60067913837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF49B9D9-255A-4342-9F75-40D1B3DD0024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
   <si>
     <t>Отбор:</t>
   </si>
@@ -29,7 +29,7 @@
 Склад отгрузки В списке "&lt;Пустое значение&gt;; Основной склад 2 этаж; Михендорф склад" И
 Неотгружено Заполнено И
 Заявка на отгрузку.Подразделение В списке "Интернет-магазин АБ.РУ; мск; Ростов; милинг-спб" И
-Номенклатура В группе из списка "Титановые основы Lenmirio...; 35892 ТО на Multi-Unit LM...; 44059 ТО на Multi-Unit LM..."</t>
+Номенклатура В группе из списка "Титановые основы Lenmirio...; 35892 ТО на Multi-Unit LM...; 44059 ТО на Multi-Unit LM...; 43007 ТО на Multi-Unit LM...; 43033 ТО на Multi-Unit LM...; 38285В ТО на Multi-Unit L..."</t>
   </si>
   <si>
     <t>Номенклатура.Тип</t>
@@ -56,1153 +56,1072 @@
     <t>Титановое основание</t>
   </si>
   <si>
+    <t>38200B ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38213В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>38709 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38200B ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38213В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>38144С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
   </si>
   <si>
+    <t>38710уп2 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>38238В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
   </si>
   <si>
     <t>38215В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 /</t>
   </si>
   <si>
+    <t>38114В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38213В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709уп2 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>38710 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38114В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38709уп2 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38213В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 /</t>
+    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
+  </si>
+  <si>
+    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709опт ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38731 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38705Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>387151уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38772 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38702опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38236Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38782уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38280В ТО LM Flat (2 лыски, с насечками) Conmet NP (2.2) full G/H=1.5 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38281В ТО LM Flat (2 лыски, с насечками) Conmet RP (2.7) full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38278Вопт ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200B ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38702Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38714уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / 2 ВИНТА, У</t>
   </si>
   <si>
     <t>38702уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38710уп2 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
-  </si>
-  <si>
-    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38200B ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38705Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38707Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38731 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / / БЕЗ ВИНТА</t>
+    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
+  </si>
+  <si>
+    <t>38236опт ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38205BНопт ТО LM TiN Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3.A / ВКЛ.</t>
+  </si>
+  <si>
+    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>38200B1опт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38782Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38703 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
+  </si>
+  <si>
+    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38700 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38701Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38234А1опт ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38767Н ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38204B3опт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 / ВКЛ. 1 ВИН</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709Н ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38731опт ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
+  </si>
+  <si>
+    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>39008 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 /</t>
+  </si>
+  <si>
+    <t>39047 ТО LM Bell (GEO) Zimmer 4.5 full G/H=2 H=6 с позиционером (арт. LL2-TSV420-H) V.1 /</t>
+  </si>
+  <si>
+    <t>38200BС ТО LM Pro Long Implantium full G/H=1.5 H=8 с позиционером V.3 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39045 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 /</t>
+  </si>
+  <si>
+    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38769Н ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38716уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>39008П ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) ПОЛИР. V.1.P / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38706уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38701уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38769Н-2к ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>39036уп2 ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38772 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>38280В ТО LM Flat (2 лыски, с насечками) Conmet NP (2.2) full G/H=1.5 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38281В ТО LM Flat (2 лыски, с насечками) Conmet RP (2.7) full G/H=1 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38789Пуп2 ТО LM Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОП</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43040В ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38145В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
+  </si>
+  <si>
+    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38712опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>39045опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38168В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38767уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38700Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38772Н ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39070уп2 ТО LM Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38200уп2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38279В ТО LM Half (2 лыски) INNO full G/H=0.7 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38775Н-2к ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38705Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38237опт ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38772Н-2к ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38775Н ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38279В ТО LM Flat (2 лыски, с насечками) INNO full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38238оптV3 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38700опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38272BV2 ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
+  </si>
+  <si>
+    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
+  </si>
+  <si>
+    <t>38205B ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38146ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38708 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38156СотклЛУАопт ТО LM Patch (NT-Trading) ICX Medentis bridge G/H=1 H=4 без позиционера V.1/ С ОТКЛОНЕНИЕМ ПО ЛУА / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200оптV2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43047Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38710опт ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43047В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38217В ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) full G/H=0.4 H=4.5 с позиционером V.6 /</t>
+  </si>
+  <si>
+    <t>39027 ТО LM Pro Long Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=8 с позиционером V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39045Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38790уп2 ТО LM Bell (GEO) Implantium bridge G/H=3 H=6 без позиционера (арт. LL-DER30-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39056опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38705уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39054опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39054Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39055опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39056Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38768Н ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38769 ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39045Н ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38146В1опт ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39045Пуп2 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39055Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38703опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38708уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39038опт ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39049 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 /</t>
+  </si>
+  <si>
+    <t>43040Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38770Н-2к ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASW-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38238оптV4 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38713Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43262Вуп2 ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse full G/H=1 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38768уп2 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38730уп2 ТО LM Step (GEO) Implantium full G/H=1 H=3.75 с позиционером (арт. LS2-DER-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38246опт ТО LM Patch (NT-Trading) Niko 4.5 full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39053опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERA13-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39037 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38768Н-2к ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38712Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38731уп2 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43069В ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) full G/H=1.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38770Н ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASW-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39036опт ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38114В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38767опт ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38751 ТО LM Bell (GEO) Xive 3.8 bridge G/H=1 H=5.4 без позиционера (арт. LL2-XVR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38715опт ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / ВКЛ. 1 ВИН</t>
+  </si>
+  <si>
+    <t>38243оптV3 ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38731Нопт ТО LM TiN Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
+  </si>
+  <si>
+    <t>38714опт ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / ВКЛ. 1 ВИН</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38272Bопт ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38146В1уп ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38777 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39009 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 /</t>
+  </si>
+  <si>
+    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38758 ТО LM Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38721Нуп2 ТО LM TiN Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38707Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39048уп2 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43050В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38238ВН ТО LM TiN Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38704Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38774 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43039Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38278В ТО LM Flat (2 лыски, с насечками) Sky Bredent full G/H=0.5 H=4 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38256В ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>39040 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=2 H=6 с позиционером (арт. LL2-ACR20-H) V.1 /</t>
+  </si>
+  <si>
+    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43048В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39048 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 /</t>
+  </si>
+  <si>
+    <t>39036 ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38149В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) bridge без шестигранника V.3 / I КАТЕГОРИЯ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39065 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=2 H=6 с позиционером (арт. LL2-DERN20-H2) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38772опт ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38237уп ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>43049В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38708Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38714Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1.A / 2 В</t>
+  </si>
+  <si>
+    <t>39038 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39073 ТО LM Bell (GEO) Mis WP (5.0/6.0) bridge G/H=0.6 H=5.5 без позиционера (арт. LL2-MSW-N) V.1 /</t>
+  </si>
+  <si>
+    <t>39096 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=2 H=6 с позиционером (арт. LL2-ITR20-O) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38790опт ТО LM Bell (GEO) Implantium bridge G/H=3 H=6 без позиционера (арт. LL-DER30-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38201B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 3.5 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38157В ТО LM Flat (2 лыски, с насечками) Niko 3.5 bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39069опт ТО LM Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43041С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38144Сопт ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39044 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=6 с позиционером (арт. LL2-ASR20-H2) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43041Сопт ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38141ВН1опт ТО LM TiN Patch (NT-Trading) Ankylos C bridge G/H=2.4 H=4 без позиционера V.4.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43059Сопт ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38248В1опт ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43043Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38149В ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) bridge G/H=1.2 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43003ВСБопт ТО LM Flat (2 лыски, с насечками) Ankylos X full G/H=1.2 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38241В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38717 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43049Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38758Нопт ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39048опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43048Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39007 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38789 ТО LM Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером V.1 /</t>
   </si>
   <si>
     <t>38702Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38731уп2 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38708Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38236Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38205BНопт ТО LM TiN Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3.A / ВКЛ.</t>
-  </si>
-  <si>
-    <t>38790уп2 ТО LM Bell (GEO) Implantium bridge G/H=3 H=6 без позиционера (арт. LL-DER30-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38703Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38709Н ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38700 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38204B3опт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>38234А1опт ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
-  </si>
-  <si>
-    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38703 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39038уп2 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39036опт ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38701Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38245В3опт ТО LM Patch (NT-Trading) Niko 3.5 full G/H=1 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38708 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38246опт ТО LM Patch (NT-Trading) Niko 4.5 full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38237Вуп ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>39008 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 /</t>
-  </si>
-  <si>
-    <t>38200BС ТО LM Pro Long Implantium full G/H=1.5 H=8 с позиционером V.3 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39045 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 /</t>
-  </si>
-  <si>
-    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
-  </si>
-  <si>
-    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>39047 ТО LM Bell (GEO) Zimmer 4.5 full G/H=2 H=6 с позиционером (арт. LL2-TSV420-H) V.1 /</t>
-  </si>
-  <si>
-    <t>38706уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38200Bуп ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>39008П ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) ПОЛИР. V.1.P / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38240В ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38712опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38704Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38701уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43040В ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38145В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38715 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
-  </si>
-  <si>
-    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>43047Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38769 ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38272BV2 ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38279В ТО LM Half (2 лыски) INNO full G/H=0.7 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38200уп2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38717опт ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / ВКЛ. 1 В</t>
-  </si>
-  <si>
-    <t>38767уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38714уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / 2 ВИНТА, У</t>
-  </si>
-  <si>
-    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39054опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38279В ТО LM Flat (2 лыски, с насечками) INNO full G/H=1 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38148В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38700опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>43048Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38717 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38205B ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38710опт ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38238Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38248В1опт ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>38202B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 4.3 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38714Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1.A / / БЕЗ</t>
+  </si>
+  <si>
+    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38716 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38146ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43043Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39067Нопт ТО LM TiN Bell (GEO) Nobel Active WP (5.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-ACW-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43047В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38217В ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) full G/H=0.4 H=4.5 с позиционером V.6 /</t>
-  </si>
-  <si>
-    <t>39045Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38716Нопт ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / В</t>
-  </si>
-  <si>
-    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43076Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43069В ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) full G/H=1.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43075Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5) bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39040Нопт ТО LM TiN Bell (GEO) Nobel Active RP (4.5) full G/H=2 H=6 с позиционером (арт. LL2-ACR20-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43069Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) full G/H=1.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>43074Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39082опт ТО LM Bell (GEO) Bego Semados 4.1 full G/H=0.7 H=5.3 с позиционером (арт. LL2-BEGO41-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39027 ТО LM Pro Long Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=8 с позиционером V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38217В ТО LM Half (2 лыски) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.5 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39054Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38782уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38238Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38200B1опт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>38710уп ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38217В ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38713Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39055опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38707уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>387131опт ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39056опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39056Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39045опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43073Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5) full G/H=1.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39055Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38705уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38213В ТО LM Half (2 лыски) Straumann Bone Level NC (3.3) full G/H=1 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38759Нопт2 ТО LM TiN Bell (GEO) Zimmer 5.7 full G/H=1 H=5 с позиционером (арт. LL2-TSV5-H) V.1.A / 2 ВИНТА</t>
-  </si>
-  <si>
-    <t>39045Пуп2 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43072Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39053опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERA13-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38758Н ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38215В ТО LM Half (2 лыски) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38730уп2 ТО LM Step (GEO) Implantium full G/H=1 H=3.75 с позиционером (арт. LS2-DER-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38712Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38709уп ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
-  </si>
-  <si>
-    <t>38704уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43071Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39037 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43070Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39049 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 /</t>
-  </si>
-  <si>
-    <t>39048уп2 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38114В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38168В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39072опт ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38751 ТО LM Bell (GEO) Xive 3.8 bridge G/H=1 H=5.4 без позиционера (арт. LL2-XVR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39048 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 /</t>
-  </si>
-  <si>
-    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39044 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=6 с позиционером (арт. LL2-ASR20-H2) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43040Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39036Нуп ТО LM TiN Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38148опт ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
-  </si>
-  <si>
-    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38790Нуп ТО LM TiN Bell (GEO) Implantium bridge G/H=3 H=6 без позиционера (арт. LL-DER30-N) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38702Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>38243оптV3 ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38715Нопт ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / ВКЛ</t>
-  </si>
-  <si>
-    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38256В ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38205B2опт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>43048В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>43044В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=2.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38703уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38708Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43049Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39038 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43049В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38238ВН ТО LM TiN Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39066Нопт ТО LM TiN Bell (GEO) Nobel Active WP (5.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACW-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39083опт ТО LM Bell (GEO) Bego Semados 4.1 bridge G/H=0.7 H=5.3 без позиционера (арт. LL2-BEGO41-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38224В ТО LM Patch (NT-Trading) Xive 3.4 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39065 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=2 H=6 с позиционером (арт. LL2-DERN20-H2) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38223В ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38704Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>43050В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43046В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=2.5 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38787уп2 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38149В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) bridge без шестигранника V.3 / I КАТЕГОРИЯ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38716опт ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / ВКЛ. 1 В</t>
-  </si>
-  <si>
-    <t>39073 ТО LM Bell (GEO) Mis WP (5.0/6.0) bridge G/H=0.6 H=5.5 без позиционера (арт. LL2-MSW-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39038уп ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>387031уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38774 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38758 ТО LM Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38790опт ТО LM Bell (GEO) Implantium bridge G/H=3 H=6 без позиционера (арт. LL-DER30-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38782Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38707Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38201B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 3.5 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38731уп ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>39096 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=2 H=6 с позиционером (арт. LL2-ITR20-O) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38244В1уп ТО LM Flat (2 лыски, с насечками) Bego Semados 3.25/3.75 full G/H=0.5 H=4.5 с позиционером V.4 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38157В ТО LM Flat (2 лыски, с насечками) Niko 3.5 bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38707уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38708уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>43039Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38278В ТО LM Flat (2 лыски, с насечками) Sky Bredent full G/H=0.5 H=4 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38240В ТО LM Patch (NT-Trading) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43049Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38709опт ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38777 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43077Вуп ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) full G/H=1.5 H=4.5 с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>39009 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 /</t>
-  </si>
-  <si>
-    <t>39040 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=2 H=6 с позиционером (арт. LL2-ACR20-H) V.1 /</t>
-  </si>
-  <si>
-    <t>38706опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38122С1уп2 ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43041С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38144Сопт ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38213В1опт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39007 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38112Вопт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38215В1опт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38114Вопт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1 H=4.5 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38149В ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) bridge G/H=1.2 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39069опт ТО LM Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38789 ТО LM Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38241В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38202B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 4.3 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+    <t>39049опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43045В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38250Вопт ТО LM Flat (2 лыски, с насечками) BioHorizons 3.0 full G/H=1 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>43261В ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43045В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39070 ТО LM Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1 /</t>
+    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43050Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38709Н-2к ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38144СН ТО LM TiN Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38238уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>43050Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38140С ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1 H=4.5 без позиционера V.5 /</t>
+  </si>
+  <si>
+    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38256В2опт ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38425В ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38700Нопт ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38714Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1.A / / БЕЗ</t>
-  </si>
-  <si>
-    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38144СН ТО LM TiN Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38238оптV3 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39070опт ТО LM Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38140С ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1 H=4.5 без позиционера V.5 /</t>
-  </si>
-  <si>
-    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+    <t>39071опт ТО LM Bell (GEO) Mis SP (3.75/4.2) bridge G/H=0.6 H=5.5 без позиционера (арт. LL2-MSR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>38288В ТО LM Flat (2 лыски, с насечками) DIO SM RP (4.5) full G/H=1 H=4.5 с позиционером V.1 /</t>
   </si>
   <si>
-    <t>43272опт ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=2 H=6 без позиционера (арт. LL2-ASR20-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>43048Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>38141В ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=1.1 H=4.5 без позиционера V.5 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38709Н-2к ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43050Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>38204уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>38213уп2 ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
+    <t>38247В ТО LM Flat (2 лыски, с насечками) Mis NP (3.3) full G/H=0.5 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38203B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 5.0 full G/H=0.4 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38768опт ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38704Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОП</t>
+  </si>
+  <si>
+    <t>38239В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) WP (5.0) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
     <t>38733 ТО LM Bell (GEO) Nobel Replace Select 6.0 full G/H=0.6 H=5.3 с позиционером (арт. LL2-RP60-E) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38139С ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1 H=4.5 без позиционера V.3 /</t>
   </si>
   <si>
-    <t>38714опт ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / ВКЛ. 1 ВИН</t>
+    <t>43043В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38760 ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38158уп2 ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>38713 ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38981уп2 ТО LM GEO Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4.7 с позиционером (арт. SRN2-SURO-H   SIRONA) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38202опт ТО LM Patch (NT-Trading) Nobel Replace Select 4.3 full G/H=0.4 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
     <t>38248ВН ТО LM TiN Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3.A / / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 /</t>
+  </si>
+  <si>
+    <t>38777уп2 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38708Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ</t>
+  </si>
+  <si>
+    <t>39043 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=2 H=6 с позиционером (арт. LL2-ASW20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38224В ТО LM Flat (2 лыски, с насечками) Xive 3.4 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38220В ТО LM Flat (2 лыски, с насечками) Zimmer 4.5 full G/H=0.5 H=4.5 с позиционером V.5 /</t>
+  </si>
+  <si>
     <t>38245уп2 ТО LM Patch (NT-Trading) Niko 3.5 full G/H=0.9 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38777уп2 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38224В ТО LM Flat (2 лыски, с насечками) Xive 3.4 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+    <t>38283В ТО LM Half (2 лыски) Adin RP (3.5) full G/H=1.6 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38286В ТО LM Flat (2 лыски, с насечками) Alpha Bio Conical Narrow full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38701Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38271B ТО LM Flat (2 лыски, с насечками) Xive 3.0 full G/H=0.4 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38237ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1.A / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38128C ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 bridge G/H=0.8 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>39097 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITR-0) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38239В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) WP (5.0) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38286Вопт ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38204уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38760 ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38203B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 5.0 full G/H=0.4 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38247В ТО LM Flat (2 лыски, с насечками) Mis NP (3.3) full G/H=0.5 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38981уп2 ТО LM GEO Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4.7 с позиционером (арт. SRN2-SURO-H   SIRONA) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39043 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=2 H=6 с позиционером (арт. LL2-ASW20-H) V.1 / / БЕЗ ВИНТА</t>
+    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38237уп2 ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>38237ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43043В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38286В ТО LM Flat (2 лыски, с насечками) Alpha Bio Conical Narrow full G/H=1 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
     <t>38237уп2 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38713 ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39049опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 /</t>
-  </si>
-  <si>
-    <t>38220В ТО LM Flat (2 лыски, с насечками) Zimmer 4.5 full G/H=0.5 H=4.5 с позиционером V.5 /</t>
-  </si>
-  <si>
-    <t>38701Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38283В ТО LM Half (2 лыски) Adin RP (3.5) full G/H=1.6 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>Титановое основание на Multi-Unit</t>
   </si>
   <si>
     <t>35892 ТО на Multi-Unit LM Bell (GEO) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Os</t>
   </si>
   <si>
+    <t>43007 ТО на Multi-Unit LM Bell (GEO) Implantium Multi-Unit 4.5 D=4.5 (арт. LB-MUDE45) V.1 /</t>
+  </si>
+  <si>
+    <t>44059NLуп2 ТО на Multi-Unit LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Nobel) D=4.8 H=5.5 V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>43033опт ТО на Multi-Unit LM Bell (GEO) Osstem Implant Multi-Unit D=4.8 H=4 (арт. LB2-G4840O-T) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>35892Aопт ТО на Multi-Unit LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) D=4.8 H=4 V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>44059Dопт ТО на Multi-Unit LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) D=4.8 H=5.5 V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1611,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H390"/>
+  <dimension ref="A1:H363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1765,15 +1684,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>17288</v>
+        <v>16136</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>9095</v>
+        <v>8803</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>8193</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1783,15 +1702,15 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>383</v>
+        <v>553</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1801,15 +1720,15 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>563</v>
+        <v>316</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="6">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>363</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1819,15 +1738,15 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1837,7 +1756,7 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="6">
@@ -1845,7 +1764,7 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>289</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1855,15 +1774,15 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="6">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1873,13 +1792,15 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>190</v>
+        <v>399</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6">
+        <v>200</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1889,13 +1810,13 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1905,15 +1826,13 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19">
-        <v>365</v>
+        <v>162</v>
       </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="6">
-        <v>200</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1923,13 +1842,15 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="E15" s="19"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6">
+        <v>150</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1939,15 +1860,15 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="6">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>159</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1957,15 +1878,13 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="6">
-        <v>150</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1975,15 +1894,15 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="6">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1993,15 +1912,15 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="6">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2010,16 +1929,14 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="20">
-        <v>1165</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="8">
-        <v>1050</v>
-      </c>
+      <c r="D20" s="19">
+        <v>97</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2028,16 +1945,16 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="19">
-        <v>318</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="6">
-        <v>205</v>
+      <c r="D21" s="20">
+        <v>1145</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="8">
+        <v>1050</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2047,13 +1964,15 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6">
+        <v>205</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2063,15 +1982,15 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2081,15 +2000,13 @@
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="6">
-        <v>200</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2098,16 +2015,14 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="20">
-        <v>2101</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="8">
-        <v>2010</v>
-      </c>
+      <c r="D25" s="19">
+        <v>75</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2117,15 +2032,13 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="6">
-        <v>25</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2135,13 +2048,15 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2167,12 +2082,10 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E29" s="19"/>
-      <c r="F29" s="6">
-        <v>6</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
         <v>70</v>
@@ -2185,15 +2098,15 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="6">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2203,15 +2116,13 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="6">
-        <v>31</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2221,13 +2132,13 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2237,15 +2148,13 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E33" s="19"/>
-      <c r="F33" s="6">
-        <v>5</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2255,13 +2164,15 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="E34" s="19"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6">
+        <v>200</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2271,13 +2182,13 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2287,15 +2198,15 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>455</v>
+        <v>94</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="6">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2305,13 +2216,13 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2353,13 +2264,13 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2369,10 +2280,12 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6">
+        <v>15</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
         <v>46</v>
@@ -2385,12 +2298,10 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E42" s="19"/>
-      <c r="F42" s="6">
-        <v>15</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
         <v>46</v>
@@ -2402,16 +2313,16 @@
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="19">
-        <v>89</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="6">
-        <v>44</v>
+      <c r="D43" s="20">
+        <v>2056</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="8">
+        <v>2010</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2421,15 +2332,15 @@
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="19">
-        <v>69</v>
+        <v>445</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="6">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2439,13 +2350,13 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2455,13 +2366,13 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2470,16 +2381,16 @@
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="20">
-        <v>1047</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="8">
-        <v>1005</v>
+      <c r="D47" s="19">
+        <v>106</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="6">
+        <v>61</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2489,15 +2400,15 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2507,13 +2418,13 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2523,13 +2434,13 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2571,12 +2482,10 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E53" s="19"/>
-      <c r="F53" s="6">
-        <v>10</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
         <v>40</v>
@@ -2605,15 +2514,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E55" s="19"/>
-      <c r="F55" s="6">
-        <v>15</v>
-      </c>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2623,13 +2530,15 @@
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E56" s="19"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="6">
+        <v>18</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2639,13 +2548,13 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2671,13 +2580,13 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2687,13 +2596,13 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2703,13 +2612,13 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="19">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2719,13 +2628,13 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2735,13 +2644,15 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E63" s="19"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="6">
+        <v>10</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2751,13 +2662,13 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2767,15 +2678,13 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E65" s="19"/>
-      <c r="F65" s="6">
-        <v>4</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2785,13 +2694,13 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2801,13 +2710,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2833,11 +2742,11 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>530</v>
+        <v>158</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="6">
-        <v>500</v>
+        <v>128</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
@@ -2851,13 +2760,13 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2867,13 +2776,13 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2882,14 +2791,16 @@
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
-      <c r="D72" s="19">
-        <v>30</v>
-      </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="7"/>
+      <c r="D72" s="20">
+        <v>1032</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="F72" s="8">
+        <v>1005</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2899,15 +2810,13 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="6">
-        <v>128</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2917,7 +2826,7 @@
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="6">
@@ -2925,7 +2834,7 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2935,13 +2844,13 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2951,13 +2860,13 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="19">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2967,13 +2876,13 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2983,13 +2892,13 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2999,13 +2908,13 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3015,13 +2924,13 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3031,13 +2940,13 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3047,13 +2956,13 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3063,31 +2972,29 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A84" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E84" s="19"/>
-      <c r="F84" s="6">
-        <v>90</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3097,15 +3004,13 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E85" s="19"/>
-      <c r="F85" s="6">
-        <v>30</v>
-      </c>
+      <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3115,11 +3020,11 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="6">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
@@ -3158,7 +3063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="18" t="s">
         <v>92</v>
       </c>
@@ -3181,11 +3086,11 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
@@ -3199,10 +3104,12 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E91" s="19"/>
-      <c r="F91" s="7"/>
+      <c r="F91" s="6">
+        <v>55</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
         <v>20</v>
@@ -3215,12 +3122,10 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E92" s="19"/>
-      <c r="F92" s="6">
-        <v>18</v>
-      </c>
+      <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
         <v>20</v>
@@ -3233,10 +3138,12 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E93" s="19"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="6">
+        <v>5</v>
+      </c>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
         <v>20</v>
@@ -3265,13 +3172,13 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3281,15 +3188,13 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E96" s="19"/>
-      <c r="F96" s="6">
-        <v>10</v>
-      </c>
+      <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3299,13 +3204,13 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3315,13 +3220,15 @@
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="19">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="E98" s="19"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="6">
+        <v>200</v>
+      </c>
       <c r="G98" s="7"/>
       <c r="H98" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3331,13 +3238,15 @@
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="19">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E99" s="19"/>
-      <c r="F99" s="7"/>
+      <c r="F99" s="6">
+        <v>30</v>
+      </c>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3347,13 +3256,13 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3366,10 +3275,12 @@
         <v>20</v>
       </c>
       <c r="E101" s="19"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="6">
+        <v>4</v>
+      </c>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3379,13 +3290,13 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3395,13 +3306,13 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3411,15 +3322,13 @@
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="19">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E104" s="19"/>
-      <c r="F104" s="6">
-        <v>55</v>
-      </c>
+      <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3429,13 +3338,13 @@
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3445,13 +3354,15 @@
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="19">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E106" s="19"/>
-      <c r="F106" s="7"/>
+      <c r="F106" s="6">
+        <v>20</v>
+      </c>
       <c r="G106" s="7"/>
       <c r="H106" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3461,13 +3372,13 @@
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="19">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3477,15 +3388,13 @@
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="E108" s="19"/>
-      <c r="F108" s="6">
-        <v>200</v>
-      </c>
+      <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3495,13 +3404,13 @@
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3511,15 +3420,13 @@
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="19">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E110" s="19"/>
-      <c r="F110" s="6">
-        <v>6</v>
-      </c>
+      <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3529,31 +3436,31 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E111" s="19"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="6">
+        <v>10</v>
+      </c>
       <c r="G111" s="7"/>
       <c r="H111" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A112" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="6">
-        <v>1</v>
-      </c>
+      <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3563,13 +3470,13 @@
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3579,13 +3486,15 @@
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="19">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="7"/>
+      <c r="F114" s="6">
+        <v>40</v>
+      </c>
       <c r="G114" s="7"/>
       <c r="H114" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3659,16 +3568,18 @@
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="19">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E119" s="19"/>
-      <c r="F119" s="7"/>
+      <c r="F119" s="6">
+        <v>90</v>
+      </c>
       <c r="G119" s="7"/>
       <c r="H119" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A120" s="18" t="s">
         <v>123</v>
       </c>
@@ -3691,12 +3602,10 @@
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="19">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E121" s="19"/>
-      <c r="F121" s="6">
-        <v>18</v>
-      </c>
+      <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="6">
         <v>15</v>
@@ -3709,12 +3618,10 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="19">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E122" s="19"/>
-      <c r="F122" s="6">
-        <v>10</v>
-      </c>
+      <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="6">
         <v>15</v>
@@ -3727,11 +3634,11 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="19">
-        <v>55</v>
+        <v>515</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="6">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G123" s="7"/>
       <c r="H123" s="6">
@@ -3754,19 +3661,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A125" s="18" t="s">
         <v>128</v>
       </c>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="19">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E125" s="19"/>
-      <c r="F125" s="6">
-        <v>20</v>
-      </c>
+      <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="6">
         <v>15</v>
@@ -3795,10 +3700,12 @@
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="19">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E127" s="19"/>
-      <c r="F127" s="7"/>
+      <c r="F127" s="6">
+        <v>18</v>
+      </c>
       <c r="G127" s="7"/>
       <c r="H127" s="6">
         <v>15</v>
@@ -3836,7 +3743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A130" s="18" t="s">
         <v>133</v>
       </c>
@@ -3859,13 +3766,15 @@
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E131" s="19"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="6">
+        <v>5</v>
+      </c>
       <c r="G131" s="7"/>
       <c r="H131" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3875,15 +3784,13 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="19">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E132" s="19"/>
-      <c r="F132" s="6">
-        <v>10</v>
-      </c>
+      <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3893,29 +3800,31 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="19">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E133" s="19"/>
-      <c r="F133" s="7"/>
+      <c r="F133" s="6">
+        <v>45</v>
+      </c>
       <c r="G133" s="7"/>
       <c r="H133" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A134" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3925,15 +3834,13 @@
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E135" s="19"/>
-      <c r="F135" s="6">
-        <v>5</v>
-      </c>
+      <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3943,29 +3850,29 @@
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A137" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3975,15 +3882,13 @@
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="19">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E138" s="19"/>
-      <c r="F138" s="6">
-        <v>10</v>
-      </c>
+      <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3993,15 +3898,13 @@
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="19">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E139" s="19"/>
-      <c r="F139" s="6">
-        <v>45</v>
-      </c>
+      <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4011,13 +3914,13 @@
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4027,15 +3930,13 @@
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="19">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="E141" s="19"/>
-      <c r="F141" s="6">
-        <v>100</v>
-      </c>
+      <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4045,13 +3946,13 @@
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4061,15 +3962,15 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="19">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="6">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G143" s="7"/>
       <c r="H143" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4079,13 +3980,13 @@
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4111,12 +4012,10 @@
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
       <c r="D146" s="19">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="E146" s="19"/>
-      <c r="F146" s="6">
-        <v>100</v>
-      </c>
+      <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="6">
         <v>11</v>
@@ -4129,13 +4028,13 @@
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4145,13 +4044,13 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4161,13 +4060,15 @@
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
       <c r="D149" s="19">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E149" s="19"/>
-      <c r="F149" s="7"/>
+      <c r="F149" s="6">
+        <v>10</v>
+      </c>
       <c r="G149" s="7"/>
       <c r="H149" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4321,12 +4222,10 @@
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E159" s="19"/>
-      <c r="F159" s="6">
-        <v>6</v>
-      </c>
+      <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="6">
         <v>10</v>
@@ -4371,10 +4270,12 @@
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
       <c r="D162" s="19">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E162" s="19"/>
-      <c r="F162" s="7"/>
+      <c r="F162" s="6">
+        <v>6</v>
+      </c>
       <c r="G162" s="7"/>
       <c r="H162" s="6">
         <v>10</v>
@@ -4403,12 +4304,10 @@
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
       <c r="D164" s="19">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E164" s="19"/>
-      <c r="F164" s="6">
-        <v>65</v>
-      </c>
+      <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="6">
         <v>10</v>
@@ -4469,10 +4368,12 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="19">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E168" s="19"/>
-      <c r="F168" s="7"/>
+      <c r="F168" s="6">
+        <v>34</v>
+      </c>
       <c r="G168" s="7"/>
       <c r="H168" s="6">
         <v>10</v>
@@ -4485,10 +4386,12 @@
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="19">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E169" s="19"/>
-      <c r="F169" s="7"/>
+      <c r="F169" s="6">
+        <v>65</v>
+      </c>
       <c r="G169" s="7"/>
       <c r="H169" s="6">
         <v>10</v>
@@ -4613,12 +4516,10 @@
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E177" s="19"/>
-      <c r="F177" s="6">
-        <v>15</v>
-      </c>
+      <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="6">
         <v>10</v>
@@ -4871,13 +4772,13 @@
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
       <c r="D193" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E193" s="19"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4887,13 +4788,13 @@
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
       <c r="D194" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4903,13 +4804,13 @@
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
       <c r="D195" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4919,13 +4820,13 @@
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
       <c r="D196" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4935,13 +4836,13 @@
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
       <c r="D197" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E197" s="19"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4951,13 +4852,13 @@
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
       <c r="D198" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4967,13 +4868,13 @@
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
       <c r="D199" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E199" s="19"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4983,13 +4884,13 @@
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
       <c r="D200" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4999,13 +4900,13 @@
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
       <c r="D201" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E201" s="19"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5015,15 +4916,13 @@
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
       <c r="D202" s="19">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E202" s="19"/>
-      <c r="F202" s="6">
-        <v>55</v>
-      </c>
+      <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5033,13 +4932,13 @@
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
       <c r="D203" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5049,13 +4948,15 @@
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
       <c r="D204" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E204" s="19"/>
-      <c r="F204" s="7"/>
+      <c r="F204" s="6">
+        <v>1</v>
+      </c>
       <c r="G204" s="7"/>
       <c r="H204" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5065,13 +4966,15 @@
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
       <c r="D205" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" s="19"/>
-      <c r="F205" s="7"/>
+      <c r="F205" s="6">
+        <v>4</v>
+      </c>
       <c r="G205" s="7"/>
       <c r="H205" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5081,13 +4984,13 @@
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
       <c r="D206" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
       <c r="H206" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5097,13 +5000,13 @@
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
       <c r="D207" s="19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5113,13 +5016,13 @@
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
       <c r="D208" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
       <c r="H208" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5129,13 +5032,13 @@
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
       <c r="D209" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E209" s="19"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5145,13 +5048,13 @@
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
       <c r="D210" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
       <c r="H210" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5161,13 +5064,15 @@
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
       <c r="D211" s="19">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E211" s="19"/>
-      <c r="F211" s="7"/>
+      <c r="F211" s="6">
+        <v>20</v>
+      </c>
       <c r="G211" s="7"/>
       <c r="H211" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5177,13 +5082,13 @@
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
       <c r="D212" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5193,13 +5098,13 @@
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
       <c r="D213" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5209,13 +5114,13 @@
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
       <c r="D214" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="H214" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5225,13 +5130,13 @@
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
       <c r="D215" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="H215" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5241,13 +5146,13 @@
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
       <c r="D216" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
       <c r="H216" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5257,15 +5162,13 @@
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
       <c r="D217" s="19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E217" s="19"/>
-      <c r="F217" s="6">
-        <v>4</v>
-      </c>
+      <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5275,13 +5178,15 @@
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
       <c r="D218" s="19">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E218" s="19"/>
-      <c r="F218" s="7"/>
+      <c r="F218" s="6">
+        <v>40</v>
+      </c>
       <c r="G218" s="7"/>
       <c r="H218" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5291,13 +5196,13 @@
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
       <c r="D219" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
       <c r="H219" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5307,15 +5212,13 @@
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
       <c r="D220" s="19">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E220" s="19"/>
-      <c r="F220" s="6">
-        <v>20</v>
-      </c>
+      <c r="F220" s="7"/>
       <c r="G220" s="7"/>
       <c r="H220" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5325,13 +5228,13 @@
       <c r="B221" s="18"/>
       <c r="C221" s="18"/>
       <c r="D221" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E221" s="19"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5341,13 +5244,13 @@
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
       <c r="D222" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
       <c r="H222" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5357,13 +5260,13 @@
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
       <c r="D223" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5373,13 +5276,13 @@
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
       <c r="D224" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="H224" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5389,13 +5292,13 @@
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
       <c r="D225" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
       <c r="H225" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5405,13 +5308,13 @@
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
       <c r="D226" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E226" s="19"/>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
       <c r="H226" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5421,13 +5324,13 @@
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
       <c r="D227" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E227" s="19"/>
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
       <c r="H227" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5437,13 +5340,13 @@
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
       <c r="D228" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
       <c r="H228" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5453,13 +5356,13 @@
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
       <c r="D229" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E229" s="19"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
       <c r="H229" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5501,10 +5404,12 @@
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
       <c r="D232" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E232" s="19"/>
-      <c r="F232" s="7"/>
+      <c r="F232" s="6">
+        <v>5</v>
+      </c>
       <c r="G232" s="7"/>
       <c r="H232" s="6">
         <v>5</v>
@@ -5533,12 +5438,10 @@
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
       <c r="D234" s="19">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E234" s="19"/>
-      <c r="F234" s="6">
-        <v>40</v>
-      </c>
+      <c r="F234" s="7"/>
       <c r="G234" s="7"/>
       <c r="H234" s="6">
         <v>5</v>
@@ -5599,12 +5502,10 @@
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
       <c r="D238" s="19">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E238" s="19"/>
-      <c r="F238" s="6">
-        <v>30</v>
-      </c>
+      <c r="F238" s="7"/>
       <c r="G238" s="7"/>
       <c r="H238" s="6">
         <v>5</v>
@@ -6001,13 +5902,13 @@
       <c r="B263" s="18"/>
       <c r="C263" s="18"/>
       <c r="D263" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E263" s="19"/>
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
       <c r="H263" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6017,13 +5918,13 @@
       <c r="B264" s="18"/>
       <c r="C264" s="18"/>
       <c r="D264" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E264" s="19"/>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
       <c r="H264" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6033,13 +5934,13 @@
       <c r="B265" s="18"/>
       <c r="C265" s="18"/>
       <c r="D265" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E265" s="19"/>
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
       <c r="H265" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6049,13 +5950,13 @@
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
       <c r="D266" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E266" s="19"/>
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
       <c r="H266" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6065,29 +5966,29 @@
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
       <c r="D267" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E267" s="19"/>
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
       <c r="H267" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A268" s="18" t="s">
         <v>271</v>
       </c>
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
       <c r="D268" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E268" s="19"/>
       <c r="F268" s="7"/>
       <c r="G268" s="7"/>
       <c r="H268" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6097,13 +5998,13 @@
       <c r="B269" s="18"/>
       <c r="C269" s="18"/>
       <c r="D269" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E269" s="19"/>
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
       <c r="H269" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6113,13 +6014,13 @@
       <c r="B270" s="18"/>
       <c r="C270" s="18"/>
       <c r="D270" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E270" s="19"/>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
       <c r="H270" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6129,13 +6030,13 @@
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
       <c r="D271" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E271" s="19"/>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
       <c r="H271" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6145,13 +6046,13 @@
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>
       <c r="D272" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E272" s="19"/>
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
       <c r="H272" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6161,13 +6062,15 @@
       <c r="B273" s="18"/>
       <c r="C273" s="18"/>
       <c r="D273" s="19">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E273" s="19"/>
-      <c r="F273" s="7"/>
+      <c r="F273" s="6">
+        <v>10</v>
+      </c>
       <c r="G273" s="7"/>
       <c r="H273" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6177,13 +6080,13 @@
       <c r="B274" s="18"/>
       <c r="C274" s="18"/>
       <c r="D274" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E274" s="19"/>
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
       <c r="H274" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6193,13 +6096,13 @@
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
       <c r="D275" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E275" s="19"/>
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
       <c r="H275" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6209,13 +6112,13 @@
       <c r="B276" s="18"/>
       <c r="C276" s="18"/>
       <c r="D276" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
       <c r="H276" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6225,13 +6128,13 @@
       <c r="B277" s="18"/>
       <c r="C277" s="18"/>
       <c r="D277" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
       <c r="H277" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6241,13 +6144,13 @@
       <c r="B278" s="18"/>
       <c r="C278" s="18"/>
       <c r="D278" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E278" s="19"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
       <c r="H278" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6257,13 +6160,13 @@
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
       <c r="D279" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
       <c r="H279" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6273,13 +6176,13 @@
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
       <c r="D280" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E280" s="19"/>
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
       <c r="H280" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6289,13 +6192,13 @@
       <c r="B281" s="18"/>
       <c r="C281" s="18"/>
       <c r="D281" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E281" s="19"/>
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
       <c r="H281" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6305,15 +6208,13 @@
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
       <c r="D282" s="19">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E282" s="19"/>
-      <c r="F282" s="6">
-        <v>34</v>
-      </c>
+      <c r="F282" s="7"/>
       <c r="G282" s="7"/>
       <c r="H282" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6323,13 +6224,13 @@
       <c r="B283" s="18"/>
       <c r="C283" s="18"/>
       <c r="D283" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E283" s="19"/>
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
       <c r="H283" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6339,13 +6240,15 @@
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
       <c r="D284" s="19">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E284" s="19"/>
-      <c r="F284" s="7"/>
+      <c r="F284" s="6">
+        <v>10</v>
+      </c>
       <c r="G284" s="7"/>
       <c r="H284" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6355,13 +6258,13 @@
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
       <c r="D285" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E285" s="19"/>
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
       <c r="H285" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6371,13 +6274,13 @@
       <c r="B286" s="18"/>
       <c r="C286" s="18"/>
       <c r="D286" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
       <c r="H286" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6387,13 +6290,13 @@
       <c r="B287" s="18"/>
       <c r="C287" s="18"/>
       <c r="D287" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E287" s="19"/>
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
       <c r="H287" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6403,15 +6306,13 @@
       <c r="B288" s="18"/>
       <c r="C288" s="18"/>
       <c r="D288" s="19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E288" s="19"/>
-      <c r="F288" s="6">
-        <v>5</v>
-      </c>
+      <c r="F288" s="7"/>
       <c r="G288" s="7"/>
       <c r="H288" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6421,13 +6322,13 @@
       <c r="B289" s="18"/>
       <c r="C289" s="18"/>
       <c r="D289" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E289" s="19"/>
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
       <c r="H289" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6437,13 +6338,15 @@
       <c r="B290" s="18"/>
       <c r="C290" s="18"/>
       <c r="D290" s="19">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E290" s="19"/>
-      <c r="F290" s="7"/>
+      <c r="F290" s="6">
+        <v>29</v>
+      </c>
       <c r="G290" s="7"/>
       <c r="H290" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6453,29 +6356,29 @@
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
       <c r="D291" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E291" s="19"/>
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
       <c r="H291" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A292" s="18" t="s">
         <v>295</v>
       </c>
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
       <c r="D292" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E292" s="19"/>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
       <c r="H292" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6485,13 +6388,15 @@
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
       <c r="D293" s="19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E293" s="19"/>
-      <c r="F293" s="7"/>
+      <c r="F293" s="6">
+        <v>15</v>
+      </c>
       <c r="G293" s="7"/>
       <c r="H293" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6501,13 +6406,15 @@
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
       <c r="D294" s="19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E294" s="19"/>
-      <c r="F294" s="7"/>
+      <c r="F294" s="6">
+        <v>10</v>
+      </c>
       <c r="G294" s="7"/>
       <c r="H294" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6517,13 +6424,13 @@
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
       <c r="D295" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E295" s="19"/>
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
       <c r="H295" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6533,13 +6440,15 @@
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
       <c r="D296" s="19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E296" s="19"/>
-      <c r="F296" s="7"/>
+      <c r="F296" s="6">
+        <v>10</v>
+      </c>
       <c r="G296" s="7"/>
       <c r="H296" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6549,13 +6458,13 @@
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
       <c r="D297" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E297" s="19"/>
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
       <c r="H297" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6565,13 +6474,15 @@
       <c r="B298" s="18"/>
       <c r="C298" s="18"/>
       <c r="D298" s="19">
+        <v>6</v>
+      </c>
+      <c r="E298" s="19"/>
+      <c r="F298" s="6">
         <v>4</v>
       </c>
-      <c r="E298" s="19"/>
-      <c r="F298" s="7"/>
       <c r="G298" s="7"/>
       <c r="H298" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6581,13 +6492,13 @@
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
       <c r="D299" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E299" s="19"/>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
       <c r="H299" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6597,15 +6508,13 @@
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
       <c r="D300" s="19">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E300" s="19"/>
-      <c r="F300" s="6">
-        <v>10</v>
-      </c>
+      <c r="F300" s="7"/>
       <c r="G300" s="7"/>
       <c r="H300" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6615,13 +6524,13 @@
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
       <c r="D301" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E301" s="19"/>
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
       <c r="H301" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6631,29 +6540,31 @@
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
       <c r="D302" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E302" s="19"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
       <c r="H302" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A303" s="18" t="s">
         <v>306</v>
       </c>
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
       <c r="D303" s="19">
+        <v>6</v>
+      </c>
+      <c r="E303" s="19"/>
+      <c r="F303" s="6">
         <v>4</v>
       </c>
-      <c r="E303" s="19"/>
-      <c r="F303" s="7"/>
       <c r="G303" s="7"/>
       <c r="H303" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6663,13 +6574,13 @@
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
       <c r="D304" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E304" s="19"/>
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
       <c r="H304" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6682,10 +6593,12 @@
         <v>4</v>
       </c>
       <c r="E305" s="19"/>
-      <c r="F305" s="7"/>
+      <c r="F305" s="6">
+        <v>2</v>
+      </c>
       <c r="G305" s="7"/>
       <c r="H305" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6695,13 +6608,13 @@
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
       <c r="D306" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E306" s="19"/>
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
       <c r="H306" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6711,13 +6624,13 @@
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
       <c r="D307" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E307" s="19"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
       <c r="H307" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6727,13 +6640,13 @@
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
       <c r="D308" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E308" s="19"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
       <c r="H308" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6743,13 +6656,13 @@
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
       <c r="D309" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E309" s="19"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6759,13 +6672,13 @@
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
       <c r="D310" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E310" s="19"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
       <c r="H310" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6775,13 +6688,13 @@
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
       <c r="D311" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E311" s="19"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
       <c r="H311" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6791,13 +6704,15 @@
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
       <c r="D312" s="19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E312" s="19"/>
-      <c r="F312" s="7"/>
+      <c r="F312" s="6">
+        <v>6</v>
+      </c>
       <c r="G312" s="7"/>
       <c r="H312" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6807,13 +6722,13 @@
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
       <c r="D313" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E313" s="19"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
       <c r="H313" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6823,13 +6738,13 @@
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
       <c r="D314" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E314" s="19"/>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
       <c r="H314" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6839,13 +6754,13 @@
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
       <c r="D315" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E315" s="19"/>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
       <c r="H315" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6855,15 +6770,13 @@
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
       <c r="D316" s="19">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E316" s="19"/>
-      <c r="F316" s="6">
-        <v>29</v>
-      </c>
+      <c r="F316" s="7"/>
       <c r="G316" s="7"/>
       <c r="H316" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6873,29 +6786,31 @@
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
       <c r="D317" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E317" s="19"/>
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
       <c r="H317" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A318" s="18" t="s">
         <v>321</v>
       </c>
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
       <c r="D318" s="19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E318" s="19"/>
-      <c r="F318" s="7"/>
+      <c r="F318" s="6">
+        <v>31</v>
+      </c>
       <c r="G318" s="7"/>
       <c r="H318" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6905,13 +6820,13 @@
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
       <c r="D319" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E319" s="19"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
       <c r="H319" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6921,12 +6836,10 @@
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
       <c r="D320" s="19">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E320" s="19"/>
-      <c r="F320" s="6">
-        <v>10</v>
-      </c>
+      <c r="F320" s="7"/>
       <c r="G320" s="7"/>
       <c r="H320" s="6">
         <v>2</v>
@@ -6939,11 +6852,11 @@
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
       <c r="D321" s="19">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E321" s="19"/>
       <c r="F321" s="6">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G321" s="7"/>
       <c r="H321" s="6">
@@ -6957,12 +6870,10 @@
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
       <c r="D322" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E322" s="19"/>
-      <c r="F322" s="6">
-        <v>4</v>
-      </c>
+      <c r="F322" s="7"/>
       <c r="G322" s="7"/>
       <c r="H322" s="6">
         <v>2</v>
@@ -6991,10 +6902,12 @@
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
       <c r="D324" s="19">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E324" s="19"/>
-      <c r="F324" s="7"/>
+      <c r="F324" s="6">
+        <v>30</v>
+      </c>
       <c r="G324" s="7"/>
       <c r="H324" s="6">
         <v>2</v>
@@ -7007,15 +6920,13 @@
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
       <c r="D325" s="19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E325" s="19"/>
-      <c r="F325" s="6">
-        <v>10</v>
-      </c>
+      <c r="F325" s="7"/>
       <c r="G325" s="7"/>
       <c r="H325" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7025,13 +6936,15 @@
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
       <c r="D326" s="19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E326" s="19"/>
-      <c r="F326" s="7"/>
+      <c r="F326" s="6">
+        <v>10</v>
+      </c>
       <c r="G326" s="7"/>
       <c r="H326" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7041,13 +6954,15 @@
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
       <c r="D327" s="19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E327" s="19"/>
-      <c r="F327" s="7"/>
+      <c r="F327" s="6">
+        <v>10</v>
+      </c>
       <c r="G327" s="7"/>
       <c r="H327" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7057,15 +6972,13 @@
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
       <c r="D328" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E328" s="19"/>
-      <c r="F328" s="6">
-        <v>6</v>
-      </c>
+      <c r="F328" s="7"/>
       <c r="G328" s="7"/>
       <c r="H328" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7075,13 +6988,13 @@
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
       <c r="D329" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E329" s="19"/>
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
       <c r="H329" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7091,13 +7004,13 @@
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
       <c r="D330" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E330" s="19"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
       <c r="H330" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7107,13 +7020,13 @@
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
       <c r="D331" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E331" s="19"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
       <c r="H331" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7123,15 +7036,13 @@
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
       <c r="D332" s="19">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E332" s="19"/>
-      <c r="F332" s="6">
-        <v>45</v>
-      </c>
+      <c r="F332" s="7"/>
       <c r="G332" s="7"/>
       <c r="H332" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7141,13 +7052,13 @@
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
       <c r="D333" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E333" s="19"/>
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
       <c r="H333" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7157,13 +7068,15 @@
       <c r="B334" s="18"/>
       <c r="C334" s="18"/>
       <c r="D334" s="19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E334" s="19"/>
-      <c r="F334" s="7"/>
+      <c r="F334" s="6">
+        <v>10</v>
+      </c>
       <c r="G334" s="7"/>
       <c r="H334" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7173,13 +7086,13 @@
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
       <c r="D335" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E335" s="19"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
       <c r="H335" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7189,13 +7102,13 @@
       <c r="B336" s="18"/>
       <c r="C336" s="18"/>
       <c r="D336" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E336" s="19"/>
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
       <c r="H336" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7205,13 +7118,15 @@
       <c r="B337" s="18"/>
       <c r="C337" s="18"/>
       <c r="D337" s="19">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E337" s="19"/>
-      <c r="F337" s="7"/>
+      <c r="F337" s="6">
+        <v>30</v>
+      </c>
       <c r="G337" s="7"/>
       <c r="H337" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7221,13 +7136,13 @@
       <c r="B338" s="18"/>
       <c r="C338" s="18"/>
       <c r="D338" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E338" s="19"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
       <c r="H338" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7237,13 +7152,15 @@
       <c r="B339" s="18"/>
       <c r="C339" s="18"/>
       <c r="D339" s="19">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E339" s="19"/>
-      <c r="F339" s="7"/>
+      <c r="F339" s="6">
+        <v>28</v>
+      </c>
       <c r="G339" s="7"/>
       <c r="H339" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7253,13 +7170,13 @@
       <c r="B340" s="18"/>
       <c r="C340" s="18"/>
       <c r="D340" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E340" s="19"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7269,13 +7186,13 @@
       <c r="B341" s="18"/>
       <c r="C341" s="18"/>
       <c r="D341" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E341" s="19"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
       <c r="H341" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7285,13 +7202,15 @@
       <c r="B342" s="18"/>
       <c r="C342" s="18"/>
       <c r="D342" s="19">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E342" s="19"/>
-      <c r="F342" s="7"/>
+      <c r="F342" s="6">
+        <v>20</v>
+      </c>
       <c r="G342" s="7"/>
       <c r="H342" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7301,13 +7220,13 @@
       <c r="B343" s="18"/>
       <c r="C343" s="18"/>
       <c r="D343" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E343" s="19"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
       <c r="H343" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7317,13 +7236,13 @@
       <c r="B344" s="18"/>
       <c r="C344" s="18"/>
       <c r="D344" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E344" s="19"/>
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
       <c r="H344" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7333,13 +7252,13 @@
       <c r="B345" s="18"/>
       <c r="C345" s="18"/>
       <c r="D345" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E345" s="19"/>
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
       <c r="H345" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7349,13 +7268,13 @@
       <c r="B346" s="18"/>
       <c r="C346" s="18"/>
       <c r="D346" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E346" s="19"/>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
       <c r="H346" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7365,15 +7284,13 @@
       <c r="B347" s="18"/>
       <c r="C347" s="18"/>
       <c r="D347" s="19">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E347" s="19"/>
-      <c r="F347" s="6">
-        <v>31</v>
-      </c>
+      <c r="F347" s="7"/>
       <c r="G347" s="7"/>
       <c r="H347" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7383,29 +7300,31 @@
       <c r="B348" s="18"/>
       <c r="C348" s="18"/>
       <c r="D348" s="19">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E348" s="19"/>
-      <c r="F348" s="7"/>
+      <c r="F348" s="6">
+        <v>35</v>
+      </c>
       <c r="G348" s="7"/>
       <c r="H348" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A349" s="18" t="s">
         <v>352</v>
       </c>
       <c r="B349" s="18"/>
       <c r="C349" s="18"/>
       <c r="D349" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E349" s="19"/>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
       <c r="H349" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7415,15 +7334,13 @@
       <c r="B350" s="18"/>
       <c r="C350" s="18"/>
       <c r="D350" s="19">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E350" s="19"/>
-      <c r="F350" s="6">
-        <v>30</v>
-      </c>
+      <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7433,13 +7350,15 @@
       <c r="B351" s="18"/>
       <c r="C351" s="18"/>
       <c r="D351" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E351" s="19"/>
-      <c r="F351" s="7"/>
+      <c r="F351" s="6">
+        <v>4</v>
+      </c>
       <c r="G351" s="7"/>
       <c r="H351" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7449,13 +7368,13 @@
       <c r="B352" s="18"/>
       <c r="C352" s="18"/>
       <c r="D352" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E352" s="19"/>
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
       <c r="H352" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7465,12 +7384,10 @@
       <c r="B353" s="18"/>
       <c r="C353" s="18"/>
       <c r="D353" s="19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E353" s="19"/>
-      <c r="F353" s="6">
-        <v>10</v>
-      </c>
+      <c r="F353" s="7"/>
       <c r="G353" s="7"/>
       <c r="H353" s="6">
         <v>1</v>
@@ -7483,10 +7400,12 @@
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
       <c r="D354" s="19">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="E354" s="19"/>
-      <c r="F354" s="7"/>
+      <c r="F354" s="6">
+        <v>500</v>
+      </c>
       <c r="G354" s="7"/>
       <c r="H354" s="6">
         <v>1</v>
@@ -7499,11 +7418,11 @@
       <c r="B355" s="18"/>
       <c r="C355" s="18"/>
       <c r="D355" s="19">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E355" s="19"/>
       <c r="F355" s="6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G355" s="7"/>
       <c r="H355" s="6">
@@ -7517,10 +7436,12 @@
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
       <c r="D356" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E356" s="19"/>
-      <c r="F356" s="7"/>
+      <c r="F356" s="6">
+        <v>5</v>
+      </c>
       <c r="G356" s="7"/>
       <c r="H356" s="6">
         <v>1</v>
@@ -7533,31 +7454,31 @@
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
       <c r="D357" s="19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E357" s="19"/>
       <c r="F357" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G357" s="7"/>
       <c r="H357" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A358" s="18" t="s">
+    <row r="358" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="B358" s="18"/>
-      <c r="C358" s="18"/>
-      <c r="D358" s="19">
-        <v>1</v>
-      </c>
-      <c r="E358" s="19"/>
-      <c r="F358" s="7"/>
-      <c r="G358" s="7"/>
-      <c r="H358" s="6">
-        <v>1</v>
+      <c r="B358" s="16"/>
+      <c r="C358" s="16"/>
+      <c r="D358" s="21">
+        <v>404</v>
+      </c>
+      <c r="E358" s="21"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="9">
+        <v>404</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7567,15 +7488,13 @@
       <c r="B359" s="18"/>
       <c r="C359" s="18"/>
       <c r="D359" s="19">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="E359" s="19"/>
-      <c r="F359" s="6">
-        <v>35</v>
-      </c>
+      <c r="F359" s="7"/>
       <c r="G359" s="7"/>
       <c r="H359" s="6">
-        <v>1</v>
+        <v>277</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7585,13 +7504,13 @@
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
       <c r="D360" s="19">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E360" s="19"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
       <c r="H360" s="6">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7601,13 +7520,13 @@
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
       <c r="D361" s="19">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E361" s="19"/>
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
       <c r="H361" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7617,539 +7536,37 @@
       <c r="B362" s="18"/>
       <c r="C362" s="18"/>
       <c r="D362" s="19">
-        <v>501</v>
+        <v>18</v>
       </c>
       <c r="E362" s="19"/>
-      <c r="F362" s="6">
-        <v>500</v>
-      </c>
+      <c r="F362" s="7"/>
       <c r="G362" s="7"/>
       <c r="H362" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A363" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="B363" s="18"/>
-      <c r="C363" s="18"/>
-      <c r="D363" s="19">
-        <v>1</v>
-      </c>
-      <c r="E363" s="19"/>
-      <c r="F363" s="7"/>
-      <c r="G363" s="7"/>
-      <c r="H363" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A364" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="B364" s="18"/>
-      <c r="C364" s="18"/>
-      <c r="D364" s="19">
-        <v>1</v>
-      </c>
-      <c r="E364" s="19"/>
-      <c r="F364" s="7"/>
-      <c r="G364" s="7"/>
-      <c r="H364" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A365" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="B365" s="18"/>
-      <c r="C365" s="18"/>
-      <c r="D365" s="19">
-        <v>1</v>
-      </c>
-      <c r="E365" s="19"/>
-      <c r="F365" s="7"/>
-      <c r="G365" s="7"/>
-      <c r="H365" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A366" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="B366" s="18"/>
-      <c r="C366" s="18"/>
-      <c r="D366" s="19">
-        <v>1</v>
-      </c>
-      <c r="E366" s="19"/>
-      <c r="F366" s="7"/>
-      <c r="G366" s="7"/>
-      <c r="H366" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B367" s="18"/>
-      <c r="C367" s="18"/>
-      <c r="D367" s="19">
-        <v>1</v>
-      </c>
-      <c r="E367" s="19"/>
-      <c r="F367" s="7"/>
-      <c r="G367" s="7"/>
-      <c r="H367" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="B368" s="18"/>
-      <c r="C368" s="18"/>
-      <c r="D368" s="19">
-        <v>1</v>
-      </c>
-      <c r="E368" s="19"/>
-      <c r="F368" s="7"/>
-      <c r="G368" s="7"/>
-      <c r="H368" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="B369" s="18"/>
-      <c r="C369" s="18"/>
-      <c r="D369" s="19">
-        <v>11</v>
-      </c>
-      <c r="E369" s="19"/>
-      <c r="F369" s="6">
-        <v>10</v>
-      </c>
-      <c r="G369" s="7"/>
-      <c r="H369" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B370" s="18"/>
-      <c r="C370" s="18"/>
-      <c r="D370" s="19">
-        <v>29</v>
-      </c>
-      <c r="E370" s="19"/>
-      <c r="F370" s="6">
-        <v>28</v>
-      </c>
-      <c r="G370" s="7"/>
-      <c r="H370" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A371" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="B371" s="18"/>
-      <c r="C371" s="18"/>
-      <c r="D371" s="19">
-        <v>1</v>
-      </c>
-      <c r="E371" s="19"/>
-      <c r="F371" s="7"/>
-      <c r="G371" s="7"/>
-      <c r="H371" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="B372" s="18"/>
-      <c r="C372" s="18"/>
-      <c r="D372" s="19">
-        <v>6</v>
-      </c>
-      <c r="E372" s="19"/>
-      <c r="F372" s="6">
-        <v>5</v>
-      </c>
-      <c r="G372" s="7"/>
-      <c r="H372" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B373" s="18"/>
-      <c r="C373" s="18"/>
-      <c r="D373" s="19">
-        <v>1</v>
-      </c>
-      <c r="E373" s="19"/>
-      <c r="F373" s="7"/>
-      <c r="G373" s="7"/>
-      <c r="H373" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="B374" s="18"/>
-      <c r="C374" s="18"/>
-      <c r="D374" s="19">
-        <v>1</v>
-      </c>
-      <c r="E374" s="19"/>
-      <c r="F374" s="7"/>
-      <c r="G374" s="7"/>
-      <c r="H374" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="B375" s="18"/>
-      <c r="C375" s="18"/>
-      <c r="D375" s="19">
-        <v>1</v>
-      </c>
-      <c r="E375" s="19"/>
-      <c r="F375" s="7"/>
-      <c r="G375" s="7"/>
-      <c r="H375" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B376" s="18"/>
-      <c r="C376" s="18"/>
-      <c r="D376" s="19">
-        <v>1</v>
-      </c>
-      <c r="E376" s="19"/>
-      <c r="F376" s="7"/>
-      <c r="G376" s="7"/>
-      <c r="H376" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="B377" s="18"/>
-      <c r="C377" s="18"/>
-      <c r="D377" s="19">
-        <v>26</v>
-      </c>
-      <c r="E377" s="19"/>
-      <c r="F377" s="6">
-        <v>25</v>
-      </c>
-      <c r="G377" s="7"/>
-      <c r="H377" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="B378" s="18"/>
-      <c r="C378" s="18"/>
-      <c r="D378" s="19">
-        <v>1</v>
-      </c>
-      <c r="E378" s="19"/>
-      <c r="F378" s="7"/>
-      <c r="G378" s="7"/>
-      <c r="H378" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B379" s="18"/>
-      <c r="C379" s="18"/>
-      <c r="D379" s="19">
-        <v>1</v>
-      </c>
-      <c r="E379" s="19"/>
-      <c r="F379" s="7"/>
-      <c r="G379" s="7"/>
-      <c r="H379" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="B380" s="18"/>
-      <c r="C380" s="18"/>
-      <c r="D380" s="19">
-        <v>21</v>
-      </c>
-      <c r="E380" s="19"/>
-      <c r="F380" s="6">
-        <v>20</v>
-      </c>
-      <c r="G380" s="7"/>
-      <c r="H380" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="B381" s="18"/>
-      <c r="C381" s="18"/>
-      <c r="D381" s="19">
-        <v>1</v>
-      </c>
-      <c r="E381" s="19"/>
-      <c r="F381" s="7"/>
-      <c r="G381" s="7"/>
-      <c r="H381" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A382" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B382" s="18"/>
-      <c r="C382" s="18"/>
-      <c r="D382" s="19">
-        <v>5</v>
-      </c>
-      <c r="E382" s="19"/>
-      <c r="F382" s="6">
-        <v>4</v>
-      </c>
-      <c r="G382" s="7"/>
-      <c r="H382" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B383" s="18"/>
-      <c r="C383" s="18"/>
-      <c r="D383" s="19">
-        <v>1</v>
-      </c>
-      <c r="E383" s="19"/>
-      <c r="F383" s="7"/>
-      <c r="G383" s="7"/>
-      <c r="H383" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="B384" s="18"/>
-      <c r="C384" s="18"/>
-      <c r="D384" s="19">
-        <v>46</v>
-      </c>
-      <c r="E384" s="19"/>
-      <c r="F384" s="6">
-        <v>45</v>
-      </c>
-      <c r="G384" s="7"/>
-      <c r="H384" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A385" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="B385" s="16"/>
-      <c r="C385" s="16"/>
-      <c r="D385" s="21">
-        <v>401</v>
-      </c>
-      <c r="E385" s="21"/>
-      <c r="F385" s="5"/>
-      <c r="G385" s="5"/>
-      <c r="H385" s="9">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="B386" s="18"/>
-      <c r="C386" s="18"/>
-      <c r="D386" s="19">
-        <v>387</v>
-      </c>
-      <c r="E386" s="19"/>
-      <c r="F386" s="7"/>
-      <c r="G386" s="7"/>
-      <c r="H386" s="6">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A387" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="B387" s="18"/>
-      <c r="C387" s="18"/>
-      <c r="D387" s="19">
-        <v>5</v>
-      </c>
-      <c r="E387" s="19"/>
-      <c r="F387" s="7"/>
-      <c r="G387" s="7"/>
-      <c r="H387" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A388" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B388" s="18"/>
-      <c r="C388" s="18"/>
-      <c r="D388" s="19">
-        <v>5</v>
-      </c>
-      <c r="E388" s="19"/>
-      <c r="F388" s="7"/>
-      <c r="G388" s="7"/>
-      <c r="H388" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A389" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="B389" s="18"/>
-      <c r="C389" s="18"/>
-      <c r="D389" s="19">
-        <v>4</v>
-      </c>
-      <c r="E389" s="19"/>
-      <c r="F389" s="7"/>
-      <c r="G389" s="7"/>
-      <c r="H389" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A390" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B390" s="15"/>
-      <c r="C390" s="15"/>
-      <c r="D390" s="22">
-        <v>17689</v>
-      </c>
-      <c r="E390" s="22"/>
-      <c r="F390" s="10">
-        <v>9095</v>
-      </c>
-      <c r="G390" s="11"/>
-      <c r="H390" s="10">
-        <v>8594</v>
+      <c r="B363" s="15"/>
+      <c r="C363" s="15"/>
+      <c r="D363" s="22">
+        <v>16540</v>
+      </c>
+      <c r="E363" s="22"/>
+      <c r="F363" s="10">
+        <v>8803</v>
+      </c>
+      <c r="G363" s="11"/>
+      <c r="H363" s="10">
+        <v>7737</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="775">
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="D388:E388"/>
-    <mergeCell ref="A389:C389"/>
-    <mergeCell ref="D389:E389"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="D390:E390"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="D383:E383"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="D384:E384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="D385:E385"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="D386:E386"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="D387:E387"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="D379:E379"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="D380:E380"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="A382:C382"/>
-    <mergeCell ref="D382:E382"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="D373:E373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="D374:E374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="D375:E375"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="D368:E368"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="D369:E369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="D370:E370"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="D371:E371"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="D372:E372"/>
+  <mergeCells count="721">
     <mergeCell ref="A363:C363"/>
     <mergeCell ref="D363:E363"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="D364:E364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="D365:E365"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="D366:E366"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="D367:E367"/>
     <mergeCell ref="A358:C358"/>
     <mergeCell ref="D358:E358"/>
     <mergeCell ref="A359:C359"/>

--- a/input_data/titanium_base/titanium_base_unsh.xlsx
+++ b/input_data/titanium_base/titanium_base_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/titanium_base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/titanium_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF49B9D9-255A-4342-9F75-40D1B3DD0024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D561B239-7552-9A43-AE7C-ABA8883B4ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="411">
   <si>
     <t>Отбор:</t>
   </si>
@@ -59,1069 +59,1204 @@
     <t>38200B ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>38709 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>38213В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38709 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>38144С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
   </si>
   <si>
+    <t>38238В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
+  </si>
+  <si>
+    <t>38215В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38114В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38213В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38710 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38731 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
+  </si>
+  <si>
+    <t>38707уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39056опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38772 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38200B ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38700 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709уп ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38702уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>39053уп ТО LM Bell (GEO) MegaGen AnyOne full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERA13-H2) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38281В ТО LM Flat (2 лыски, с насечками) Conmet RP (2.7) full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38700уп ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38702опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
+  </si>
+  <si>
+    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200оптV2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39055опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38205BНопт ТО LM TiN Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3.A / ВКЛ.</t>
+  </si>
+  <si>
+    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
+  </si>
+  <si>
+    <t>39008П ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) ПОЛИР. V.1.P / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39008 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 /</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38703 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709опт ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38204B3опт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 / ВКЛ. 1 ВИН</t>
+  </si>
+  <si>
+    <t>38145В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39036уп ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>39055уп ТО LM Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38731уп ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38704уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>387031уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38200BС ТО LM Pro Long Implantium full G/H=1.5 H=8 с позиционером V.3 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38700Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38701уп ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38222Вопт ТО LM Half (2 лыски) Astra Tech 3.5/4.0 full G/H=1.2 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38234А1опт ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38238оптV4 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38767уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43090Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38279В ТО LM Flat (2 лыски, с насечками) INNO full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>39009 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38605опт ТО LM Pro Long Zimmer 3.5 full G/H=0.5 H=8 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38712Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39045 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 /</t>
+  </si>
+  <si>
+    <t>39072уп ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38710опт ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>39047 ТО LM Bell (GEO) Zimmer 4.5 full G/H=2 H=6 с позиционером (арт. LL2-TSV420-H) V.1 /</t>
+  </si>
+  <si>
+    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
+  </si>
+  <si>
+    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>43047Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38769 ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38712уп ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38787 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43040В ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38713Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39008опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43050Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38247Вопт ТО LM Flat (2 лыски, с насечками) Mis NP (3.3) full G/H=0.5 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
+  </si>
+  <si>
+    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38712Нуп ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1.A / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38714уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / 2 ВИНТА, У</t>
+  </si>
+  <si>
+    <t>43261Вопт ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43262Вопт ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43040Вуп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38272BV2 ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38709Нуп ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38704Нуп ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>39036Нуп ТО LM TiN Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1.A / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>39037опт ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43035Вуп2 ТО LM Flat (2 лыски, с насечками) Implantium 3.4 full G/H=1.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39036 ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38731Нуп ТО LM TiN Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1.A / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38700Нуп ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39045уп ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43035Вопт ТО LM Flat (2 лыски, с насечками) Implantium 3.4 full G/H=1.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38701Нуп ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38279В ТО LM Half (2 лыски) INNO full G/H=0.7 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>39065опт ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=2 H=6 с позиционером (арт. LL2-DERN20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38703Нуп ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1.A / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38702Нуп ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38200уп2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39045Нуп2 ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39036опт ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43047В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
+  </si>
+  <si>
+    <t>38782опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОП</t>
+  </si>
+  <si>
+    <t>38700опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38205B ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>43048Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>39007 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38254опт ТО LM Patch (NT-Trading) ICX Medentis full G/H=1 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38146ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709Н ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38708 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38156СотклЛУАопт ТО LM Patch (NT-Trading) ICX Medentis bridge G/H=1 H=4 без позиционера V.1/ С ОТКЛОНЕНИЕМ ПО ЛУА / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38217В ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) full G/H=0.4 H=4.5 с позиционером V.6 /</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39037 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38141В3уп2 ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=2.6 H=4.5 без позиционера V.6 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>43042Суп2 ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=2.5 H=4.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39045Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
+  </si>
+  <si>
+    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38238Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39054Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43050Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38237Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38243оптV3 ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43093В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39045опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38771уп ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38703опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39027 ТО LM Pro Long Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=8 с позиционером V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43048Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>43075Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5) bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39053опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERA13-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39054опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39039уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=2 H=6 с позиционером (арт. LL2-ACN20-H) V.1 / 2 ВИНТА, УПА</t>
+  </si>
+  <si>
+    <t>38712опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38715Нопт ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / ВКЛ</t>
+  </si>
+  <si>
+    <t>38141В2уп2 ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=1.1 H=4.5 без позиционера V.5 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38237оптV4 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39009опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39055Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39045Пуп2 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38256Вопт ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38200Bопт ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>39056Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38731опт ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39049 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 /</t>
+  </si>
+  <si>
+    <t>38146Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38730уп2 ТО LM Step (GEO) Implantium full G/H=1 H=3.75 с позиционером (арт. LS2-DER-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38773уп ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38425В ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38146Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38145ВНопт ТО LM TiN Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>387151уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>43069В ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) full G/H=1.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43046Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38114В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38757опт ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38717опт ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / ВКЛ. 1 В</t>
+  </si>
+  <si>
+    <t>38760опт ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38751 ТО LM Bell (GEO) Xive 3.8 bridge G/H=1 H=5.4 без позиционера (арт. LL2-XVR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38168В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43044Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43036Вопт ТО LM Flat (2 лыски, с насечками) Implantium 3.4 bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39097опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITR-0) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
+  </si>
+  <si>
+    <t>39038 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38787опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38702Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38256Вуп2 ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38704Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38257В1опт ТО LM Half (2 лыски) NeoBiotech 4.3 full G/H=1.3 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43050В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38278В ТО LM Flat (2 лыски, с насечками) Sky Bredent full G/H=0.5 H=4 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38257Вуп2 ТО LM Flat (2 лыски, с насечками) NeoBiotech 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38709Нопт ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38256В ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38223В ТО LM Flat (2 лыски, с насечками) Astra Tech 4.5/5.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38149В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) bridge без шестигранника V.3 / I КАТЕГОРИЯ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38788опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) bridge G/H=1.3 H=4.55 без позиционера (арт. LL2-BLM-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38256В2опт ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39048 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 /</t>
+  </si>
+  <si>
+    <t>38752Нопт ТО LM TiN Bell (GEO) Xive 4.5 bridge G/H=1 H=5.05 без позиционера (арт. LL2-XVW-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39065 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=2 H=6 с позиционером (арт. LL2-DERN20-H2) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39040 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=2 H=6 с позиционером (арт. LL2-ACR20-H) V.1 /</t>
+  </si>
+  <si>
+    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>39096 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=2 H=6 с позиционером (арт. LL2-ITR20-O) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38255ВП1опт ТО LM Half (2 лыски) Astra Tech 3.0 full G/H=1.2 H=4 с позиционером ПОЛИР. V.2.P / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38223В ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38747Нопт ТО LM TiN Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38702Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>43048В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38758 ТО LM Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38782Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38238ВН ТО LM TiN Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38223Вопт ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38201B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 3.5 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38222В ТО LM Half (2 лыски) Astra Tech 3.5/4.0 full G/H=1.2 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38708Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38157В ТО LM Flat (2 лыски, с насечками) Niko 3.5 bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38205B2опт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИН</t>
+  </si>
+  <si>
+    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43049В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39073 ТО LM Bell (GEO) Mis WP (5.0/6.0) bridge G/H=0.6 H=5.5 без позиционера (арт. LL2-MSW-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38777 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38774 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38707Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38767опт ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38200B1опт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38215В1опт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43041С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43263опт ТО LM Bell (GEO) Biotech Kontact 3.6/4.2/4.8/5.4 full G/H=1.1 H=5.3 с позиционером (арт. LL2-BK40-T) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38768опт ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39044 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=6 с позиционером (арт. LL2-ASR20-H2) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43040Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
     <t>38710уп2 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38238В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
-  </si>
-  <si>
-    <t>38215В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38114В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38213В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43059Сопт ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
   </si>
   <si>
     <t>38709уп2 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38710 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
-  </si>
-  <si>
-    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38709опт ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38731 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38705Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>387151уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38772 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38236Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38782уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38280В ТО LM Flat (2 лыски, с насечками) Conmet NP (2.2) full G/H=1.5 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38281В ТО LM Flat (2 лыски, с насечками) Conmet RP (2.7) full G/H=1 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38278Вопт ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200B ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38702Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38714уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / 2 ВИНТА, У</t>
-  </si>
-  <si>
-    <t>38702уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>38236опт ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38205BНопт ТО LM TiN Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3.A / ВКЛ.</t>
-  </si>
-  <si>
-    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>38200B1опт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38782Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38703 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
-  </si>
-  <si>
-    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38700 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38701Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38234А1опт ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38767Н ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38204B3опт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38709Н ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38731опт ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
-  </si>
-  <si>
-    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>39008 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 /</t>
-  </si>
-  <si>
-    <t>39047 ТО LM Bell (GEO) Zimmer 4.5 full G/H=2 H=6 с позиционером (арт. LL2-TSV420-H) V.1 /</t>
-  </si>
-  <si>
-    <t>38200BС ТО LM Pro Long Implantium full G/H=1.5 H=8 с позиционером V.3 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39045 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 /</t>
-  </si>
-  <si>
-    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38769Н ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38716уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>39008П ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) ПОЛИР. V.1.P / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38706уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38701уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38769Н-2к ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39036уп2 ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43040В ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38145В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
-  </si>
-  <si>
-    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38712опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>39045опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38168В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38767уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38700Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38772Н ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39070уп2 ТО LM Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38200уп2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38279В ТО LM Half (2 лыски) INNO full G/H=0.7 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38775Н-2к ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38705Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38237опт ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38772Н-2к ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A /II КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38775Н ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38279В ТО LM Flat (2 лыски, с насечками) INNO full G/H=1 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38238оптV3 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38700опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38272BV2 ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
-  </si>
-  <si>
-    <t>38205B ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38148В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38146ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38708 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38156СотклЛУАопт ТО LM Patch (NT-Trading) ICX Medentis bridge G/H=1 H=4 без позиционера V.1/ С ОТКЛОНЕНИЕМ ПО ЛУА / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200оптV2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43047Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38710опт ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43047В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38217В ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) full G/H=0.4 H=4.5 с позиционером V.6 /</t>
-  </si>
-  <si>
-    <t>39027 ТО LM Pro Long Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=8 с позиционером V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39045Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38790уп2 ТО LM Bell (GEO) Implantium bridge G/H=3 H=6 без позиционера (арт. LL-DER30-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39056опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38705уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39054опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39054Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39055опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39056Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38768Н ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38769 ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39045Н ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38146В1опт ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39045Пуп2 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39055Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38703опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38708уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39038опт ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39049 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 /</t>
-  </si>
-  <si>
-    <t>43040Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38770Н-2к ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASW-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38238оптV4 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38713Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43262Вуп2 ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse full G/H=1 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38768уп2 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38730уп2 ТО LM Step (GEO) Implantium full G/H=1 H=3.75 с позиционером (арт. LS2-DER-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38246опт ТО LM Patch (NT-Trading) Niko 4.5 full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39053опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERA13-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39037 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38768Н-2к ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38712Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38731уп2 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43069В ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) full G/H=1.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38770Н ТО LM TiN Bell (GEO) Astra Tech 4.5/5.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASW-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39036опт ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38114В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38767опт ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38751 ТО LM Bell (GEO) Xive 3.8 bridge G/H=1 H=5.4 без позиционера (арт. LL2-XVR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38715опт ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>38243оптV3 ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38731Нопт ТО LM TiN Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
+    <t>38700Нопт ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43043Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38717 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38149В ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) bridge G/H=1.2 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38789 ТО LM Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>39049опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38213В1опт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38241В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38118Сопт ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=0.4 H=4 без позиционера V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38702Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38202B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 4.3 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38215опт ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43045В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38782Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ А</t>
+  </si>
+  <si>
+    <t>38122опт ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38141В ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=1.1 H=4.5 без позиционера V.5 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39008уп2 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38140С ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1 H=4.5 без позиционера V.5 /</t>
+  </si>
+  <si>
+    <t>38250В ТО LM Flat (2 лыски, с насечками) BioHorizons 3.0 full G/H=1 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39007опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38761опт2 ТО LM Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1 / 2 ВИНТА</t>
+  </si>
+  <si>
+    <t>38714Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1.A / / БЕЗ</t>
+  </si>
+  <si>
+    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38222опт ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 full G/H=0.8 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38217В2опт ТО LM Half (2 лыски) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38238уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38234опт ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38122СНопт2 ТО LM TiN Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2.A / 2 ВИНТА</t>
+  </si>
+  <si>
+    <t>43261В ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38144СН ТО LM TiN Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38709Н-2к ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38288В ТО LM Flat (2 лыски, с насечками) DIO SM RP (4.5) full G/H=1 H=4.5 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38724Н-2к ТО LM TiN Bell (GEO) Nobel Replace Select 4.3 bridge G/H=1 H=5.4 без позиционера (арт. LL2-RPR-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43049Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38724Н ТО LM TiN Bell (GEO) Nobel Replace Select 4.3 bridge G/H=1 H=5.4 без позиционера (арт. LL2-RPR-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38716 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38733 ТО LM Bell (GEO) Nobel Replace Select 6.0 full G/H=0.6 H=5.3 с позиционером (арт. LL2-RP60-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38139С ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38250Вопт ТО LM Flat (2 лыски, с насечками) BioHorizons 3.0 full G/H=1 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38213уп2 ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38714опт ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / ВКЛ. 1 ВИН</t>
   </si>
   <si>
-    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
+    <t>38248В1опт ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38158уп2 ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>43003ВСБопт ТО LM Flat (2 лыски, с насечками) Ankylos X full G/H=1.2 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39043 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=2 H=6 с позиционером (арт. LL2-ASW20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38981уп2 ТО LM GEO Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4.7 с позиционером (арт. SRN2-SURO-H   SIRONA) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38237уп2 ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38239В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) WP (5.0) full G/H=1 H=4.5 с позиционером V.3 /</t>
   </si>
   <si>
     <t>38272Bопт ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38146В1уп ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38777 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39009 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 /</t>
-  </si>
-  <si>
-    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38758 ТО LM Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38721Нуп2 ТО LM TiN Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38707Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39048уп2 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43050В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38238ВН ТО LM TiN Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38704Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38774 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43039Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38278В ТО LM Flat (2 лыски, с насечками) Sky Bredent full G/H=0.5 H=4 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38256В ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>39040 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=2 H=6 с позиционером (арт. LL2-ACR20-H) V.1 /</t>
-  </si>
-  <si>
-    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43048В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39048 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 /</t>
-  </si>
-  <si>
-    <t>39036 ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38149В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) bridge без шестигранника V.3 / I КАТЕГОРИЯ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39065 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=2 H=6 с позиционером (арт. LL2-DERN20-H2) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38772опт ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38237уп ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>43049В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38708Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38714Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1.A / 2 В</t>
-  </si>
-  <si>
-    <t>39038 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39073 ТО LM Bell (GEO) Mis WP (5.0/6.0) bridge G/H=0.6 H=5.5 без позиционера (арт. LL2-MSW-N) V.1 /</t>
-  </si>
-  <si>
-    <t>39096 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=2 H=6 с позиционером (арт. LL2-ITR20-O) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38790опт ТО LM Bell (GEO) Implantium bridge G/H=3 H=6 без позиционера (арт. LL-DER30-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38201B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 3.5 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38157В ТО LM Flat (2 лыски, с насечками) Niko 3.5 bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39069опт ТО LM Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43041С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38144Сопт ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39044 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=6 с позиционером (арт. LL2-ASR20-H2) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43041Сопт ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38141ВН1опт ТО LM TiN Patch (NT-Trading) Ankylos C bridge G/H=2.4 H=4 без позиционера V.4.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43059Сопт ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38248В1опт ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43043Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38149В ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) bridge G/H=1.2 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43003ВСБопт ТО LM Flat (2 лыски, с насечками) Ankylos X full G/H=1.2 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38241В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38717 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43049Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38758Нопт ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39048опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43048Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39007 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38789 ТО LM Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38702Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38202B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 4.3 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38714Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1.A / / БЕЗ</t>
-  </si>
-  <si>
-    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38716 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39049опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43045В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38250Вопт ТО LM Flat (2 лыски, с насечками) BioHorizons 3.0 full G/H=1 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43261В ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43050Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38709Н-2к ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38144СН ТО LM TiN Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38238уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38140С ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1 H=4.5 без позиционера V.5 /</t>
-  </si>
-  <si>
-    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38256В2опт ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39071опт ТО LM Bell (GEO) Mis SP (3.75/4.2) bridge G/H=0.6 H=5.5 без позиционера (арт. LL2-MSR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38288В ТО LM Flat (2 лыски, с насечками) DIO SM RP (4.5) full G/H=1 H=4.5 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38141В ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=1.1 H=4.5 без позиционера V.5 / / БЕЗ ВИНТА</t>
+    <t>38245уп2 ТО LM Patch (NT-Trading) Niko 3.5 full G/H=0.9 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43043В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38248ВН ТО LM TiN Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38777уп2 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38224В ТО LM Flat (2 лыски, с насечками) Xive 3.4 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38128C ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 bridge G/H=0.8 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38204уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>38213уп2 ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+    <t>38760 ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237уп2 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38203B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 5.0 full G/H=0.4 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38247В ТО LM Flat (2 лыски, с насечками) Mis NP (3.3) full G/H=0.5 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38203B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 5.0 full G/H=0.4 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38768опт ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38704Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОП</t>
-  </si>
-  <si>
-    <t>38239В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) WP (5.0) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38733 ТО LM Bell (GEO) Nobel Replace Select 6.0 full G/H=0.6 H=5.3 с позиционером (арт. LL2-RP60-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38139С ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>43043В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38760 ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38158уп2 ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+    <t>38237ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38286В ТО LM Flat (2 лыски, с насечками) Alpha Bio Conical Narrow full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>43000ВHСБопт ТО LM TiN Flat (2 лыски, с насечками) Ankylos X full G/H=2.4 H=4.5 с позиционером V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>38713 ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38981уп2 ТО LM GEO Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4.7 с позиционером (арт. SRN2-SURO-H   SIRONA) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38202опт ТО LM Patch (NT-Trading) Nobel Replace Select 4.3 full G/H=0.4 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38248ВН ТО LM TiN Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3.A / / БЕЗ ВИНТА</t>
+    <t>38217В3опт ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 /</t>
   </si>
   <si>
-    <t>38777уп2 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38708Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ</t>
-  </si>
-  <si>
-    <t>39043 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=2 H=6 с позиционером (арт. LL2-ASW20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38224В ТО LM Flat (2 лыски, с насечками) Xive 3.4 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
     <t>38220В ТО LM Flat (2 лыски, с насечками) Zimmer 4.5 full G/H=0.5 H=4.5 с позиционером V.5 /</t>
   </si>
   <si>
-    <t>38245уп2 ТО LM Patch (NT-Trading) Niko 3.5 full G/H=0.9 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>38283В ТО LM Half (2 лыски) Adin RP (3.5) full G/H=1.6 H=4 с позиционером V.1 /</t>
   </si>
   <si>
-    <t>38286В ТО LM Flat (2 лыски, с насечками) Alpha Bio Conical Narrow full G/H=1 H=4.5 с позиционером V.2 /</t>
+    <t>38224В1опт ТО LM Flat (2 лыски, с насечками) Xive 3.4 full G/H=0.4 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>38701Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38271B ТО LM Flat (2 лыски, с насечками) Xive 3.0 full G/H=0.4 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38237ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38128C ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 bridge G/H=0.8 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38237уп2 ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38237уп2 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>Титановое основание на Multi-Unit</t>
   </si>
   <si>
-    <t>35892 ТО на Multi-Unit LM Bell (GEO) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Os</t>
+    <t>35892 ТО на Multi-Unit LM Bell (GEO) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Oss</t>
   </si>
   <si>
     <t>43007 ТО на Multi-Unit LM Bell (GEO) Implantium Multi-Unit 4.5 D=4.5 (арт. LB-MUDE45) V.1 /</t>
   </si>
   <si>
-    <t>44059NLуп2 ТО на Multi-Unit LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Nobel) D=4.8 H=5.5 V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>43033опт ТО на Multi-Unit LM Bell (GEO) Osstem Implant Multi-Unit D=4.8 H=4 (арт. LB2-G4840O-T) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43033 ТО на Multi-Unit LM Bell (GEO) Osstem Implant Multi-Unit D=4.8 H=4 (арт. LB2-G4840O-T) V.1 /</t>
+  </si>
+  <si>
+    <t>35892Dопт ТО на Multi-Unit LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) D=4.8 H=4 V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1746,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H363"/>
+  <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1684,15 +1819,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>16136</v>
+        <v>16581</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>8803</v>
+        <v>8754</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>7333</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1702,7 +1837,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="6">
@@ -1710,7 +1845,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>353</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1720,15 +1855,15 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1738,15 +1873,15 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1756,7 +1891,7 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="6">
@@ -1764,7 +1899,7 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1774,15 +1909,15 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
-        <v>304</v>
+        <v>411</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="6">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1792,15 +1927,13 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>399</v>
+        <v>182</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="6">
-        <v>200</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1810,13 +1943,13 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1826,13 +1959,15 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6">
+        <v>150</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1842,15 +1977,13 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="E15" s="19"/>
-      <c r="F15" s="6">
-        <v>150</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1860,15 +1993,15 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19">
-        <v>315</v>
+        <v>138</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="6">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1878,13 +2011,15 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19">
-        <v>106</v>
+        <v>327</v>
       </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6">
+        <v>200</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1894,15 +2029,13 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="E18" s="19"/>
-      <c r="F18" s="6">
-        <v>232</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1912,15 +2045,13 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="6">
-        <v>5</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1930,13 +2061,15 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="E20" s="19"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6">
+        <v>205</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1945,16 +2078,16 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="20">
-        <v>1145</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="8">
-        <v>1050</v>
+      <c r="D21" s="19">
+        <v>115</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="6">
+        <v>15</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1964,15 +2097,13 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19">
-        <v>298</v>
+        <v>95</v>
       </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="6">
-        <v>205</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1981,16 +2112,16 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="19">
-        <v>116</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="6">
-        <v>25</v>
+      <c r="D23" s="20">
+        <v>1145</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="8">
+        <v>1050</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2000,13 +2131,15 @@
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6">
+        <v>25</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2048,12 +2181,10 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="6">
-        <v>6</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
         <v>70</v>
@@ -2066,13 +2197,15 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="6">
+        <v>200</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2081,14 +2214,16 @@
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="19">
-        <v>70</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="20">
+        <v>2078</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="8">
+        <v>2010</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2098,15 +2233,13 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="6">
-        <v>31</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2116,13 +2249,13 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2132,13 +2265,13 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2148,13 +2281,13 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2164,15 +2297,13 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="E34" s="19"/>
-      <c r="F34" s="6">
-        <v>200</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2182,13 +2313,13 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2198,12 +2329,10 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="6">
-        <v>44</v>
-      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
         <v>50</v>
@@ -2216,13 +2345,13 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2232,13 +2361,13 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2248,13 +2377,13 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2264,13 +2393,15 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E40" s="19"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="6">
+        <v>15</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2280,15 +2411,15 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="6">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2298,13 +2429,13 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2313,16 +2444,16 @@
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="20">
-        <v>2056</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="8">
-        <v>2010</v>
+      <c r="D43" s="19">
+        <v>69</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="6">
+        <v>25</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2332,15 +2463,13 @@
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="19">
-        <v>445</v>
+        <v>44</v>
       </c>
       <c r="E44" s="19"/>
-      <c r="F44" s="6">
-        <v>400</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2350,13 +2479,13 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2366,13 +2495,13 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2382,15 +2511,13 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="E47" s="19"/>
-      <c r="F47" s="6">
-        <v>61</v>
-      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2400,15 +2527,13 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E48" s="19"/>
-      <c r="F48" s="6">
-        <v>25</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2418,13 +2543,13 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2434,13 +2559,13 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2450,13 +2575,13 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2466,13 +2591,13 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2482,13 +2607,13 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2498,13 +2623,13 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2514,13 +2639,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2530,15 +2655,15 @@
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="6">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2547,14 +2672,16 @@
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="19">
-        <v>35</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="20">
+        <v>1037</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="8">
+        <v>1005</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2564,13 +2691,13 @@
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2580,13 +2707,15 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E59" s="19"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="6">
+        <v>128</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2596,13 +2725,13 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2612,13 +2741,13 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2644,12 +2773,10 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E63" s="19"/>
-      <c r="F63" s="6">
-        <v>10</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
         <v>30</v>
@@ -2703,7 +2830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="18" t="s">
         <v>70</v>
       </c>
@@ -2742,11 +2869,11 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="6">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
@@ -2760,13 +2887,13 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2776,13 +2903,13 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2791,16 +2918,14 @@
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
-      <c r="D72" s="20">
-        <v>1032</v>
-      </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="8">
-        <v>1005</v>
-      </c>
+      <c r="D72" s="19">
+        <v>30</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2810,13 +2935,13 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2826,15 +2951,13 @@
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="19">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E74" s="19"/>
-      <c r="F74" s="6">
-        <v>10</v>
-      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2844,13 +2967,13 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2860,13 +2983,13 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="19">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2876,13 +2999,13 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2892,13 +3015,15 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E78" s="19"/>
-      <c r="F78" s="7"/>
+      <c r="F78" s="6">
+        <v>20</v>
+      </c>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2908,13 +3033,13 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2924,29 +3049,29 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2956,13 +3081,13 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2972,29 +3097,29 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A84" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3004,13 +3129,13 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3020,15 +3145,13 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E86" s="19"/>
-      <c r="F86" s="6">
-        <v>8</v>
-      </c>
+      <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3086,12 +3209,10 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E90" s="19"/>
-      <c r="F90" s="6">
-        <v>10</v>
-      </c>
+      <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
         <v>20</v>
@@ -3104,12 +3225,10 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E91" s="19"/>
-      <c r="F91" s="6">
-        <v>55</v>
-      </c>
+      <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
         <v>20</v>
@@ -3138,11 +3257,11 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
@@ -3172,13 +3291,13 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3188,13 +3307,15 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19">
-        <v>19</v>
+        <v>520</v>
       </c>
       <c r="E96" s="19"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="6">
+        <v>500</v>
+      </c>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3204,13 +3325,13 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3220,15 +3341,15 @@
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="19">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" s="6">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3238,15 +3359,13 @@
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="19">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E99" s="19"/>
-      <c r="F99" s="6">
-        <v>30</v>
-      </c>
+      <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3256,13 +3375,13 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3272,15 +3391,13 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101" s="19"/>
-      <c r="F101" s="6">
-        <v>4</v>
-      </c>
+      <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3290,13 +3407,13 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3306,13 +3423,13 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3322,13 +3439,15 @@
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="19">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E104" s="19"/>
-      <c r="F104" s="7"/>
+      <c r="F104" s="6">
+        <v>30</v>
+      </c>
       <c r="G104" s="7"/>
       <c r="H104" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3338,13 +3457,13 @@
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3354,15 +3473,13 @@
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="19">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E106" s="19"/>
-      <c r="F106" s="6">
-        <v>20</v>
-      </c>
+      <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3372,13 +3489,13 @@
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3388,13 +3505,13 @@
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3404,13 +3521,15 @@
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E109" s="19"/>
-      <c r="F109" s="7"/>
+      <c r="F109" s="6">
+        <v>4</v>
+      </c>
       <c r="G109" s="7"/>
       <c r="H109" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3420,13 +3539,13 @@
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E110" s="19"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3436,18 +3555,16 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="19">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E111" s="19"/>
-      <c r="F111" s="6">
-        <v>10</v>
-      </c>
+      <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A112" s="18" t="s">
         <v>115</v>
       </c>
@@ -3486,12 +3603,10 @@
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="19">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="6">
-        <v>40</v>
-      </c>
+      <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="6">
         <v>15</v>
@@ -3552,10 +3667,12 @@
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="19">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E118" s="19"/>
-      <c r="F118" s="7"/>
+      <c r="F118" s="6">
+        <v>10</v>
+      </c>
       <c r="G118" s="7"/>
       <c r="H118" s="6">
         <v>15</v>
@@ -3568,12 +3685,10 @@
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="19">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E119" s="19"/>
-      <c r="F119" s="6">
-        <v>90</v>
-      </c>
+      <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="6">
         <v>15</v>
@@ -3618,10 +3733,12 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="19">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E122" s="19"/>
-      <c r="F122" s="7"/>
+      <c r="F122" s="6">
+        <v>40</v>
+      </c>
       <c r="G122" s="7"/>
       <c r="H122" s="6">
         <v>15</v>
@@ -3634,12 +3751,10 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="19">
-        <v>515</v>
+        <v>15</v>
       </c>
       <c r="E123" s="19"/>
-      <c r="F123" s="6">
-        <v>500</v>
-      </c>
+      <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="6">
         <v>15</v>
@@ -3661,7 +3776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A125" s="18" t="s">
         <v>128</v>
       </c>
@@ -3700,12 +3815,10 @@
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="19">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E127" s="19"/>
-      <c r="F127" s="6">
-        <v>18</v>
-      </c>
+      <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="6">
         <v>15</v>
@@ -3766,15 +3879,13 @@
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="19">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E131" s="19"/>
-      <c r="F131" s="6">
-        <v>5</v>
-      </c>
+      <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3784,13 +3895,15 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="19">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E132" s="19"/>
-      <c r="F132" s="7"/>
+      <c r="F132" s="6">
+        <v>18</v>
+      </c>
       <c r="G132" s="7"/>
       <c r="H132" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3800,31 +3913,29 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="19">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E133" s="19"/>
-      <c r="F133" s="6">
-        <v>45</v>
-      </c>
+      <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A134" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3834,13 +3945,13 @@
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3850,13 +3961,13 @@
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3866,29 +3977,29 @@
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A138" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3898,13 +4009,13 @@
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3914,13 +4025,13 @@
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3930,13 +4041,13 @@
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3946,13 +4057,15 @@
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="19">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E142" s="19"/>
-      <c r="F142" s="7"/>
+      <c r="F142" s="6">
+        <v>10</v>
+      </c>
       <c r="G142" s="7"/>
       <c r="H142" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3962,15 +4075,13 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="19">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="E143" s="19"/>
-      <c r="F143" s="6">
-        <v>100</v>
-      </c>
+      <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3980,13 +4091,13 @@
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3996,13 +4107,13 @@
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E145" s="19"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4012,13 +4123,15 @@
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
       <c r="D146" s="19">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E146" s="19"/>
-      <c r="F146" s="7"/>
+      <c r="F146" s="6">
+        <v>5</v>
+      </c>
       <c r="G146" s="7"/>
       <c r="H146" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4028,13 +4141,13 @@
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4044,13 +4157,13 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4060,15 +4173,15 @@
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
       <c r="D149" s="19">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E149" s="19"/>
       <c r="F149" s="6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G149" s="7"/>
       <c r="H149" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4078,29 +4191,29 @@
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E150" s="19"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A151" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
       <c r="D151" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4110,13 +4223,13 @@
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E152" s="19"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4126,13 +4239,13 @@
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
       <c r="D153" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4142,13 +4255,13 @@
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E154" s="19"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4158,13 +4271,13 @@
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4174,13 +4287,13 @@
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4190,13 +4303,13 @@
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4206,13 +4319,15 @@
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="19">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E158" s="19"/>
-      <c r="F158" s="7"/>
+      <c r="F158" s="6">
+        <v>100</v>
+      </c>
       <c r="G158" s="7"/>
       <c r="H158" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4222,13 +4337,13 @@
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4238,13 +4353,13 @@
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
       <c r="D160" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4270,12 +4385,10 @@
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
       <c r="D162" s="19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E162" s="19"/>
-      <c r="F162" s="6">
-        <v>6</v>
-      </c>
+      <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="6">
         <v>10</v>
@@ -4304,10 +4417,12 @@
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
       <c r="D164" s="19">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E164" s="19"/>
-      <c r="F164" s="7"/>
+      <c r="F164" s="6">
+        <v>6</v>
+      </c>
       <c r="G164" s="7"/>
       <c r="H164" s="6">
         <v>10</v>
@@ -4336,10 +4451,12 @@
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="19">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E166" s="19"/>
-      <c r="F166" s="7"/>
+      <c r="F166" s="6">
+        <v>65</v>
+      </c>
       <c r="G166" s="7"/>
       <c r="H166" s="6">
         <v>10</v>
@@ -4368,12 +4485,10 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="19">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E168" s="19"/>
-      <c r="F168" s="6">
-        <v>34</v>
-      </c>
+      <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="6">
         <v>10</v>
@@ -4386,12 +4501,10 @@
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="19">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E169" s="19"/>
-      <c r="F169" s="6">
-        <v>65</v>
-      </c>
+      <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="6">
         <v>10</v>
@@ -4436,10 +4549,12 @@
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="19">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E172" s="19"/>
-      <c r="F172" s="7"/>
+      <c r="F172" s="6">
+        <v>100</v>
+      </c>
       <c r="G172" s="7"/>
       <c r="H172" s="6">
         <v>10</v>
@@ -4772,13 +4887,13 @@
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
       <c r="D193" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E193" s="19"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4788,13 +4903,13 @@
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
       <c r="D194" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4804,13 +4919,13 @@
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
       <c r="D195" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4820,13 +4935,13 @@
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
       <c r="D196" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4836,13 +4951,13 @@
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
       <c r="D197" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E197" s="19"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4852,13 +4967,13 @@
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
       <c r="D198" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4868,13 +4983,13 @@
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
       <c r="D199" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E199" s="19"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4884,13 +4999,13 @@
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
       <c r="D200" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4900,13 +5015,13 @@
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
       <c r="D201" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E201" s="19"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4916,13 +5031,13 @@
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
       <c r="D202" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4932,13 +5047,13 @@
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
       <c r="D203" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4948,15 +5063,13 @@
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
       <c r="D204" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E204" s="19"/>
-      <c r="F204" s="6">
-        <v>1</v>
-      </c>
+      <c r="F204" s="7"/>
       <c r="G204" s="7"/>
       <c r="H204" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4966,15 +5079,15 @@
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
       <c r="D205" s="19">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="6">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G205" s="7"/>
       <c r="H205" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4984,13 +5097,13 @@
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
       <c r="D206" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
       <c r="H206" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5000,13 +5113,15 @@
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
       <c r="D207" s="19">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E207" s="19"/>
-      <c r="F207" s="7"/>
+      <c r="F207" s="6">
+        <v>18</v>
+      </c>
       <c r="G207" s="7"/>
       <c r="H207" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5016,13 +5131,13 @@
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
       <c r="D208" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
       <c r="H208" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5032,13 +5147,13 @@
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
       <c r="D209" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E209" s="19"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5048,13 +5163,15 @@
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
       <c r="D210" s="19">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E210" s="19"/>
-      <c r="F210" s="7"/>
+      <c r="F210" s="6">
+        <v>45</v>
+      </c>
       <c r="G210" s="7"/>
       <c r="H210" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5064,15 +5181,13 @@
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
       <c r="D211" s="19">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E211" s="19"/>
-      <c r="F211" s="6">
-        <v>20</v>
-      </c>
+      <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5082,13 +5197,13 @@
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
       <c r="D212" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5098,13 +5213,13 @@
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
       <c r="D213" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5114,13 +5229,13 @@
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
       <c r="D214" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="H214" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5130,13 +5245,13 @@
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
       <c r="D215" s="19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="H215" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5146,13 +5261,13 @@
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
       <c r="D216" s="19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
       <c r="H216" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5162,13 +5277,13 @@
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
       <c r="D217" s="19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5178,15 +5293,13 @@
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
       <c r="D218" s="19">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E218" s="19"/>
-      <c r="F218" s="6">
-        <v>40</v>
-      </c>
+      <c r="F218" s="7"/>
       <c r="G218" s="7"/>
       <c r="H218" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5196,13 +5309,13 @@
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
       <c r="D219" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
       <c r="H219" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5212,13 +5325,13 @@
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
       <c r="D220" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E220" s="19"/>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
       <c r="H220" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5228,13 +5341,13 @@
       <c r="B221" s="18"/>
       <c r="C221" s="18"/>
       <c r="D221" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E221" s="19"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5244,13 +5357,13 @@
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
       <c r="D222" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
       <c r="H222" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5260,13 +5373,13 @@
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
       <c r="D223" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5276,13 +5389,13 @@
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
       <c r="D224" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="H224" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5292,13 +5405,13 @@
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
       <c r="D225" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
       <c r="H225" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5308,13 +5421,13 @@
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
       <c r="D226" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E226" s="19"/>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
       <c r="H226" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5324,13 +5437,15 @@
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
       <c r="D227" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E227" s="19"/>
-      <c r="F227" s="7"/>
+      <c r="F227" s="6">
+        <v>1</v>
+      </c>
       <c r="G227" s="7"/>
       <c r="H227" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5340,13 +5455,13 @@
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
       <c r="D228" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
       <c r="H228" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5356,13 +5471,13 @@
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
       <c r="D229" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E229" s="19"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
       <c r="H229" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5372,13 +5487,15 @@
       <c r="B230" s="18"/>
       <c r="C230" s="18"/>
       <c r="D230" s="19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E230" s="19"/>
-      <c r="F230" s="7"/>
+      <c r="F230" s="6">
+        <v>4</v>
+      </c>
       <c r="G230" s="7"/>
       <c r="H230" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5388,13 +5505,13 @@
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
       <c r="D231" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E231" s="19"/>
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
       <c r="H231" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5404,15 +5521,13 @@
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
       <c r="D232" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E232" s="19"/>
-      <c r="F232" s="6">
-        <v>5</v>
-      </c>
+      <c r="F232" s="7"/>
       <c r="G232" s="7"/>
       <c r="H232" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5422,13 +5537,13 @@
       <c r="B233" s="18"/>
       <c r="C233" s="18"/>
       <c r="D233" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
       <c r="H233" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5438,13 +5553,13 @@
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
       <c r="D234" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E234" s="19"/>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
       <c r="H234" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5454,13 +5569,15 @@
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
       <c r="D235" s="19">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E235" s="19"/>
-      <c r="F235" s="7"/>
+      <c r="F235" s="6">
+        <v>20</v>
+      </c>
       <c r="G235" s="7"/>
       <c r="H235" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5470,13 +5587,13 @@
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
       <c r="D236" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
       <c r="H236" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5486,13 +5603,13 @@
       <c r="B237" s="18"/>
       <c r="C237" s="18"/>
       <c r="D237" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E237" s="19"/>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
       <c r="H237" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5502,13 +5619,13 @@
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
       <c r="D238" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E238" s="19"/>
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
       <c r="H238" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5614,10 +5731,12 @@
       <c r="B245" s="18"/>
       <c r="C245" s="18"/>
       <c r="D245" s="19">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E245" s="19"/>
-      <c r="F245" s="7"/>
+      <c r="F245" s="6">
+        <v>20</v>
+      </c>
       <c r="G245" s="7"/>
       <c r="H245" s="6">
         <v>5</v>
@@ -5710,10 +5829,12 @@
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
       <c r="D251" s="19">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E251" s="19"/>
-      <c r="F251" s="7"/>
+      <c r="F251" s="6">
+        <v>20</v>
+      </c>
       <c r="G251" s="7"/>
       <c r="H251" s="6">
         <v>5</v>
@@ -5742,10 +5863,12 @@
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
       <c r="D253" s="19">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E253" s="19"/>
-      <c r="F253" s="7"/>
+      <c r="F253" s="6">
+        <v>40</v>
+      </c>
       <c r="G253" s="7"/>
       <c r="H253" s="6">
         <v>5</v>
@@ -5902,13 +6025,13 @@
       <c r="B263" s="18"/>
       <c r="C263" s="18"/>
       <c r="D263" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E263" s="19"/>
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
       <c r="H263" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5918,13 +6041,13 @@
       <c r="B264" s="18"/>
       <c r="C264" s="18"/>
       <c r="D264" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E264" s="19"/>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
       <c r="H264" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5934,13 +6057,15 @@
       <c r="B265" s="18"/>
       <c r="C265" s="18"/>
       <c r="D265" s="19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E265" s="19"/>
-      <c r="F265" s="7"/>
+      <c r="F265" s="6">
+        <v>5</v>
+      </c>
       <c r="G265" s="7"/>
       <c r="H265" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5950,13 +6075,13 @@
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
       <c r="D266" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E266" s="19"/>
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
       <c r="H266" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5966,29 +6091,29 @@
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
       <c r="D267" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E267" s="19"/>
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
       <c r="H267" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A268" s="18" t="s">
         <v>271</v>
       </c>
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
       <c r="D268" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E268" s="19"/>
       <c r="F268" s="7"/>
       <c r="G268" s="7"/>
       <c r="H268" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5998,13 +6123,13 @@
       <c r="B269" s="18"/>
       <c r="C269" s="18"/>
       <c r="D269" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E269" s="19"/>
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
       <c r="H269" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6014,13 +6139,13 @@
       <c r="B270" s="18"/>
       <c r="C270" s="18"/>
       <c r="D270" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E270" s="19"/>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
       <c r="H270" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6030,13 +6155,13 @@
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
       <c r="D271" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E271" s="19"/>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
       <c r="H271" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6046,13 +6171,13 @@
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>
       <c r="D272" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E272" s="19"/>
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
       <c r="H272" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6062,15 +6187,13 @@
       <c r="B273" s="18"/>
       <c r="C273" s="18"/>
       <c r="D273" s="19">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E273" s="19"/>
-      <c r="F273" s="6">
-        <v>10</v>
-      </c>
+      <c r="F273" s="7"/>
       <c r="G273" s="7"/>
       <c r="H273" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6080,13 +6203,13 @@
       <c r="B274" s="18"/>
       <c r="C274" s="18"/>
       <c r="D274" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E274" s="19"/>
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
       <c r="H274" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6096,13 +6219,13 @@
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
       <c r="D275" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E275" s="19"/>
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
       <c r="H275" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6112,13 +6235,13 @@
       <c r="B276" s="18"/>
       <c r="C276" s="18"/>
       <c r="D276" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
       <c r="H276" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6128,13 +6251,13 @@
       <c r="B277" s="18"/>
       <c r="C277" s="18"/>
       <c r="D277" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
       <c r="H277" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6144,13 +6267,13 @@
       <c r="B278" s="18"/>
       <c r="C278" s="18"/>
       <c r="D278" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E278" s="19"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
       <c r="H278" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6160,13 +6283,13 @@
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
       <c r="D279" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
       <c r="H279" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6176,13 +6299,13 @@
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
       <c r="D280" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E280" s="19"/>
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
       <c r="H280" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6192,13 +6315,13 @@
       <c r="B281" s="18"/>
       <c r="C281" s="18"/>
       <c r="D281" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E281" s="19"/>
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
       <c r="H281" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6208,13 +6331,13 @@
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
       <c r="D282" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E282" s="19"/>
       <c r="F282" s="7"/>
       <c r="G282" s="7"/>
       <c r="H282" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6224,13 +6347,13 @@
       <c r="B283" s="18"/>
       <c r="C283" s="18"/>
       <c r="D283" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E283" s="19"/>
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
       <c r="H283" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6240,15 +6363,13 @@
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
       <c r="D284" s="19">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E284" s="19"/>
-      <c r="F284" s="6">
-        <v>10</v>
-      </c>
+      <c r="F284" s="7"/>
       <c r="G284" s="7"/>
       <c r="H284" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6258,13 +6379,13 @@
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
       <c r="D285" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E285" s="19"/>
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
       <c r="H285" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6274,13 +6395,13 @@
       <c r="B286" s="18"/>
       <c r="C286" s="18"/>
       <c r="D286" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
       <c r="H286" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6290,13 +6411,13 @@
       <c r="B287" s="18"/>
       <c r="C287" s="18"/>
       <c r="D287" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E287" s="19"/>
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
       <c r="H287" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6306,13 +6427,13 @@
       <c r="B288" s="18"/>
       <c r="C288" s="18"/>
       <c r="D288" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E288" s="19"/>
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
       <c r="H288" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6322,13 +6443,13 @@
       <c r="B289" s="18"/>
       <c r="C289" s="18"/>
       <c r="D289" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E289" s="19"/>
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
       <c r="H289" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6338,15 +6459,13 @@
       <c r="B290" s="18"/>
       <c r="C290" s="18"/>
       <c r="D290" s="19">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E290" s="19"/>
-      <c r="F290" s="6">
-        <v>29</v>
-      </c>
+      <c r="F290" s="7"/>
       <c r="G290" s="7"/>
       <c r="H290" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6356,29 +6475,29 @@
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
       <c r="D291" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E291" s="19"/>
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
       <c r="H291" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A292" s="18" t="s">
         <v>295</v>
       </c>
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
       <c r="D292" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E292" s="19"/>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
       <c r="H292" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6388,15 +6507,13 @@
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
       <c r="D293" s="19">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E293" s="19"/>
-      <c r="F293" s="6">
-        <v>15</v>
-      </c>
+      <c r="F293" s="7"/>
       <c r="G293" s="7"/>
       <c r="H293" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6406,15 +6523,13 @@
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
       <c r="D294" s="19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E294" s="19"/>
-      <c r="F294" s="6">
-        <v>10</v>
-      </c>
+      <c r="F294" s="7"/>
       <c r="G294" s="7"/>
       <c r="H294" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6424,13 +6539,13 @@
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
       <c r="D295" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E295" s="19"/>
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
       <c r="H295" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6440,15 +6555,13 @@
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
       <c r="D296" s="19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E296" s="19"/>
-      <c r="F296" s="6">
-        <v>10</v>
-      </c>
+      <c r="F296" s="7"/>
       <c r="G296" s="7"/>
       <c r="H296" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6458,13 +6571,13 @@
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
       <c r="D297" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E297" s="19"/>
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
       <c r="H297" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6474,15 +6587,13 @@
       <c r="B298" s="18"/>
       <c r="C298" s="18"/>
       <c r="D298" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E298" s="19"/>
-      <c r="F298" s="6">
-        <v>4</v>
-      </c>
+      <c r="F298" s="7"/>
       <c r="G298" s="7"/>
       <c r="H298" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6492,13 +6603,13 @@
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
       <c r="D299" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E299" s="19"/>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
       <c r="H299" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6508,13 +6619,13 @@
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
       <c r="D300" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E300" s="19"/>
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
       <c r="H300" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6524,13 +6635,13 @@
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
       <c r="D301" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E301" s="19"/>
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
       <c r="H301" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6540,13 +6651,13 @@
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
       <c r="D302" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E302" s="19"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
       <c r="H302" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6556,15 +6667,13 @@
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
       <c r="D303" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E303" s="19"/>
-      <c r="F303" s="6">
-        <v>4</v>
-      </c>
+      <c r="F303" s="7"/>
       <c r="G303" s="7"/>
       <c r="H303" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6574,13 +6683,13 @@
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
       <c r="D304" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E304" s="19"/>
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
       <c r="H304" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6590,15 +6699,15 @@
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
       <c r="D305" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E305" s="19"/>
       <c r="F305" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G305" s="7"/>
       <c r="H305" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6608,13 +6717,13 @@
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
       <c r="D306" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E306" s="19"/>
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
       <c r="H306" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6624,13 +6733,15 @@
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
       <c r="D307" s="19">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="E307" s="19"/>
-      <c r="F307" s="7"/>
+      <c r="F307" s="6">
+        <v>90</v>
+      </c>
       <c r="G307" s="7"/>
       <c r="H307" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6640,13 +6751,13 @@
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
       <c r="D308" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E308" s="19"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
       <c r="H308" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6656,13 +6767,13 @@
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
       <c r="D309" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E309" s="19"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6672,29 +6783,29 @@
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
       <c r="D310" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E310" s="19"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
       <c r="H310" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A311" s="18" t="s">
         <v>314</v>
       </c>
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
       <c r="D311" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E311" s="19"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
       <c r="H311" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6704,15 +6815,15 @@
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
       <c r="D312" s="19">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="E312" s="19"/>
       <c r="F312" s="6">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="G312" s="7"/>
       <c r="H312" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6722,13 +6833,13 @@
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
       <c r="D313" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E313" s="19"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
       <c r="H313" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6738,13 +6849,13 @@
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
       <c r="D314" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E314" s="19"/>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
       <c r="H314" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6754,13 +6865,15 @@
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
       <c r="D315" s="19">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E315" s="19"/>
-      <c r="F315" s="7"/>
+      <c r="F315" s="6">
+        <v>10</v>
+      </c>
       <c r="G315" s="7"/>
       <c r="H315" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6770,13 +6883,13 @@
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
       <c r="D316" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E316" s="19"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
       <c r="H316" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6786,13 +6899,15 @@
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
       <c r="D317" s="19">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E317" s="19"/>
-      <c r="F317" s="7"/>
+      <c r="F317" s="6">
+        <v>29</v>
+      </c>
       <c r="G317" s="7"/>
       <c r="H317" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6802,31 +6917,29 @@
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
       <c r="D318" s="19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E318" s="19"/>
-      <c r="F318" s="6">
-        <v>31</v>
-      </c>
+      <c r="F318" s="7"/>
       <c r="G318" s="7"/>
       <c r="H318" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A319" s="18" t="s">
         <v>322</v>
       </c>
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
       <c r="D319" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E319" s="19"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
       <c r="H319" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6836,13 +6949,13 @@
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
       <c r="D320" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E320" s="19"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
       <c r="H320" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6852,15 +6965,13 @@
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
       <c r="D321" s="19">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E321" s="19"/>
-      <c r="F321" s="6">
-        <v>45</v>
-      </c>
+      <c r="F321" s="7"/>
       <c r="G321" s="7"/>
       <c r="H321" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6870,13 +6981,13 @@
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
       <c r="D322" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E322" s="19"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
       <c r="H322" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6886,13 +6997,13 @@
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
       <c r="D323" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E323" s="19"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
       <c r="H323" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6902,15 +7013,13 @@
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
       <c r="D324" s="19">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E324" s="19"/>
-      <c r="F324" s="6">
-        <v>30</v>
-      </c>
+      <c r="F324" s="7"/>
       <c r="G324" s="7"/>
       <c r="H324" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6920,13 +7029,13 @@
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
       <c r="D325" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E325" s="19"/>
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
       <c r="H325" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6936,15 +7045,13 @@
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
       <c r="D326" s="19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E326" s="19"/>
-      <c r="F326" s="6">
-        <v>10</v>
-      </c>
+      <c r="F326" s="7"/>
       <c r="G326" s="7"/>
       <c r="H326" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6954,15 +7061,13 @@
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
       <c r="D327" s="19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E327" s="19"/>
-      <c r="F327" s="6">
-        <v>10</v>
-      </c>
+      <c r="F327" s="7"/>
       <c r="G327" s="7"/>
       <c r="H327" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6972,13 +7077,15 @@
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
       <c r="D328" s="19">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E328" s="19"/>
-      <c r="F328" s="7"/>
+      <c r="F328" s="6">
+        <v>15</v>
+      </c>
       <c r="G328" s="7"/>
       <c r="H328" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6988,13 +7095,15 @@
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
       <c r="D329" s="19">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E329" s="19"/>
-      <c r="F329" s="7"/>
+      <c r="F329" s="6">
+        <v>10</v>
+      </c>
       <c r="G329" s="7"/>
       <c r="H329" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7004,13 +7113,13 @@
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
       <c r="D330" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E330" s="19"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
       <c r="H330" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7020,13 +7129,13 @@
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
       <c r="D331" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E331" s="19"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
       <c r="H331" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7036,13 +7145,13 @@
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
       <c r="D332" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E332" s="19"/>
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
       <c r="H332" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7052,13 +7161,13 @@
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
       <c r="D333" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E333" s="19"/>
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
       <c r="H333" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7068,15 +7177,15 @@
       <c r="B334" s="18"/>
       <c r="C334" s="18"/>
       <c r="D334" s="19">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E334" s="19"/>
       <c r="F334" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G334" s="7"/>
       <c r="H334" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7086,13 +7195,13 @@
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
       <c r="D335" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E335" s="19"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
       <c r="H335" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7102,13 +7211,15 @@
       <c r="B336" s="18"/>
       <c r="C336" s="18"/>
       <c r="D336" s="19">
+        <v>3</v>
+      </c>
+      <c r="E336" s="19"/>
+      <c r="F336" s="6">
         <v>1</v>
       </c>
-      <c r="E336" s="19"/>
-      <c r="F336" s="7"/>
       <c r="G336" s="7"/>
       <c r="H336" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7118,15 +7229,15 @@
       <c r="B337" s="18"/>
       <c r="C337" s="18"/>
       <c r="D337" s="19">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E337" s="19"/>
       <c r="F337" s="6">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G337" s="7"/>
       <c r="H337" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7136,13 +7247,13 @@
       <c r="B338" s="18"/>
       <c r="C338" s="18"/>
       <c r="D338" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E338" s="19"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
       <c r="H338" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7152,15 +7263,13 @@
       <c r="B339" s="18"/>
       <c r="C339" s="18"/>
       <c r="D339" s="19">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E339" s="19"/>
-      <c r="F339" s="6">
-        <v>28</v>
-      </c>
+      <c r="F339" s="7"/>
       <c r="G339" s="7"/>
       <c r="H339" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7170,13 +7279,13 @@
       <c r="B340" s="18"/>
       <c r="C340" s="18"/>
       <c r="D340" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E340" s="19"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7186,13 +7295,13 @@
       <c r="B341" s="18"/>
       <c r="C341" s="18"/>
       <c r="D341" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E341" s="19"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
       <c r="H341" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7202,15 +7311,13 @@
       <c r="B342" s="18"/>
       <c r="C342" s="18"/>
       <c r="D342" s="19">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E342" s="19"/>
-      <c r="F342" s="6">
-        <v>20</v>
-      </c>
+      <c r="F342" s="7"/>
       <c r="G342" s="7"/>
       <c r="H342" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7220,13 +7327,13 @@
       <c r="B343" s="18"/>
       <c r="C343" s="18"/>
       <c r="D343" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E343" s="19"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
       <c r="H343" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7236,13 +7343,13 @@
       <c r="B344" s="18"/>
       <c r="C344" s="18"/>
       <c r="D344" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E344" s="19"/>
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
       <c r="H344" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7252,13 +7359,13 @@
       <c r="B345" s="18"/>
       <c r="C345" s="18"/>
       <c r="D345" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E345" s="19"/>
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
       <c r="H345" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7268,13 +7375,13 @@
       <c r="B346" s="18"/>
       <c r="C346" s="18"/>
       <c r="D346" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E346" s="19"/>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
       <c r="H346" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7284,13 +7391,13 @@
       <c r="B347" s="18"/>
       <c r="C347" s="18"/>
       <c r="D347" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E347" s="19"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
       <c r="H347" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7300,31 +7407,31 @@
       <c r="B348" s="18"/>
       <c r="C348" s="18"/>
       <c r="D348" s="19">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E348" s="19"/>
       <c r="F348" s="6">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G348" s="7"/>
       <c r="H348" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A349" s="18" t="s">
         <v>352</v>
       </c>
       <c r="B349" s="18"/>
       <c r="C349" s="18"/>
       <c r="D349" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E349" s="19"/>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
       <c r="H349" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7334,13 +7441,13 @@
       <c r="B350" s="18"/>
       <c r="C350" s="18"/>
       <c r="D350" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E350" s="19"/>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7350,15 +7457,15 @@
       <c r="B351" s="18"/>
       <c r="C351" s="18"/>
       <c r="D351" s="19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E351" s="19"/>
       <c r="F351" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G351" s="7"/>
       <c r="H351" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7368,13 +7475,15 @@
       <c r="B352" s="18"/>
       <c r="C352" s="18"/>
       <c r="D352" s="19">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E352" s="19"/>
-      <c r="F352" s="7"/>
+      <c r="F352" s="6">
+        <v>31</v>
+      </c>
       <c r="G352" s="7"/>
       <c r="H352" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7384,13 +7493,13 @@
       <c r="B353" s="18"/>
       <c r="C353" s="18"/>
       <c r="D353" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E353" s="19"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
       <c r="H353" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7400,15 +7509,15 @@
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
       <c r="D354" s="19">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="E354" s="19"/>
       <c r="F354" s="6">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="G354" s="7"/>
       <c r="H354" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7418,15 +7527,13 @@
       <c r="B355" s="18"/>
       <c r="C355" s="18"/>
       <c r="D355" s="19">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E355" s="19"/>
-      <c r="F355" s="6">
-        <v>45</v>
-      </c>
+      <c r="F355" s="7"/>
       <c r="G355" s="7"/>
       <c r="H355" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7436,15 +7543,13 @@
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
       <c r="D356" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E356" s="19"/>
-      <c r="F356" s="6">
-        <v>5</v>
-      </c>
+      <c r="F356" s="7"/>
       <c r="G356" s="7"/>
       <c r="H356" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7454,31 +7559,29 @@
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
       <c r="D357" s="19">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E357" s="19"/>
-      <c r="F357" s="6">
-        <v>25</v>
-      </c>
+      <c r="F357" s="7"/>
       <c r="G357" s="7"/>
       <c r="H357" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A358" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B358" s="16"/>
-      <c r="C358" s="16"/>
-      <c r="D358" s="21">
-        <v>404</v>
-      </c>
-      <c r="E358" s="21"/>
-      <c r="F358" s="5"/>
-      <c r="G358" s="5"/>
-      <c r="H358" s="9">
-        <v>404</v>
+      <c r="B358" s="18"/>
+      <c r="C358" s="18"/>
+      <c r="D358" s="19">
+        <v>2</v>
+      </c>
+      <c r="E358" s="19"/>
+      <c r="F358" s="7"/>
+      <c r="G358" s="7"/>
+      <c r="H358" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7488,13 +7591,13 @@
       <c r="B359" s="18"/>
       <c r="C359" s="18"/>
       <c r="D359" s="19">
-        <v>277</v>
+        <v>2</v>
       </c>
       <c r="E359" s="19"/>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
       <c r="H359" s="6">
-        <v>277</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7504,13 +7607,13 @@
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
       <c r="D360" s="19">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E360" s="19"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
       <c r="H360" s="6">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7520,13 +7623,13 @@
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
       <c r="D361" s="19">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E361" s="19"/>
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
       <c r="H361" s="6">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7536,37 +7639,873 @@
       <c r="B362" s="18"/>
       <c r="C362" s="18"/>
       <c r="D362" s="19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E362" s="19"/>
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
       <c r="H362" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A363" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B363" s="18"/>
+      <c r="C363" s="18"/>
+      <c r="D363" s="19">
+        <v>2</v>
+      </c>
+      <c r="E363" s="19"/>
+      <c r="F363" s="7"/>
+      <c r="G363" s="7"/>
+      <c r="H363" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B364" s="18"/>
+      <c r="C364" s="18"/>
+      <c r="D364" s="19">
+        <v>6</v>
+      </c>
+      <c r="E364" s="19"/>
+      <c r="F364" s="6">
+        <v>4</v>
+      </c>
+      <c r="G364" s="7"/>
+      <c r="H364" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B365" s="18"/>
+      <c r="C365" s="18"/>
+      <c r="D365" s="19">
+        <v>2</v>
+      </c>
+      <c r="E365" s="19"/>
+      <c r="F365" s="7"/>
+      <c r="G365" s="7"/>
+      <c r="H365" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B366" s="18"/>
+      <c r="C366" s="18"/>
+      <c r="D366" s="19">
+        <v>1</v>
+      </c>
+      <c r="E366" s="19"/>
+      <c r="F366" s="7"/>
+      <c r="G366" s="7"/>
+      <c r="H366" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B367" s="18"/>
+      <c r="C367" s="18"/>
+      <c r="D367" s="19">
+        <v>46</v>
+      </c>
+      <c r="E367" s="19"/>
+      <c r="F367" s="6">
+        <v>45</v>
+      </c>
+      <c r="G367" s="7"/>
+      <c r="H367" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="B368" s="18"/>
+      <c r="C368" s="18"/>
+      <c r="D368" s="19">
+        <v>11</v>
+      </c>
+      <c r="E368" s="19"/>
+      <c r="F368" s="6">
+        <v>10</v>
+      </c>
+      <c r="G368" s="7"/>
+      <c r="H368" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B369" s="18"/>
+      <c r="C369" s="18"/>
+      <c r="D369" s="19">
+        <v>1</v>
+      </c>
+      <c r="E369" s="19"/>
+      <c r="F369" s="7"/>
+      <c r="G369" s="7"/>
+      <c r="H369" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B370" s="18"/>
+      <c r="C370" s="18"/>
+      <c r="D370" s="19">
+        <v>11</v>
+      </c>
+      <c r="E370" s="19"/>
+      <c r="F370" s="6">
+        <v>10</v>
+      </c>
+      <c r="G370" s="7"/>
+      <c r="H370" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B371" s="18"/>
+      <c r="C371" s="18"/>
+      <c r="D371" s="19">
+        <v>1</v>
+      </c>
+      <c r="E371" s="19"/>
+      <c r="F371" s="7"/>
+      <c r="G371" s="7"/>
+      <c r="H371" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="B372" s="18"/>
+      <c r="C372" s="18"/>
+      <c r="D372" s="19">
+        <v>1</v>
+      </c>
+      <c r="E372" s="19"/>
+      <c r="F372" s="7"/>
+      <c r="G372" s="7"/>
+      <c r="H372" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B373" s="18"/>
+      <c r="C373" s="18"/>
+      <c r="D373" s="19">
+        <v>31</v>
+      </c>
+      <c r="E373" s="19"/>
+      <c r="F373" s="6">
+        <v>30</v>
+      </c>
+      <c r="G373" s="7"/>
+      <c r="H373" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B374" s="18"/>
+      <c r="C374" s="18"/>
+      <c r="D374" s="19">
+        <v>1</v>
+      </c>
+      <c r="E374" s="19"/>
+      <c r="F374" s="7"/>
+      <c r="G374" s="7"/>
+      <c r="H374" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B375" s="18"/>
+      <c r="C375" s="18"/>
+      <c r="D375" s="19">
+        <v>1</v>
+      </c>
+      <c r="E375" s="19"/>
+      <c r="F375" s="7"/>
+      <c r="G375" s="7"/>
+      <c r="H375" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B376" s="18"/>
+      <c r="C376" s="18"/>
+      <c r="D376" s="19">
+        <v>29</v>
+      </c>
+      <c r="E376" s="19"/>
+      <c r="F376" s="6">
+        <v>28</v>
+      </c>
+      <c r="G376" s="7"/>
+      <c r="H376" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B377" s="18"/>
+      <c r="C377" s="18"/>
+      <c r="D377" s="19">
+        <v>6</v>
+      </c>
+      <c r="E377" s="19"/>
+      <c r="F377" s="6">
+        <v>5</v>
+      </c>
+      <c r="G377" s="7"/>
+      <c r="H377" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B378" s="18"/>
+      <c r="C378" s="18"/>
+      <c r="D378" s="19">
+        <v>1</v>
+      </c>
+      <c r="E378" s="19"/>
+      <c r="F378" s="7"/>
+      <c r="G378" s="7"/>
+      <c r="H378" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="B379" s="18"/>
+      <c r="C379" s="18"/>
+      <c r="D379" s="19">
+        <v>1</v>
+      </c>
+      <c r="E379" s="19"/>
+      <c r="F379" s="7"/>
+      <c r="G379" s="7"/>
+      <c r="H379" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B380" s="18"/>
+      <c r="C380" s="18"/>
+      <c r="D380" s="19">
+        <v>36</v>
+      </c>
+      <c r="E380" s="19"/>
+      <c r="F380" s="6">
+        <v>35</v>
+      </c>
+      <c r="G380" s="7"/>
+      <c r="H380" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381" s="18"/>
+      <c r="C381" s="18"/>
+      <c r="D381" s="19">
+        <v>1</v>
+      </c>
+      <c r="E381" s="19"/>
+      <c r="F381" s="7"/>
+      <c r="G381" s="7"/>
+      <c r="H381" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B382" s="18"/>
+      <c r="C382" s="18"/>
+      <c r="D382" s="19">
+        <v>1</v>
+      </c>
+      <c r="E382" s="19"/>
+      <c r="F382" s="7"/>
+      <c r="G382" s="7"/>
+      <c r="H382" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B383" s="18"/>
+      <c r="C383" s="18"/>
+      <c r="D383" s="19">
+        <v>1</v>
+      </c>
+      <c r="E383" s="19"/>
+      <c r="F383" s="7"/>
+      <c r="G383" s="7"/>
+      <c r="H383" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B384" s="18"/>
+      <c r="C384" s="18"/>
+      <c r="D384" s="19">
+        <v>1</v>
+      </c>
+      <c r="E384" s="19"/>
+      <c r="F384" s="7"/>
+      <c r="G384" s="7"/>
+      <c r="H384" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="B385" s="18"/>
+      <c r="C385" s="18"/>
+      <c r="D385" s="19">
+        <v>1</v>
+      </c>
+      <c r="E385" s="19"/>
+      <c r="F385" s="7"/>
+      <c r="G385" s="7"/>
+      <c r="H385" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B386" s="18"/>
+      <c r="C386" s="18"/>
+      <c r="D386" s="19">
+        <v>501</v>
+      </c>
+      <c r="E386" s="19"/>
+      <c r="F386" s="6">
+        <v>500</v>
+      </c>
+      <c r="G386" s="7"/>
+      <c r="H386" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="B387" s="18"/>
+      <c r="C387" s="18"/>
+      <c r="D387" s="19">
+        <v>1</v>
+      </c>
+      <c r="E387" s="19"/>
+      <c r="F387" s="7"/>
+      <c r="G387" s="7"/>
+      <c r="H387" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B388" s="18"/>
+      <c r="C388" s="18"/>
+      <c r="D388" s="19">
+        <v>1</v>
+      </c>
+      <c r="E388" s="19"/>
+      <c r="F388" s="7"/>
+      <c r="G388" s="7"/>
+      <c r="H388" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B389" s="18"/>
+      <c r="C389" s="18"/>
+      <c r="D389" s="19">
+        <v>26</v>
+      </c>
+      <c r="E389" s="19"/>
+      <c r="F389" s="6">
+        <v>25</v>
+      </c>
+      <c r="G389" s="7"/>
+      <c r="H389" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="B390" s="18"/>
+      <c r="C390" s="18"/>
+      <c r="D390" s="19">
+        <v>1</v>
+      </c>
+      <c r="E390" s="19"/>
+      <c r="F390" s="7"/>
+      <c r="G390" s="7"/>
+      <c r="H390" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B391" s="18"/>
+      <c r="C391" s="18"/>
+      <c r="D391" s="19">
+        <v>11</v>
+      </c>
+      <c r="E391" s="19"/>
+      <c r="F391" s="6">
+        <v>10</v>
+      </c>
+      <c r="G391" s="7"/>
+      <c r="H391" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B392" s="18"/>
+      <c r="C392" s="18"/>
+      <c r="D392" s="19">
+        <v>1</v>
+      </c>
+      <c r="E392" s="19"/>
+      <c r="F392" s="7"/>
+      <c r="G392" s="7"/>
+      <c r="H392" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B393" s="18"/>
+      <c r="C393" s="18"/>
+      <c r="D393" s="19">
+        <v>1</v>
+      </c>
+      <c r="E393" s="19"/>
+      <c r="F393" s="7"/>
+      <c r="G393" s="7"/>
+      <c r="H393" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B394" s="18"/>
+      <c r="C394" s="18"/>
+      <c r="D394" s="19">
+        <v>1</v>
+      </c>
+      <c r="E394" s="19"/>
+      <c r="F394" s="7"/>
+      <c r="G394" s="7"/>
+      <c r="H394" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B395" s="18"/>
+      <c r="C395" s="18"/>
+      <c r="D395" s="19">
+        <v>1</v>
+      </c>
+      <c r="E395" s="19"/>
+      <c r="F395" s="7"/>
+      <c r="G395" s="7"/>
+      <c r="H395" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="B396" s="18"/>
+      <c r="C396" s="18"/>
+      <c r="D396" s="19">
+        <v>1</v>
+      </c>
+      <c r="E396" s="19"/>
+      <c r="F396" s="7"/>
+      <c r="G396" s="7"/>
+      <c r="H396" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="B397" s="18"/>
+      <c r="C397" s="18"/>
+      <c r="D397" s="19">
+        <v>21</v>
+      </c>
+      <c r="E397" s="19"/>
+      <c r="F397" s="6">
+        <v>20</v>
+      </c>
+      <c r="G397" s="7"/>
+      <c r="H397" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B398" s="18"/>
+      <c r="C398" s="18"/>
+      <c r="D398" s="19">
+        <v>1</v>
+      </c>
+      <c r="E398" s="19"/>
+      <c r="F398" s="7"/>
+      <c r="G398" s="7"/>
+      <c r="H398" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B399" s="18"/>
+      <c r="C399" s="18"/>
+      <c r="D399" s="19">
+        <v>1</v>
+      </c>
+      <c r="E399" s="19"/>
+      <c r="F399" s="7"/>
+      <c r="G399" s="7"/>
+      <c r="H399" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B400" s="18"/>
+      <c r="C400" s="18"/>
+      <c r="D400" s="19">
+        <v>1</v>
+      </c>
+      <c r="E400" s="19"/>
+      <c r="F400" s="7"/>
+      <c r="G400" s="7"/>
+      <c r="H400" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B401" s="18"/>
+      <c r="C401" s="18"/>
+      <c r="D401" s="19">
+        <v>5</v>
+      </c>
+      <c r="E401" s="19"/>
+      <c r="F401" s="6">
+        <v>4</v>
+      </c>
+      <c r="G401" s="7"/>
+      <c r="H401" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+      <c r="D402" s="21">
+        <v>371</v>
+      </c>
+      <c r="E402" s="21"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="9">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B403" s="18"/>
+      <c r="C403" s="18"/>
+      <c r="D403" s="19">
+        <v>277</v>
+      </c>
+      <c r="E403" s="19"/>
+      <c r="F403" s="7"/>
+      <c r="G403" s="7"/>
+      <c r="H403" s="6">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B404" s="18"/>
+      <c r="C404" s="18"/>
+      <c r="D404" s="19">
+        <v>56</v>
+      </c>
+      <c r="E404" s="19"/>
+      <c r="F404" s="7"/>
+      <c r="G404" s="7"/>
+      <c r="H404" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B405" s="18"/>
+      <c r="C405" s="18"/>
+      <c r="D405" s="19">
+        <v>24</v>
+      </c>
+      <c r="E405" s="19"/>
+      <c r="F405" s="7"/>
+      <c r="G405" s="7"/>
+      <c r="H405" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B406" s="18"/>
+      <c r="C406" s="18"/>
+      <c r="D406" s="19">
+        <v>12</v>
+      </c>
+      <c r="E406" s="19"/>
+      <c r="F406" s="7"/>
+      <c r="G406" s="7"/>
+      <c r="H406" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B407" s="18"/>
+      <c r="C407" s="18"/>
+      <c r="D407" s="19">
+        <v>2</v>
+      </c>
+      <c r="E407" s="19"/>
+      <c r="F407" s="7"/>
+      <c r="G407" s="7"/>
+      <c r="H407" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B363" s="15"/>
-      <c r="C363" s="15"/>
-      <c r="D363" s="22">
-        <v>16540</v>
-      </c>
-      <c r="E363" s="22"/>
-      <c r="F363" s="10">
-        <v>8803</v>
-      </c>
-      <c r="G363" s="11"/>
-      <c r="H363" s="10">
-        <v>7737</v>
+      <c r="B408" s="15"/>
+      <c r="C408" s="15"/>
+      <c r="D408" s="22">
+        <v>16952</v>
+      </c>
+      <c r="E408" s="22"/>
+      <c r="F408" s="10">
+        <v>8754</v>
+      </c>
+      <c r="G408" s="11"/>
+      <c r="H408" s="10">
+        <v>8198</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="721">
+  <mergeCells count="811">
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="D408:E408"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="D403:E403"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="D404:E404"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="D405:E405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="D406:E406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="D407:E407"/>
+    <mergeCell ref="A398:C398"/>
+    <mergeCell ref="D398:E398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="D399:E399"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="D400:E400"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="D401:E401"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="D402:E402"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="D393:E393"/>
+    <mergeCell ref="A394:C394"/>
+    <mergeCell ref="D394:E394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="D395:E395"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="D397:E397"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="D388:E388"/>
+    <mergeCell ref="A389:C389"/>
+    <mergeCell ref="D389:E389"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="D390:E390"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="D391:E391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="D392:E392"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="D383:E383"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="D384:E384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="D385:E385"/>
+    <mergeCell ref="A386:C386"/>
+    <mergeCell ref="D386:E386"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="D387:E387"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="D379:E379"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="D380:E380"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="A382:C382"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="D373:E373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="D374:E374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="D375:E375"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="D368:E368"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="D369:E369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="D370:E370"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="D371:E371"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="D372:E372"/>
     <mergeCell ref="A363:C363"/>
     <mergeCell ref="D363:E363"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="D364:E364"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="D365:E365"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="D366:E366"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="D367:E367"/>
     <mergeCell ref="A358:C358"/>
     <mergeCell ref="D358:E358"/>
     <mergeCell ref="A359:C359"/>

--- a/input_data/titanium_base/titanium_base_unsh.xlsx
+++ b/input_data/titanium_base/titanium_base_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/titanium_base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/titanium_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D561B239-7552-9A43-AE7C-ABA8883B4ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B482A94-44CB-EC46-AE8A-AAADC8640DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="334">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,1108 +56,925 @@
     <t>Титановое основание</t>
   </si>
   <si>
+    <t>38710уп2 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>38200B ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>38213В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709уп2 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>38709 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38213В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>38144С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
   </si>
   <si>
+    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>38238В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
   </si>
   <si>
     <t>38215В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 /</t>
   </si>
   <si>
+    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>38114В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
   </si>
   <si>
+    <t>38731уп2 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>38213В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 /</t>
   </si>
   <si>
+    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38723 ТО LM Bell (GEO) Nobel Replace Select 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL-RPM-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38724 ТО LM Bell (GEO) Nobel Replace Select 4.3 bridge G/H=1 H=5.4 без позиционера (арт. LL2-RPR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38725 ТО LM Bell (GEO) Nobel Replace Select 5.0 bridge G/H=1 H=5.4 без позиционера (арт. LL2-RPW-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38782уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>38710 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38702 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+    <t>38200уп2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38731 ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38112В ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 /</t>
-  </si>
-  <si>
-    <t>38707уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39056опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38144С ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38201B ТО LM Patch (NT-Trading) Nobel Replace Select 3.5 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / / БЕЗ ВИНТА</t>
+    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
   </si>
   <si>
     <t>38772 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38118С ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38145В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 /</t>
+    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38703 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38281В ТО LM Flat (2 лыски, с насечками) Conmet RP (2.7) full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38702уп2 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38144уп2 ТО LM Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>38200B ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38208В ТО LM Flat (2 лыски, с насечками) Biomet 3i Certain 4.1 full G/H=0.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
+  </si>
+  <si>
+    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>38700 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>38709уп ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38702уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>39053уп ТО LM Bell (GEO) MegaGen AnyOne full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERA13-H2) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38281В ТО LM Flat (2 лыски, с насечками) Conmet RP (2.7) full G/H=1 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38700уп ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 1 ВИНТ, УПАК</t>
+    <t>38200BС ТО LM Pro Long Implantium full G/H=1.5 H=8 с позиционером V.3 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200оптV2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38200Bуп2 ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39038уп2 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38714уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / 2 ВИНТА, У</t>
+  </si>
+  <si>
+    <t>39054уп2 ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39008 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 /</t>
+  </si>
+  <si>
+    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39008П ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) ПОЛИР. V.1.P / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38145В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38238оптV4 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39045 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 /</t>
+  </si>
+  <si>
+    <t>43040В ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38200BСуп2 ТО LM Pro Long Implantium full G/H=1.5 H=8 с позиционером V.3 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>387151уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38731Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39047 ТО LM Bell (GEO) Zimmer 4.5 full G/H=2 H=6 с позиционером (арт. LL2-TSV420-H) V.1 /</t>
+  </si>
+  <si>
+    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39056уп2 ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
+  </si>
+  <si>
+    <t>38237В ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39027уп2 ТО LM Pro Long Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=8 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
   </si>
   <si>
     <t>38702опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>35084 ТО LM (копия оригинала) MegaGen AnyOne bridge G/H=0.6 H=6 без позиционера (арт. AAOIPR4016N.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>38721 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38200оптV2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38215В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38707 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39055опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38205BНопт ТО LM TiN Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3.A / ВКЛ.</t>
-  </si>
-  <si>
-    <t>39072 ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 /</t>
-  </si>
-  <si>
-    <t>39008П ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) ПОЛИР. V.1.P / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39008 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 /</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4 без позиционера V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38240В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38703 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / / БЕЗ ВИНТА</t>
+    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38708 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
+  </si>
+  <si>
+    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38767уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39036 ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38272BV2 ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39049 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 /</t>
+  </si>
+  <si>
+    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38721уп2 ТО LM Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38279В ТО LM Half (2 лыски) INNO full G/H=0.7 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38279В ТО LM Flat (2 лыски, с насечками) INNO full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
+  </si>
+  <si>
+    <t>38205B ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38709Н ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38215опт ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38156СотклЛУАопт ТО LM Patch (NT-Trading) ICX Medentis bridge G/H=1 H=4 без позиционера V.1/ С ОТКЛОНЕНИЕМ ПО ЛУА / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38217В ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) full G/H=0.4 H=4.5 с позиционером V.6 /</t>
+  </si>
+  <si>
+    <t>38280В ТО LM Flat (2 лыски, с насечками) Conmet NP (2.2) full G/H=1.5 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38146ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43047В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38789Н ТО LM TiN Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39053опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERA13-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
+  </si>
+  <si>
+    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38769 ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>43069В ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) full G/H=1.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39048 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 /</t>
+  </si>
+  <si>
+    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38757уп2 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39054опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38703опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39027 ТО LM Pro Long Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=8 с позиционером V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38730уп2 ТО LM Step (GEO) Implantium full G/H=1 H=3.75 с позиционером (арт. LS2-DER-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39037 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39045Пуп2 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38704опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
+  </si>
+  <si>
+    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38148В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38215В1опт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38114В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38168В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38751 ТО LM Bell (GEO) Xive 3.8 bridge G/H=1 H=5.4 без позиционера (арт. LL2-XVR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38769уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43048В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
+  </si>
+  <si>
+    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38760 ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38760опт ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39065 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=2 H=6 с позиционером (арт. LL2-DERN20-H2) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38708Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39007опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38272Bопт ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39073 ТО LM Bell (GEO) Mis WP (5.0/6.0) bridge G/H=0.6 H=5.5 без позиционера (арт. LL2-MSW-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38707Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38777 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38223В ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43049В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39096 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=2 H=6 с позиционером (арт. LL2-ITR20-O) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38278В ТО LM Flat (2 лыски, с насечками) Sky Bredent full G/H=0.5 H=4 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38215Вопт ТО LM Half (2 лыски) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38760уп2 ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38238ВН ТО LM TiN Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38707опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38704Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38223В ТО LM Flat (2 лыски, с насечками) Astra Tech 4.5/5.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38149В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) bridge без шестигранника V.3 / I КАТЕГОРИЯ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39038 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38702Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39044 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=6 с позиционером (арт. LL2-ASR20-H2) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>39040 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=2 H=6 с позиционером (арт. LL2-ACR20-H) V.1 /</t>
+  </si>
+  <si>
+    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38256В ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38774 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43050В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39009 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38157В ТО LM Flat (2 лыски, с насечками) Niko 3.5 bridge G/H=1 H=4.5 без позиционера V.2 /</t>
+  </si>
+  <si>
+    <t>38758 ТО LM Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38222В ТО LM Half (2 лыски) Astra Tech 3.5/4.0 full G/H=1.2 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38782Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38201B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 3.5 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>43043В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43090Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38782опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОП</t>
+  </si>
+  <si>
+    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43041С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39097опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITR-0) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38787 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38700опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>43059Сопт ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39007 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 /</t>
+  </si>
+  <si>
+    <t>38717 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38213В1опт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39049опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38149В ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) bridge G/H=1.2 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38145В1опт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38789 ТО LM Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38241В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>43046Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38202B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 4.3 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38702Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38217В2опт ТО LM Half (2 лыски) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39070опт ТО LM Bell (GEO) Anthogyr Axiom bridge G/H=1.5 H=5.3 без позиционера (арт. LL2-ANG-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38140С ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1 H=4.5 без позиционера V.5 /</t>
+  </si>
+  <si>
+    <t>38789Нопт ТО LM TiN Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38250В ТО LM Flat (2 лыски, с насечками) BioHorizons 3.0 full G/H=1 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43045В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709Нопт ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38787опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38714Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1.A / / БЕЗ</t>
+  </si>
+  <si>
+    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38238уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39037опт ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38141В ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=1.1 H=4.5 без позиционера V.5 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38709Н-2к ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38716 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>43050Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38144СН ТО LM TiN Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2.A /I КАТ / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38757опт ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
+  </si>
+  <si>
+    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>43261В ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38288В ТО LM Flat (2 лыски, с насечками) DIO SM RP (4.5) full G/H=1 H=4.5 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38425В ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>39046опт ТО LM Bell (GEO) Zimmer 3.5 full G/H=2 H=5.3 с позиционером (арт. LL2-TSV320-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38767опт ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>39069опт ТО LM Bell (GEO) Anthogyr Axiom full G/H=1.5 H=5.3 с позиционером (арт. LL2-ANG-E) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38158уп2 ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38701Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38139С ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1 H=4.5 без позиционера V.3 /</t>
+  </si>
+  <si>
+    <t>38733 ТО LM Bell (GEO) Nobel Replace Select 6.0 full G/H=0.6 H=5.3 с позиционером (арт. LL2-RP60-E) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38213уп2 ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38714опт ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / ВКЛ. 1 ВИН</t>
+  </si>
+  <si>
+    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>38721Н ТО LM TiN Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38283В ТО LM Half (2 лыски) Adin RP (3.5) full G/H=1.6 H=4 с позиционером V.1 /</t>
+  </si>
+  <si>
+    <t>38220В ТО LM Flat (2 лыски, с насечками) Zimmer 4.5 full G/H=0.5 H=4.5 с позиционером V.5 /</t>
+  </si>
+  <si>
+    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 /</t>
+  </si>
+  <si>
+    <t>38217В3опт ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38713 ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38286В ТО LM Flat (2 лыски, с насечками) Alpha Bio Conical Narrow full G/H=1 H=4.5 с позиционером V.2 /</t>
+  </si>
+  <si>
+    <t>38237ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1.A / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38247В ТО LM Flat (2 лыски, с насечками) Mis NP (3.3) full G/H=0.5 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38203B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 5.0 full G/H=0.4 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>38181Вопт ТО LM Flat (2 лыски, с насечками) Adin RP (3.5) bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>38709опт ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>38204B3опт ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>38145В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38701 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38112В ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) bridge G/H=1.1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>389821уп2 ТО LM TiN GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39036уп ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>39055уп ТО LM Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38200BН1уп2 ТО LM TiN Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38731уп ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38704уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>387031уп ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38200BС ТО LM Pro Long Implantium full G/H=1.5 H=8 с позиционером V.3 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38700Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38701уп ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38222Вопт ТО LM Half (2 лыски) Astra Tech 3.5/4.0 full G/H=1.2 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38234А1опт ТО LM Flat (2 лыски, с насечками) Zimmer 3.5 full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38278В ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38775 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38248В ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38238оптV4 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38146В ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38767уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38705 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SUM13-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43090Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38279В ТО LM Flat (2 лыски, с насечками) INNO full G/H=1 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>39009 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38704 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38276В ТО LM (копия оригинала) BoneTrust HEX 3.4 / 4.0 full G/H=0.5 H=5.2 с позиционером (арт. 166-003400) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38605опт ТО LM Pro Long Zimmer 3.5 full G/H=0.5 H=8 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38712Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39045 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 /</t>
-  </si>
-  <si>
-    <t>39072уп ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38710опт ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>39047 ТО LM Bell (GEO) Zimmer 4.5 full G/H=2 H=6 с позиционером (арт. LL2-TSV420-H) V.1 /</t>
-  </si>
-  <si>
-    <t>38982 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 /</t>
-  </si>
-  <si>
-    <t>38240уп2 ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>43047Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38769 ТО LM Bell (GEO) Astra Tech 3.5/4.0 bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-ASR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237В ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38712уп ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38706Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38787 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43040В ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35083 ТО LM (копия оригинала) MegaGen AnyOne full G/H=0.6 H=6 с позиционером (арт. AAOIPR4016.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38713Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39008опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38122С ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43050Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38247Вопт ТО LM Flat (2 лыски, с насечками) Mis NP (3.3) full G/H=0.5 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38716Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A /I КАТ</t>
-  </si>
-  <si>
-    <t>38150В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38706 ТО LM Bell (GEO) Osstem Implant Mini (3.5) bridge G/H=2 H=5.25 без позиционера (арт. LL2-SUM20-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38236В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38712Нуп ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38714уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / 2 ВИНТА, У</t>
-  </si>
-  <si>
-    <t>43261Вопт ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43262Вопт ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38760Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>43040Вуп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38200B1уп2 ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38710Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38272BV2 ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38761Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39030уп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=5.25 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38248В1уп2 ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38709Нуп ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38704Нуп ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>39036Нуп ТО LM TiN Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>39037опт ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43035Вуп2 ТО LM Flat (2 лыски, с насечками) Implantium 3.4 full G/H=1.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39036 ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38731Нуп ТО LM TiN Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38758Нуп2 ТО LM TiN Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38700Нуп ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38709Нуп2 ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38747 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39045уп ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38241C ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43035Вопт ТО LM Flat (2 лыски, с насечками) Implantium 3.4 full G/H=1.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38701Нуп ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38279В ТО LM Half (2 лыски) INNO full G/H=0.7 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>39065опт ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=2 H=6 с позиционером (арт. LL2-DERN20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38703Нуп ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38702Нуп ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38200уп2 ТО LM Half (2 лыски) Implantium, Impro full G/H=1.4 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>39045Нуп2 ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39036опт ТО LM Bell (GEO) Implantium full G/H=3 H=6 с позиционером (арт. LL-DER30-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43047В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38128C ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1 H=4.5 без позиционера V.4 /</t>
-  </si>
-  <si>
-    <t>38782опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОП</t>
-  </si>
-  <si>
-    <t>38700опт ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38205B ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>43048Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38280В ТО LM Half (2 лыски) Conmet NP (2.2) full G/H=1.3 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>39007 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38254опт ТО LM Patch (NT-Trading) ICX Medentis full G/H=1 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38146ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=0.9 H=4 без позиционера V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38709Н ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38708 ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38156СотклЛУАопт ТО LM Patch (NT-Trading) ICX Medentis bridge G/H=1 H=4 без позиционера V.1/ С ОТКЛОНЕНИЕМ ПО ЛУА / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38976В ТО LM Patch (NT-Trading) Bego Semados 4.1 bridge G/H=0.5 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38217В ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) full G/H=0.4 H=4.5 с позиционером V.6 /</t>
-  </si>
-  <si>
-    <t>38243В ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39037 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERN-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38141В3уп2 ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=2.6 H=4.5 без позиционера V.6 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38778Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) bridge G/H=0.8 H=4.6 без позиционера (арт. LL2-MS33-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38240уп ТО LM Half (2 лыски) Mis C1 (Conical) SP (3.75/4.2) full G/H=0.7 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>43042Суп2 ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=2.5 H=4.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38238уп2 ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38777Нуп2 ТО LM TiN Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39045Нопт ТО LM TiN Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38716Нуп2 ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1.A / 2</t>
-  </si>
-  <si>
-    <t>38222В ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38148В ТО LM Patch (NT-Trading) MegaGen AnyRidge bridge G/H=0.8 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38238Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39054Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43050Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38237Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38243оптV3 ТО LM Patch (NT-Trading) MegaGen AnyRidge full G/H=1.3 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43093В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39045опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38771уп ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38703опт ТО LM Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2 H=6 с позиционером (арт. LL2-SURO20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39027 ТО LM Pro Long Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=8 с позиционером V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43048Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38286В ТО LM Half (2 лыски) Alpha Bio Conical Narrow full G/H=1.5 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>43075Вопт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5) bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39053опт ТО LM Bell (GEO) MegaGen AnyOne full G/H=1.3 H=5.25 с позиционером (арт. LL2-DERA13-H2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38738Нуп2 ТО LM TiN Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39054опт ТО LM Bell (GEO) MegaGen AnyOne bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-DERA13-N2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39039уп2 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=2 H=6 с позиционером (арт. LL2-ACN20-H) V.1 / 2 ВИНТА, УПА</t>
-  </si>
-  <si>
-    <t>38712опт ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38715Нопт ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / ВКЛ</t>
-  </si>
-  <si>
-    <t>38141В2уп2 ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=1.1 H=4.5 без позиционера V.5 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38237оптV4 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39009опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=1.3 H=5.25 без позиционера (арт. LL2-BLR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39055Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne full G/H=2 H=6 с позиционером (арт. LL2-DERA20-H2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38722 ТО LM Bell (GEO) Nobel Replace Select 5.0 full G/H=1 H=5.4 с позиционером (арт. LL2-RPW-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39045Пуп2 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=2 H=6 с позиционером (арт. LL2-MARR20-H2) ПОЛИР. V.1.P / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38256Вопт ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38200Bопт ТО LM Patch (NT-Trading) Implantium full G/H=1.4 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38157В ТО LM Patch (NT-Trading) Niko 3.5 bridge G/H=0.9 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38717уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>39056Нопт ТО LM TiN Bell (GEO) MegaGen AnyOne bridge G/H=2 H=6 без позиционера (арт. LL2-DERA20-N2) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38238В ТО LM Half (2 лыски) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4 с позиционером V.4 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38731опт ТО LM Bell (GEO) Implantium full G/H=2 H=6 с позиционером (арт. LL2-DER20-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39049 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 /</t>
-  </si>
-  <si>
-    <t>38146Вуп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38730уп2 ТО LM Step (GEO) Implantium full G/H=1 H=3.75 с позиционером (арт. LS2-DER-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38700уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38982уп2 ТО LM GEO Implantium full G/H=1.2 H=4.7 с позиционером (арт. SRN2-DER-H  Sirona) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38773уп ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Patch (NT-Trading) Xive 3.8 full G/H=0.4 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38146Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.5 H=4.5 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38145ВНопт ТО LM TiN Patch (NT-Trading) Osstem Implant Mini (3.5) bridge G/H=0.6 H=4 без позиционера V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>387151уп2 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2 / 2 ВИНТА,</t>
-  </si>
-  <si>
-    <t>43069В ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5) full G/H=1.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38710Н ТО LM TiN Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38746 ТО LM Bell (GEO) Xive 3.8 full G/H=1 H=5.25 с позиционером (арт. LL2-XVR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43046Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=2.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38148В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge bridge G/H=1.5 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38118С ТО LM Flat (2 лыски, с насечками) Straumann SynOcta RN (4.8) bridge G/H=1.2 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38205Bуп ТО LM Half (2 лыски) Nobel Active RP (4.5) full G/H=1 H=4 с позиционером V.2 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38114В ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38757опт ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38717опт ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / ВКЛ. 1 В</t>
-  </si>
-  <si>
-    <t>38760опт ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38757 ТО LM Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38774уп2 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38714 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38751 ТО LM Bell (GEO) Xive 3.8 bridge G/H=1 H=5.4 без позиционера (арт. LL2-XVR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38168В ТО LM Flat (2 лыски, с насечками) MegaGen AnyOne bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38744 ТО LM Bell (GEO) Xive 3.0 full G/H=1.2 H=4.55 с позиционером (арт. LL2-XV3-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234А ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43044Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43036Вопт ТО LM Flat (2 лыски, с насечками) Implantium 3.4 bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38243В ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38768 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39097опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=1.3 H=4.65 с позиционером (арт. LL2-ITR-0) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38712 ТО LM Bell (GEO) MegaGen AnyRidge full G/H=1.3 H=5.4 с позиционером (арт. LL2-MARR-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38715Н1уп2 ТО LM TiN Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACR-H) V.2.A / 2</t>
-  </si>
-  <si>
-    <t>39038 ТО LM Bell (GEO) Implantium bridge G/H=2 H=6 без позиционера (арт. LL2-DER20-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38241уп2 ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) full G/H=1.2 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38771Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) NP (3.3) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1M-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38766 ТО LM Bell (GEO) Astra Tech 3.0 full G/H=1.3 H=4.55 с позиционером (арт. LL2-AS3-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38787опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=1.3 H=4.55 с позиционером (арт. LL2-BLM-R) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38702Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38256Вуп2 ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38704Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=3 H=6 с позиционером (арт. LL2-SURO30-H) V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38257В1опт ТО LM Half (2 лыски) NeoBiotech 4.3 full G/H=1.3 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43050В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2.5 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38278В ТО LM Flat (2 лыски, с насечками) Sky Bredent full G/H=0.5 H=4 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>38748 ТО LM Bell (GEO) Xive 5.5 full G/H=0.5 H=5.3 с позиционером (арт. LL2-XV55-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38257Вуп2 ТО LM Flat (2 лыски, с насечками) NeoBiotech 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38773Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38145В1уп2 ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1.5 H=4.5 без позиционера V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38709Нопт ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38256В ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38223В ТО LM Flat (2 лыски, с насечками) Astra Tech 4.5/5.0 full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38149В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) bridge без шестигранника V.3 / I КАТЕГОРИЯ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38788опт ТО LM Bell (GEO) Straumann Bone Level NC (3.3) bridge G/H=1.3 H=4.55 без позиционера (арт. LL2-BLM-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38256В2опт ТО LM Flat (2 лыски, с насечками) NeoBiotech 3.8 / 4.3 full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39048 ТО LM Bell (GEO) Straumann Bone Level NC (3.3) full G/H=2 H=6 с позиционером (арт. LL2-BLM20-R2) V.1 /</t>
-  </si>
-  <si>
-    <t>38752Нопт ТО LM TiN Bell (GEO) Xive 4.5 bridge G/H=1 H=5.05 без позиционера (арт. LL2-XVW-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>39065 ТО LM Bell (GEO) NeoBiotech 4.3 full G/H=2 H=6 с позиционером (арт. LL2-DERN20-H2) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39040 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=2 H=6 с позиционером (арт. LL2-ACR20-H) V.1 /</t>
-  </si>
-  <si>
-    <t>387001уп2 ТО LM Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38292В ТО LM Flat (2 лыски, с насечками) Nobel Active 3.0 full G/H=1 H=4.5 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>39096 ТО LM Bell (GEO) Straumann SynOcta RN (4.8) full G/H=2 H=6 с позиционером (арт. LL2-ITR20-O) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38255ВП1опт ТО LM Half (2 лыски) Astra Tech 3.0 full G/H=1.2 H=4 с позиционером ПОЛИР. V.2.P / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38223В ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38720 ТО LM Bell (GEO) Nobel Replace Select 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-RPM-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38775Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1R-N) V.1.A / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38747Нопт ТО LM TiN Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38702Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>43048В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=2.5 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38758 ТО LM Bell (GEO) Zimmer 4.5 full G/H=1 H=5.4 с позиционером (арт. LL2-TSV4-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38140уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=0.8 H=4 без позиционера V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38143Вуп ТО LM Half (2 лыски) Ankylos X full G/H=2.5 H=4 с позиционером V.3 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38238ВН ТО LM TiN Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.5 H=4.5 с позиционером V.5.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38222ВСуп2 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38223Вопт ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38201B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 3.5 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38727 ТО LM Bell (GEO) Ankylos C bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-AKLL-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38222В ТО LM Half (2 лыски) Astra Tech 3.5/4.0 full G/H=1.2 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38708Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=3 H=6 без позиционера (арт. LL2-SURO30-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38157В ТО LM Flat (2 лыски, с насечками) Niko 3.5 bridge G/H=1 H=4.5 без позиционера V.2 /</t>
-  </si>
-  <si>
-    <t>38278Вуп2 ТО LM Half (2 лыски) Sky Bredent full G/H=0.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38772уп2 ТО LM Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38205B2опт ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>38773 ТО LM Bell (GEO) Mis C1 (Conical) WP (5.0) full G/H=0.8 H=5.3 с позиционером (арт. LL2-C1W-T) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43049В ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38425Вуп2 ТО LM Half (2 лыски) Xive 3.8 full G/H=0.4 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39073 ТО LM Bell (GEO) Mis WP (5.0/6.0) bridge G/H=0.6 H=5.5 без позиционера (арт. LL2-MSW-N) V.1 /</t>
-  </si>
-  <si>
-    <t>38777 ТО LM Bell (GEO) Mis NP (3.3) full G/H=0.8 H=4.6 с позиционером (арт. LL2-MS33-H) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38774 ТО LM Bell (GEO) Mis C1 (Conical) NP (3.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL2-C1M-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38707Н ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=2 H=6 без позиционера (арт. LL2-SURO20-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38767опт ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38200B1опт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1.5 H=4.5 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38215В1опт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level RC ( 4.1/4.8) full G/H=1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43041С ТО LM Flat (2 лыски, с насечками) Implantium bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43263опт ТО LM Bell (GEO) Biotech Kontact 3.6/4.2/4.8/5.4 full G/H=1.1 H=5.3 с позиционером (арт. LL2-BK40-T) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38768опт ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASW-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38289Вуп2 ТО LM Flat (2 лыски, с насечками) Radix full G/H=0.5 H=4.5 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39044 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=2 H=6 с позиционером (арт. LL2-ASR20-H2) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43040Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38215уп2 ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38133В ТО LM Flat (2 лыски, с насечками) Xive 3.8 bridge G/H=0.4 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38710уп2 ТО LM Bell (GEO) Implantium bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-DER13-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38241В ТО LM Half (2 лыски) Mis C1 (Conical) NP (3.3) full G/H=0.9 H=4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43059Сопт ТО LM Flat (2 лыски, с насечками) Astra Tech 3.5/4.0 bridge G/H=1.5 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38776Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) WP (5.0) bridge G/H=0.8 H=5.3 без позиционера (арт. LL2-C1W-N) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38281В ТО LM Half (2 лыски) Conmet RP (2.7) full G/H=1.1 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38709уп2 ТО LM Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38700Нопт ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SUM13-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43043Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38717 ТО LM Bell (GEO) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38239уп2 ТО LM Half (2 лыски) Mis C1 (Conical) WP (5.0) full G/H=0.7 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38205уп2 ТО LM Patch (NT-Trading) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38149В ТО LM Patch (NT-Trading) Mis C1 (Conical) NP (3.3) bridge G/H=1.2 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38789 ТО LM Bell (GEO) ICX Medentis full G/H=1.3 H=5.3 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>39049опт ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=2 H=6 с позиционером (арт. LL2-BLR20-R2) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38213В1опт ТО LM Flat (2 лыски, с насечками) Straumann Bone Level NC (3.3) full G/H=1.1 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38767 ТО LM Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38757Нуп2 ТО LM TiN Bell (GEO) Zimmer 3.5 full G/H=1 H=4.7 с позиционером (арт. LL2-TSV3-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38241В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) NP (3.3) full G/H=1 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38118Сопт ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) bridge G/H=0.4 H=4 без позиционера V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38738уп2 ТО LM Bell (GEO) Implantium bridge G/H=2.8 H=5.4 без позиционера (арт. LL-DER28-N) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38236уп ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38702Нуп2 ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.3 H=5.4 с позиционером (арт. LL2-SURO13-H) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38202B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 4.3 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
-    <t>38215опт ТО LM Patch (NT-Trading) Straumann Bone Level RC ( 4.1/4.8) full G/H=0.7 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>43045В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38782Нопт ТО LM TiN Bell (GEO) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-SURO13-N) V.1.A / ВКЛ. 1 ВИНТ, ИМ А</t>
-  </si>
-  <si>
-    <t>38122опт ТО LM Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38141В ТО LM Flat (2 лыски, с насечками) Ankylos C bridge G/H=1.1 H=4.5 без позиционера V.5 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38772Нуп2 ТО LM TiN Bell (GEO) Mis C1 (Conical) SP (3.75/4.2) full G/H=1.3 H=5.3 с позиционером (арт. LL2-C1R-T) V.1.A / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>39008уп2 ТО LM Bell (GEO) Straumann Bone Level RC ( 4.1/4.8) full G/H=1.3 H=5.3 с позиционером (арт. LL2-BLR-R) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38236В ТО LM Patch (NT-Trading) MegaGen AnyOne full G/H=1 H=4 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38140С ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1 H=4.5 без позиционера V.5 /</t>
-  </si>
-  <si>
-    <t>38250В ТО LM Flat (2 лыски, с насечками) BioHorizons 3.0 full G/H=1 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>39007опт ТО LM Bell (GEO) Straumann SynOcta RN (4.8) bridge G/H=1.3 H=4.85 без позиционера (арт. LL2-ITR-N) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38761опт2 ТО LM Bell (GEO) Zimmer 4.5 bridge G/H=1 H=5.4 без позиционера (арт. LL2-TSV4-N) V.1 / 2 ВИНТА</t>
-  </si>
-  <si>
-    <t>38714Н ТО LM TiN Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1.A / / БЕЗ</t>
-  </si>
-  <si>
-    <t>38223уп2 ТО LM Half (2 лыски) Astra Tech 4.5/5.0 full G/H=1.2 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38222опт ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 full G/H=0.8 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38217В2опт ТО LM Half (2 лыски) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.5 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38747уп2 ТО LM Bell (GEO) Xive 4.5 full G/H=1 H=5.25 с позиционером (арт. LL2-XVW-H) V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38256уп2 ТО LM Patch (NT-Trading) NeoBiotech 3.8 full G/H=1.3 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38238уп2 ТО LM Patch (NT-Trading) Osstem Implant Regular (4.0/4.5/5.0) full G/H=1 H=4 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38143уп2 ТО LM Half (2 лыски) Ankylos X full G/H=1.1 H=4 с позиционером V.2 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38234опт ТО LM Patch (NT-Trading) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38243уп2 ТО LM Half (2 лыски) MegaGen AnyRidge full G/H=0.8 H=4.5 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38158уп ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>38122СНопт2 ТО LM TiN Patch (NT-Trading) Zimmer 3.5 bridge G/H=0.5 H=4 без позиционера V.2.A / 2 ВИНТА</t>
-  </si>
-  <si>
-    <t>43261В ТО LM Flat (2 лыски, с насечками) Neodent Grand Morse bridge G/H=1 H=4.5 без позиционера V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38134В ТО LM Patch (NT-Trading) Xive 4.5 bridge G/H=0.7 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38168В ТО LM Patch (NT-Trading) MegaGen AnyOne bridge G/H=1 H=4 без позиционера V.1 /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38144СН ТО LM TiN Patch (NT-Trading) Implantium, Impro bridge G/H=1.4 H=4 без позиционера V.2.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38234Ауп2 ТО LM Half (2 лыски) Zimmer 3.5 full G/H=0.5 H=4 с позиционером V.2 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>38709Н-2к ТО LM TiN Bell (GEO) Implantium full G/H=1.3 H=5.3 с позиционером (арт. LL2-DER13-H) V.1.A /II КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38288В ТО LM Flat (2 лыски, с насечками) DIO SM RP (4.5) full G/H=1 H=4.5 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38724Н-2к ТО LM TiN Bell (GEO) Nobel Replace Select 4.3 bridge G/H=1 H=5.4 без позиционера (арт. LL2-RPR-N) V.1.A /II КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>43049Вопт ТО LM Flat (2 лыски, с насечками) Osstem Implant Regular (4.0/4.5/5.0) bridge G/H=1 H=4.5 без позиционера V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38724Н ТО LM TiN Bell (GEO) Nobel Replace Select 4.3 bridge G/H=1 H=5.4 без позиционера (арт. LL2-RPR-N) V.1.A /I КАТ / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38716 ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) bridge G/H=1.3 H=5.3 без позиционера (арт. LL-ACN-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>35053 ТО LM (копия оригинала) MegaGen AnyOne full G/H=1.5 H=6 с позиционером (арт. AAOIPR4526.MTN) V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38733 ТО LM Bell (GEO) Nobel Replace Select 6.0 full G/H=0.6 H=5.3 с позиционером (арт. LL2-RP60-E) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38243Вуп2 ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38139С ТО LM Flat (2 лыски, с насечками) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) bridge G/H=1 H=4.5 без позиционера V.3 /</t>
-  </si>
-  <si>
-    <t>38250Вопт ТО LM Flat (2 лыски, с насечками) BioHorizons 3.0 full G/H=1 H=4.5 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38213уп2 ТО LM Patch (NT-Trading) Straumann Bone Level NC (3.3) full G/H=0.7 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38714опт ТО LM Bell (GEO) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1.3 H=5.3 с позиционером (арт. LL2-ACN-H) V.1 / ВКЛ. 1 ВИН</t>
-  </si>
-  <si>
-    <t>38248В1опт ТО LM Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38158уп2 ТО LM Patch (NT-Trading) Niko 4.5 bridge G/H=0.7 H=4 без позиционера V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>43003ВСБопт ТО LM Flat (2 лыски, с насечками) Ankylos X full G/H=1.2 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>38237уп2 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>39072опт ТО LM Bell (GEO) Mis SP (3.75/4.2) full G/H=0.6 H=5.5 с позиционером (арт. LL2-MSR-H) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>38237уп2 ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>38243Вопт ТО LM Flat (2 лыски, с насечками) MegaGen AnyRidge full G/H=1.5 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>39043 ТО LM Bell (GEO) Astra Tech 4.5/5.0 full G/H=2 H=6 с позиционером (арт. LL2-ASW20-H) V.1 / / БЕЗ ВИНТА</t>
@@ -1166,24 +983,15 @@
     <t>38981уп2 ТО LM GEO Osstem Implant Regular (4.0/4.5/5.0) full G/H=1.2 H=4.7 с позиционером (арт. SRN2-SURO-H   SIRONA) V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>38237уп2 ТО LM Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
+    <t>43039Вопт ТО LM Flat (2 лыски, с насечками) Implantium full G/H=2.5 H=4.5 с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>38239В ТО LM Flat (2 лыски, с насечками) Mis C1 (Conical) WP (5.0) full G/H=1 H=4.5 с позиционером V.3 /</t>
   </si>
   <si>
-    <t>38272Bопт ТО LM Half (2 лыски) Anthogyr Axiom full G/H=1.3 H=4 с позиционером V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>38245уп2 ТО LM Patch (NT-Trading) Niko 3.5 full G/H=0.9 H=4 с позиционером V.1 / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>43043В ТО LM Flat (2 лыски, с насечками) Osstem Implant Mini (3.5) full G/H=1 H=4.5 с позиционером V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38425В ТО LM Flat (2 лыски, с насечками) Xive 3.8 full G/H=0.4 H=4.5 с позиционером V.3 /</t>
-  </si>
-  <si>
     <t>38248ВН ТО LM TiN Flat (2 лыски, с насечками) Mis SP (3.75/4.2) full G/H=0.5 H=4.5 с позиционером V.3.A / / БЕЗ ВИНТА</t>
   </si>
   <si>
@@ -1196,49 +1004,13 @@
     <t>38128C ТО LM Patch (NT-Trading) Astra Tech 3.5/4.0 bridge G/H=0.8 H=4 без позиционера V.2 /I КАТ / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>38767Нопт ТО LM TiN Bell (GEO) Astra Tech 3.5/4.0 full G/H=1.3 H=5.4 с позиционером (арт. LL2-ASR-H) V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
     <t>38204уп2 ТО LM Patch (NT-Trading) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=0.8 H=4 с позиционером V.1 / 2 ВИНТА, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>38760 ТО LM Bell (GEO) Zimmer 3.5 bridge G/H=1 H=4.7 без позиционера (арт. LL2-TSV3-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237уп2 ТО LM Half (2 лыски) Osstem Implant Mini (3.5) full G/H=1.3 H=4 с позиционером V.4 / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>38203B ТО LM Flat (2 лыски, с насечками) Nobel Replace Select 5.0 full G/H=0.4 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38247В ТО LM Flat (2 лыски, с насечками) Mis NP (3.3) full G/H=0.5 H=4.5 с позиционером V.2 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38237ВН ТО LM TiN Patch (NT-Trading) Osstem Implant Mini (3.5) full G/H=0.6 H=4 с позиционером V.1.A / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38286В ТО LM Flat (2 лыски, с насечками) Alpha Bio Conical Narrow full G/H=1 H=4.5 с позиционером V.2 /</t>
-  </si>
-  <si>
-    <t>43000ВHСБопт ТО LM TiN Flat (2 лыски, с насечками) Ankylos X full G/H=2.4 H=4.5 с позиционером V.1.A / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38713 ТО LM Bell (GEO) MegaGen AnyRidge bridge G/H=1.3 H=5.4 без позиционера (арт. LL2-MARR-N) V.1 / / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>38217В3опт ТО LM Patch (NT-Trading) Straumann SynOcta RN (4.8) full G/H=0.8 H=4 с позиционером V.4 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38204B ТО LM Flat (2 лыски, с насечками) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) full G/H=1 H=4.5 с позиционером V.6 /</t>
-  </si>
-  <si>
-    <t>38220В ТО LM Flat (2 лыски, с насечками) Zimmer 4.5 full G/H=0.5 H=4.5 с позиционером V.5 /</t>
-  </si>
-  <si>
-    <t>38283В ТО LM Half (2 лыски) Adin RP (3.5) full G/H=1.6 H=4 с позиционером V.1 /</t>
-  </si>
-  <si>
-    <t>38224В1опт ТО LM Flat (2 лыски, с насечками) Xive 3.4 full G/H=0.4 H=4.5 с позиционером V.3 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>38701Н ТО LM TiN Bell (GEO) Osstem Implant Mini (3.5) full G/H=2 H=5.3 с позиционером (арт. LL2-SUM20-H) V.1.A / / БЕЗ ВИНТА</t>
+    <t>38721Н-2к ТО LM TiN Bell (GEO) Nobel Replace Select 4.3 full G/H=1 H=5.4 с позиционером (арт. LL2-RPR-E) V.1.A /II КАТ / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>Титановое основание на Multi-Unit</t>
@@ -1254,9 +1026,6 @@
   </si>
   <si>
     <t>43033 ТО на Multi-Unit LM Bell (GEO) Osstem Implant Multi-Unit D=4.8 H=4 (арт. LB2-G4840O-T) V.1 /</t>
-  </si>
-  <si>
-    <t>35892Dопт ТО на Multi-Unit LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) D=4.8 H=4 V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1515,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H408"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1819,15 +1588,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>16581</v>
+        <v>17159</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>8754</v>
+        <v>8773</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>7827</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1837,15 +1606,15 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>605</v>
+        <v>834</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="6">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>405</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1855,15 +1624,15 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>368</v>
+        <v>609</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>348</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1891,15 +1660,15 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>443</v>
+        <v>536</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="6">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>243</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1909,15 +1678,15 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
-        <v>411</v>
+        <v>299</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="6">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>211</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1927,13 +1696,15 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6">
+        <v>200</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>182</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1943,13 +1714,15 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6">
+        <v>15</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>162</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1959,15 +1732,15 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="6">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>141</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1977,13 +1750,13 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>137</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1993,15 +1766,13 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2011,15 +1782,13 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="6">
-        <v>200</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2029,13 +1798,13 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2045,13 +1814,15 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6">
+        <v>150</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2061,15 +1832,15 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="6">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2079,15 +1850,15 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2097,13 +1868,13 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2112,16 +1883,14 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="20">
-        <v>1145</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="8">
-        <v>1050</v>
-      </c>
+      <c r="D23" s="19">
+        <v>130</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2131,15 +1900,15 @@
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2149,13 +1918,15 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="E25" s="19"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="6">
+        <v>205</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2165,13 +1936,13 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2181,13 +1952,15 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6">
+        <v>44</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2197,15 +1970,13 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19">
-        <v>269</v>
+        <v>97</v>
       </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="6">
-        <v>200</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2214,16 +1985,16 @@
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="20">
-        <v>2078</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="8">
-        <v>2010</v>
+      <c r="D29" s="19">
+        <v>105</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="6">
+        <v>10</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2232,14 +2003,16 @@
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="19">
-        <v>66</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="20">
+        <v>1145</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="8">
+        <v>1050</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2249,13 +2022,13 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2265,13 +2038,15 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="E32" s="19"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6">
+        <v>25</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2281,13 +2056,13 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2297,13 +2072,13 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2313,13 +2088,13 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2329,13 +2104,15 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="6">
+        <v>200</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2345,13 +2122,13 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2361,13 +2138,13 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2377,13 +2154,13 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2393,15 +2170,13 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E40" s="19"/>
-      <c r="F40" s="6">
-        <v>15</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2411,15 +2186,15 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>445</v>
+        <v>111</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="6">
-        <v>400</v>
+        <v>61</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2429,13 +2204,13 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2445,15 +2220,15 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="6">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2462,14 +2237,16 @@
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="19">
-        <v>44</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="7"/>
+      <c r="D44" s="20">
+        <v>2058</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="8">
+        <v>2010</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2479,13 +2256,13 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2495,13 +2272,13 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2511,13 +2288,13 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2527,13 +2304,15 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>38</v>
+        <v>445</v>
       </c>
       <c r="E48" s="19"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="6">
+        <v>400</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2543,13 +2322,15 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E49" s="19"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="6">
+        <v>10</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2559,13 +2340,15 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E50" s="19"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="6">
+        <v>25</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2575,13 +2358,15 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E51" s="19"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="6">
+        <v>18</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2607,13 +2392,13 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2639,13 +2424,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2654,16 +2439,16 @@
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
-      <c r="D56" s="19">
-        <v>233</v>
-      </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="6">
-        <v>200</v>
+      <c r="D56" s="20">
+        <v>1037</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="8">
+        <v>1005</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2672,32 +2457,30 @@
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="20">
-        <v>1037</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="8">
-        <v>1005</v>
-      </c>
+      <c r="D57" s="19">
+        <v>31</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2707,12 +2490,10 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="E59" s="19"/>
-      <c r="F59" s="6">
-        <v>128</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
         <v>30</v>
@@ -2725,10 +2506,12 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="19">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="E60" s="19"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="6">
+        <v>128</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
         <v>30</v>
@@ -2757,10 +2540,12 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E62" s="19"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="6">
+        <v>20</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
         <v>30</v>
@@ -2805,13 +2590,13 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2821,29 +2606,29 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2853,13 +2638,13 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2869,15 +2654,13 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="6">
-        <v>90</v>
-      </c>
+      <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2887,13 +2670,13 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2903,13 +2686,13 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2919,13 +2702,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2935,13 +2718,13 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2951,13 +2734,13 @@
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="19">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2967,13 +2750,15 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="E75" s="19"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="6">
+        <v>200</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2983,13 +2768,13 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="19">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2999,13 +2784,13 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3015,15 +2800,13 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E78" s="19"/>
-      <c r="F78" s="6">
-        <v>20</v>
-      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3033,13 +2816,13 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3049,29 +2832,29 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3081,13 +2864,13 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3097,13 +2880,15 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E83" s="19"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="6">
+        <v>15</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3113,13 +2898,13 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3129,13 +2914,15 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E85" s="19"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="6">
+        <v>8</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3145,13 +2932,13 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3161,10 +2948,12 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E87" s="19"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="6">
+        <v>18</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
         <v>20</v>
@@ -3193,10 +2982,12 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19">
-        <v>20</v>
+        <v>520</v>
       </c>
       <c r="E89" s="19"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="6">
+        <v>500</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
         <v>20</v>
@@ -3209,10 +3000,12 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E90" s="19"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="6">
+        <v>2</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
         <v>20</v>
@@ -3225,13 +3018,15 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E91" s="19"/>
-      <c r="F91" s="7"/>
+      <c r="F91" s="6">
+        <v>31</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3241,13 +3036,13 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3257,15 +3052,13 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E93" s="19"/>
-      <c r="F93" s="6">
-        <v>8</v>
-      </c>
+      <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3275,13 +3068,13 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3291,13 +3084,15 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E95" s="19"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="6">
+        <v>30</v>
+      </c>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3307,15 +3102,13 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19">
-        <v>520</v>
+        <v>17</v>
       </c>
       <c r="E96" s="19"/>
-      <c r="F96" s="6">
-        <v>500</v>
-      </c>
+      <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3325,13 +3118,13 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3341,15 +3134,13 @@
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="19">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E98" s="19"/>
-      <c r="F98" s="6">
-        <v>31</v>
-      </c>
+      <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="6">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3359,13 +3150,15 @@
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E99" s="19"/>
-      <c r="F99" s="7"/>
+      <c r="F99" s="6">
+        <v>4</v>
+      </c>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3375,13 +3168,15 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="19">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E100" s="19"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="6">
+        <v>20</v>
+      </c>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3391,13 +3186,13 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="19">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E101" s="19"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3407,13 +3202,13 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3423,13 +3218,13 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3439,15 +3234,13 @@
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="19">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E104" s="19"/>
-      <c r="F104" s="6">
-        <v>30</v>
-      </c>
+      <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3457,13 +3250,13 @@
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3473,13 +3266,13 @@
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3489,13 +3282,13 @@
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3505,13 +3298,15 @@
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E108" s="19"/>
-      <c r="F108" s="7"/>
+      <c r="F108" s="6">
+        <v>90</v>
+      </c>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3521,15 +3316,13 @@
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E109" s="19"/>
-      <c r="F109" s="6">
-        <v>4</v>
-      </c>
+      <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3539,16 +3332,16 @@
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E110" s="19"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A111" s="18" t="s">
         <v>114</v>
       </c>
@@ -3571,16 +3364,18 @@
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="19">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="6">
+        <v>40</v>
+      </c>
       <c r="G112" s="7"/>
       <c r="H112" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
         <v>116</v>
       </c>
@@ -3619,13 +3414,13 @@
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3635,13 +3430,15 @@
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E116" s="19"/>
-      <c r="F116" s="7"/>
+      <c r="F116" s="6">
+        <v>5</v>
+      </c>
       <c r="G116" s="7"/>
       <c r="H116" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3651,13 +3448,15 @@
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="19">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E117" s="19"/>
-      <c r="F117" s="7"/>
+      <c r="F117" s="6">
+        <v>45</v>
+      </c>
       <c r="G117" s="7"/>
       <c r="H117" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3667,31 +3466,29 @@
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="19">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E118" s="19"/>
-      <c r="F118" s="6">
-        <v>10</v>
-      </c>
+      <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A119" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3701,13 +3498,13 @@
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3717,13 +3514,13 @@
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3733,15 +3530,13 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="19">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E122" s="19"/>
-      <c r="F122" s="6">
-        <v>40</v>
-      </c>
+      <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3751,13 +3546,13 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3767,13 +3562,13 @@
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3783,13 +3578,13 @@
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3799,13 +3594,13 @@
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3815,13 +3610,13 @@
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3831,13 +3626,15 @@
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="19">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="E128" s="19"/>
-      <c r="F128" s="7"/>
+      <c r="F128" s="6">
+        <v>100</v>
+      </c>
       <c r="G128" s="7"/>
       <c r="H128" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3847,13 +3644,13 @@
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3863,13 +3660,13 @@
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3879,13 +3676,13 @@
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3895,15 +3692,13 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="19">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E132" s="19"/>
-      <c r="F132" s="6">
-        <v>18</v>
-      </c>
+      <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3913,13 +3708,13 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3929,13 +3724,13 @@
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3945,13 +3740,13 @@
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3961,13 +3756,15 @@
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E136" s="19"/>
-      <c r="F136" s="7"/>
+      <c r="F136" s="6">
+        <v>6</v>
+      </c>
       <c r="G136" s="7"/>
       <c r="H136" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3977,29 +3774,29 @@
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A138" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4009,13 +3806,13 @@
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4025,13 +3822,13 @@
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4041,13 +3838,13 @@
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4057,15 +3854,13 @@
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E142" s="19"/>
-      <c r="F142" s="6">
-        <v>10</v>
-      </c>
+      <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4075,13 +3870,15 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="19">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E143" s="19"/>
-      <c r="F143" s="7"/>
+      <c r="F143" s="6">
+        <v>65</v>
+      </c>
       <c r="G143" s="7"/>
       <c r="H143" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4091,13 +3888,13 @@
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4107,13 +3904,13 @@
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E145" s="19"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4123,15 +3920,13 @@
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
       <c r="D146" s="19">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E146" s="19"/>
-      <c r="F146" s="6">
-        <v>5</v>
-      </c>
+      <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4141,13 +3936,13 @@
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4157,13 +3952,13 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4173,15 +3968,13 @@
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
       <c r="D149" s="19">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E149" s="19"/>
-      <c r="F149" s="6">
-        <v>45</v>
-      </c>
+      <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4191,29 +3984,29 @@
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E150" s="19"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A151" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
       <c r="D151" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4223,13 +4016,13 @@
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E152" s="19"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4239,13 +4032,13 @@
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
       <c r="D153" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4255,13 +4048,13 @@
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E154" s="19"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4271,13 +4064,13 @@
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4287,13 +4080,13 @@
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4303,13 +4096,13 @@
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4319,15 +4112,15 @@
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="19">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G158" s="7"/>
       <c r="H158" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4337,13 +4130,13 @@
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4353,13 +4146,13 @@
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
       <c r="D160" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4369,13 +4162,13 @@
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4385,13 +4178,13 @@
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
       <c r="D162" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4401,13 +4194,13 @@
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
       <c r="D163" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E163" s="19"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4417,15 +4210,15 @@
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
       <c r="D164" s="19">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G164" s="7"/>
       <c r="H164" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4435,13 +4228,13 @@
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
       <c r="D165" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E165" s="19"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4451,15 +4244,13 @@
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="19">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="E166" s="19"/>
-      <c r="F166" s="6">
-        <v>65</v>
-      </c>
+      <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4469,13 +4260,13 @@
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4485,13 +4276,13 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4501,13 +4292,13 @@
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E169" s="19"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4517,13 +4308,13 @@
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4533,13 +4324,13 @@
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E171" s="19"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4549,15 +4340,15 @@
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="19">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="E172" s="19"/>
       <c r="F172" s="6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G172" s="7"/>
       <c r="H172" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4567,13 +4358,13 @@
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E173" s="19"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4583,13 +4374,13 @@
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E174" s="19"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4599,13 +4390,13 @@
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E175" s="19"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4615,13 +4406,13 @@
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E176" s="19"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4631,13 +4422,13 @@
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E177" s="19"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4647,13 +4438,13 @@
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
       <c r="D178" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E178" s="19"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4663,13 +4454,13 @@
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4679,13 +4470,13 @@
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E180" s="19"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4695,13 +4486,13 @@
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E181" s="19"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4711,13 +4502,13 @@
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
       <c r="D182" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E182" s="19"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4727,13 +4518,13 @@
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
       <c r="D183" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4743,13 +4534,13 @@
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
       <c r="D184" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E184" s="19"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4759,13 +4550,13 @@
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
       <c r="D185" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4775,13 +4566,13 @@
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
       <c r="D186" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4791,13 +4582,13 @@
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
       <c r="D187" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E187" s="19"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4807,13 +4598,13 @@
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
       <c r="D188" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E188" s="19"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4823,13 +4614,13 @@
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
       <c r="D189" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E189" s="19"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4839,13 +4630,13 @@
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
       <c r="D190" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4855,13 +4646,13 @@
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
       <c r="D191" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4871,13 +4662,13 @@
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
       <c r="D192" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E192" s="19"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4887,13 +4678,13 @@
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
       <c r="D193" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E193" s="19"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4903,13 +4694,13 @@
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
       <c r="D194" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4919,13 +4710,13 @@
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
       <c r="D195" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4935,13 +4726,13 @@
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
       <c r="D196" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4951,13 +4742,15 @@
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
       <c r="D197" s="19">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E197" s="19"/>
-      <c r="F197" s="7"/>
+      <c r="F197" s="6">
+        <v>40</v>
+      </c>
       <c r="G197" s="7"/>
       <c r="H197" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4967,13 +4760,13 @@
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
       <c r="D198" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4983,13 +4776,13 @@
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
       <c r="D199" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E199" s="19"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4999,13 +4792,13 @@
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
       <c r="D200" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5015,13 +4808,13 @@
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
       <c r="D201" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E201" s="19"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5031,13 +4824,13 @@
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
       <c r="D202" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5047,13 +4840,13 @@
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
       <c r="D203" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5063,13 +4856,13 @@
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
       <c r="D204" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E204" s="19"/>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
       <c r="H204" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5079,15 +4872,13 @@
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
       <c r="D205" s="19">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E205" s="19"/>
-      <c r="F205" s="6">
-        <v>30</v>
-      </c>
+      <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5097,13 +4888,13 @@
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
       <c r="D206" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
       <c r="H206" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5113,15 +4904,13 @@
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
       <c r="D207" s="19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E207" s="19"/>
-      <c r="F207" s="6">
-        <v>18</v>
-      </c>
+      <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5134,10 +4923,12 @@
         <v>10</v>
       </c>
       <c r="E208" s="19"/>
-      <c r="F208" s="7"/>
+      <c r="F208" s="6">
+        <v>5</v>
+      </c>
       <c r="G208" s="7"/>
       <c r="H208" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5147,13 +4938,13 @@
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
       <c r="D209" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E209" s="19"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5163,15 +4954,13 @@
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
       <c r="D210" s="19">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E210" s="19"/>
-      <c r="F210" s="6">
-        <v>45</v>
-      </c>
+      <c r="F210" s="7"/>
       <c r="G210" s="7"/>
       <c r="H210" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5181,13 +4970,13 @@
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
       <c r="D211" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5197,13 +4986,13 @@
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
       <c r="D212" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5213,13 +5002,13 @@
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
       <c r="D213" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5229,13 +5018,13 @@
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
       <c r="D214" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="H214" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5245,13 +5034,13 @@
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
       <c r="D215" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="H215" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5261,13 +5050,13 @@
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
       <c r="D216" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
       <c r="H216" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5277,13 +5066,13 @@
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
       <c r="D217" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5293,13 +5082,13 @@
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
       <c r="D218" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E218" s="19"/>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
       <c r="H218" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5309,13 +5098,13 @@
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
       <c r="D219" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
       <c r="H219" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5325,13 +5114,13 @@
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
       <c r="D220" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E220" s="19"/>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
       <c r="H220" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5341,13 +5130,13 @@
       <c r="B221" s="18"/>
       <c r="C221" s="18"/>
       <c r="D221" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E221" s="19"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5357,13 +5146,13 @@
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
       <c r="D222" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
       <c r="H222" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5373,13 +5162,13 @@
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
       <c r="D223" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5389,13 +5178,13 @@
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
       <c r="D224" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="H224" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5405,13 +5194,13 @@
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
       <c r="D225" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
       <c r="H225" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5421,13 +5210,13 @@
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
       <c r="D226" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E226" s="19"/>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
       <c r="H226" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5437,15 +5226,13 @@
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
       <c r="D227" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E227" s="19"/>
-      <c r="F227" s="6">
-        <v>1</v>
-      </c>
+      <c r="F227" s="7"/>
       <c r="G227" s="7"/>
       <c r="H227" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5455,13 +5242,13 @@
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
       <c r="D228" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
       <c r="H228" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5471,13 +5258,13 @@
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
       <c r="D229" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E229" s="19"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
       <c r="H229" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5487,15 +5274,13 @@
       <c r="B230" s="18"/>
       <c r="C230" s="18"/>
       <c r="D230" s="19">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E230" s="19"/>
-      <c r="F230" s="6">
-        <v>4</v>
-      </c>
+      <c r="F230" s="7"/>
       <c r="G230" s="7"/>
       <c r="H230" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5505,13 +5290,13 @@
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
       <c r="D231" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E231" s="19"/>
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
       <c r="H231" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5521,13 +5306,15 @@
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
       <c r="D232" s="19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E232" s="19"/>
-      <c r="F232" s="7"/>
+      <c r="F232" s="6">
+        <v>10</v>
+      </c>
       <c r="G232" s="7"/>
       <c r="H232" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5537,29 +5324,29 @@
       <c r="B233" s="18"/>
       <c r="C233" s="18"/>
       <c r="D233" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
       <c r="H233" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A234" s="18" t="s">
         <v>237</v>
       </c>
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
       <c r="D234" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E234" s="19"/>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
       <c r="H234" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5569,15 +5356,13 @@
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
       <c r="D235" s="19">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E235" s="19"/>
-      <c r="F235" s="6">
-        <v>20</v>
-      </c>
+      <c r="F235" s="7"/>
       <c r="G235" s="7"/>
       <c r="H235" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5587,13 +5372,13 @@
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
       <c r="D236" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
       <c r="H236" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5603,13 +5388,13 @@
       <c r="B237" s="18"/>
       <c r="C237" s="18"/>
       <c r="D237" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E237" s="19"/>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
       <c r="H237" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5619,13 +5404,13 @@
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
       <c r="D238" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E238" s="19"/>
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
       <c r="H238" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5635,13 +5420,15 @@
       <c r="B239" s="18"/>
       <c r="C239" s="18"/>
       <c r="D239" s="19">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E239" s="19"/>
-      <c r="F239" s="7"/>
+      <c r="F239" s="6">
+        <v>10</v>
+      </c>
       <c r="G239" s="7"/>
       <c r="H239" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5651,13 +5438,13 @@
       <c r="B240" s="18"/>
       <c r="C240" s="18"/>
       <c r="D240" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E240" s="19"/>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
       <c r="H240" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5667,13 +5454,13 @@
       <c r="B241" s="18"/>
       <c r="C241" s="18"/>
       <c r="D241" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E241" s="19"/>
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
       <c r="H241" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5683,13 +5470,13 @@
       <c r="B242" s="18"/>
       <c r="C242" s="18"/>
       <c r="D242" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E242" s="19"/>
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
       <c r="H242" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5699,13 +5486,13 @@
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
       <c r="D243" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E243" s="19"/>
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
       <c r="H243" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5715,13 +5502,15 @@
       <c r="B244" s="18"/>
       <c r="C244" s="18"/>
       <c r="D244" s="19">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E244" s="19"/>
-      <c r="F244" s="7"/>
+      <c r="F244" s="6">
+        <v>29</v>
+      </c>
       <c r="G244" s="7"/>
       <c r="H244" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5731,15 +5520,13 @@
       <c r="B245" s="18"/>
       <c r="C245" s="18"/>
       <c r="D245" s="19">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E245" s="19"/>
-      <c r="F245" s="6">
-        <v>20</v>
-      </c>
+      <c r="F245" s="7"/>
       <c r="G245" s="7"/>
       <c r="H245" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5749,29 +5536,29 @@
       <c r="B246" s="18"/>
       <c r="C246" s="18"/>
       <c r="D246" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E246" s="19"/>
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
       <c r="H246" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A247" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B247" s="18"/>
       <c r="C247" s="18"/>
       <c r="D247" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E247" s="19"/>
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
       <c r="H247" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5781,13 +5568,13 @@
       <c r="B248" s="18"/>
       <c r="C248" s="18"/>
       <c r="D248" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E248" s="19"/>
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
       <c r="H248" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5797,13 +5584,13 @@
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
       <c r="D249" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E249" s="19"/>
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
       <c r="H249" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5813,13 +5600,13 @@
       <c r="B250" s="18"/>
       <c r="C250" s="18"/>
       <c r="D250" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E250" s="19"/>
       <c r="F250" s="7"/>
       <c r="G250" s="7"/>
       <c r="H250" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5829,15 +5616,15 @@
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
       <c r="D251" s="19">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E251" s="19"/>
       <c r="F251" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G251" s="7"/>
       <c r="H251" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5847,13 +5634,15 @@
       <c r="B252" s="18"/>
       <c r="C252" s="18"/>
       <c r="D252" s="19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E252" s="19"/>
-      <c r="F252" s="7"/>
+      <c r="F252" s="6">
+        <v>15</v>
+      </c>
       <c r="G252" s="7"/>
       <c r="H252" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5863,15 +5652,13 @@
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
       <c r="D253" s="19">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E253" s="19"/>
-      <c r="F253" s="6">
-        <v>40</v>
-      </c>
+      <c r="F253" s="7"/>
       <c r="G253" s="7"/>
       <c r="H253" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5881,13 +5668,13 @@
       <c r="B254" s="18"/>
       <c r="C254" s="18"/>
       <c r="D254" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E254" s="19"/>
       <c r="F254" s="7"/>
       <c r="G254" s="7"/>
       <c r="H254" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5897,13 +5684,13 @@
       <c r="B255" s="18"/>
       <c r="C255" s="18"/>
       <c r="D255" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E255" s="19"/>
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
       <c r="H255" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5913,13 +5700,13 @@
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
       <c r="D256" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E256" s="19"/>
       <c r="F256" s="7"/>
       <c r="G256" s="7"/>
       <c r="H256" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5929,13 +5716,13 @@
       <c r="B257" s="18"/>
       <c r="C257" s="18"/>
       <c r="D257" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E257" s="19"/>
       <c r="F257" s="7"/>
       <c r="G257" s="7"/>
       <c r="H257" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5945,13 +5732,13 @@
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
       <c r="D258" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E258" s="19"/>
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
       <c r="H258" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5961,13 +5748,13 @@
       <c r="B259" s="18"/>
       <c r="C259" s="18"/>
       <c r="D259" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E259" s="19"/>
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
       <c r="H259" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5977,13 +5764,13 @@
       <c r="B260" s="18"/>
       <c r="C260" s="18"/>
       <c r="D260" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E260" s="19"/>
       <c r="F260" s="7"/>
       <c r="G260" s="7"/>
       <c r="H260" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5993,13 +5780,13 @@
       <c r="B261" s="18"/>
       <c r="C261" s="18"/>
       <c r="D261" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E261" s="19"/>
       <c r="F261" s="7"/>
       <c r="G261" s="7"/>
       <c r="H261" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6009,13 +5796,13 @@
       <c r="B262" s="18"/>
       <c r="C262" s="18"/>
       <c r="D262" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E262" s="19"/>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
       <c r="H262" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6025,13 +5812,13 @@
       <c r="B263" s="18"/>
       <c r="C263" s="18"/>
       <c r="D263" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E263" s="19"/>
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
       <c r="H263" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6041,13 +5828,13 @@
       <c r="B264" s="18"/>
       <c r="C264" s="18"/>
       <c r="D264" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E264" s="19"/>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
       <c r="H264" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6057,15 +5844,13 @@
       <c r="B265" s="18"/>
       <c r="C265" s="18"/>
       <c r="D265" s="19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E265" s="19"/>
-      <c r="F265" s="6">
-        <v>5</v>
-      </c>
+      <c r="F265" s="7"/>
       <c r="G265" s="7"/>
       <c r="H265" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6075,13 +5860,15 @@
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
       <c r="D266" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E266" s="19"/>
-      <c r="F266" s="7"/>
+      <c r="F266" s="6">
+        <v>6</v>
+      </c>
       <c r="G266" s="7"/>
       <c r="H266" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6091,13 +5878,13 @@
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
       <c r="D267" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E267" s="19"/>
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
       <c r="H267" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6107,13 +5894,15 @@
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
       <c r="D268" s="19">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E268" s="19"/>
-      <c r="F268" s="7"/>
+      <c r="F268" s="6">
+        <v>30</v>
+      </c>
       <c r="G268" s="7"/>
       <c r="H268" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6123,13 +5912,13 @@
       <c r="B269" s="18"/>
       <c r="C269" s="18"/>
       <c r="D269" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E269" s="19"/>
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
       <c r="H269" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6139,13 +5928,13 @@
       <c r="B270" s="18"/>
       <c r="C270" s="18"/>
       <c r="D270" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E270" s="19"/>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
       <c r="H270" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6155,13 +5944,15 @@
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
       <c r="D271" s="19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E271" s="19"/>
-      <c r="F271" s="7"/>
+      <c r="F271" s="6">
+        <v>10</v>
+      </c>
       <c r="G271" s="7"/>
       <c r="H271" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6171,13 +5962,13 @@
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>
       <c r="D272" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E272" s="19"/>
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
       <c r="H272" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6187,13 +5978,13 @@
       <c r="B273" s="18"/>
       <c r="C273" s="18"/>
       <c r="D273" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E273" s="19"/>
       <c r="F273" s="7"/>
       <c r="G273" s="7"/>
       <c r="H273" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6203,13 +5994,15 @@
       <c r="B274" s="18"/>
       <c r="C274" s="18"/>
       <c r="D274" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E274" s="19"/>
-      <c r="F274" s="7"/>
+      <c r="F274" s="6">
+        <v>4</v>
+      </c>
       <c r="G274" s="7"/>
       <c r="H274" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6219,13 +6012,13 @@
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
       <c r="D275" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E275" s="19"/>
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
       <c r="H275" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6235,13 +6028,13 @@
       <c r="B276" s="18"/>
       <c r="C276" s="18"/>
       <c r="D276" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
       <c r="H276" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6251,13 +6044,13 @@
       <c r="B277" s="18"/>
       <c r="C277" s="18"/>
       <c r="D277" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
       <c r="H277" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6267,13 +6060,13 @@
       <c r="B278" s="18"/>
       <c r="C278" s="18"/>
       <c r="D278" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E278" s="19"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
       <c r="H278" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6283,13 +6076,15 @@
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
       <c r="D279" s="19">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E279" s="19"/>
-      <c r="F279" s="7"/>
+      <c r="F279" s="6">
+        <v>31</v>
+      </c>
       <c r="G279" s="7"/>
       <c r="H279" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6299,13 +6094,13 @@
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
       <c r="D280" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E280" s="19"/>
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
       <c r="H280" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6315,13 +6110,13 @@
       <c r="B281" s="18"/>
       <c r="C281" s="18"/>
       <c r="D281" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E281" s="19"/>
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
       <c r="H281" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6331,13 +6126,15 @@
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
       <c r="D282" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E282" s="19"/>
-      <c r="F282" s="7"/>
+      <c r="F282" s="6">
+        <v>2</v>
+      </c>
       <c r="G282" s="7"/>
       <c r="H282" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6347,13 +6144,13 @@
       <c r="B283" s="18"/>
       <c r="C283" s="18"/>
       <c r="D283" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E283" s="19"/>
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
       <c r="H283" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6363,13 +6160,15 @@
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
       <c r="D284" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E284" s="19"/>
-      <c r="F284" s="7"/>
+      <c r="F284" s="6">
+        <v>4</v>
+      </c>
       <c r="G284" s="7"/>
       <c r="H284" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6379,13 +6178,13 @@
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
       <c r="D285" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E285" s="19"/>
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
       <c r="H285" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6395,13 +6194,13 @@
       <c r="B286" s="18"/>
       <c r="C286" s="18"/>
       <c r="D286" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
       <c r="H286" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6411,13 +6210,15 @@
       <c r="B287" s="18"/>
       <c r="C287" s="18"/>
       <c r="D287" s="19">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E287" s="19"/>
-      <c r="F287" s="7"/>
+      <c r="F287" s="6">
+        <v>45</v>
+      </c>
       <c r="G287" s="7"/>
       <c r="H287" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6427,13 +6228,13 @@
       <c r="B288" s="18"/>
       <c r="C288" s="18"/>
       <c r="D288" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E288" s="19"/>
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
       <c r="H288" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6443,13 +6244,13 @@
       <c r="B289" s="18"/>
       <c r="C289" s="18"/>
       <c r="D289" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E289" s="19"/>
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
       <c r="H289" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6459,13 +6260,13 @@
       <c r="B290" s="18"/>
       <c r="C290" s="18"/>
       <c r="D290" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E290" s="19"/>
       <c r="F290" s="7"/>
       <c r="G290" s="7"/>
       <c r="H290" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6475,13 +6276,15 @@
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
       <c r="D291" s="19">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E291" s="19"/>
-      <c r="F291" s="7"/>
+      <c r="F291" s="6">
+        <v>30</v>
+      </c>
       <c r="G291" s="7"/>
       <c r="H291" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6494,10 +6297,12 @@
         <v>5</v>
       </c>
       <c r="E292" s="19"/>
-      <c r="F292" s="7"/>
+      <c r="F292" s="6">
+        <v>4</v>
+      </c>
       <c r="G292" s="7"/>
       <c r="H292" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6507,13 +6312,15 @@
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
       <c r="D293" s="19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E293" s="19"/>
-      <c r="F293" s="7"/>
+      <c r="F293" s="6">
+        <v>10</v>
+      </c>
       <c r="G293" s="7"/>
       <c r="H293" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6523,13 +6330,13 @@
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
       <c r="D294" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E294" s="19"/>
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
       <c r="H294" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6539,13 +6346,15 @@
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
       <c r="D295" s="19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E295" s="19"/>
-      <c r="F295" s="7"/>
+      <c r="F295" s="6">
+        <v>10</v>
+      </c>
       <c r="G295" s="7"/>
       <c r="H295" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6555,13 +6364,13 @@
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
       <c r="D296" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E296" s="19"/>
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
       <c r="H296" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6571,13 +6380,15 @@
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
       <c r="D297" s="19">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E297" s="19"/>
-      <c r="F297" s="7"/>
+      <c r="F297" s="6">
+        <v>45</v>
+      </c>
       <c r="G297" s="7"/>
       <c r="H297" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6587,29 +6398,29 @@
       <c r="B298" s="18"/>
       <c r="C298" s="18"/>
       <c r="D298" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E298" s="19"/>
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
       <c r="H298" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A299" s="18" t="s">
         <v>302</v>
       </c>
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
       <c r="D299" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E299" s="19"/>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
       <c r="H299" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6619,13 +6430,13 @@
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
       <c r="D300" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E300" s="19"/>
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
       <c r="H300" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6635,13 +6446,15 @@
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
       <c r="D301" s="19">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E301" s="19"/>
-      <c r="F301" s="7"/>
+      <c r="F301" s="6">
+        <v>20</v>
+      </c>
       <c r="G301" s="7"/>
       <c r="H301" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6651,13 +6464,13 @@
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
       <c r="D302" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E302" s="19"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
       <c r="H302" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6667,13 +6480,13 @@
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
       <c r="D303" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E303" s="19"/>
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
       <c r="H303" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6683,13 +6496,13 @@
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
       <c r="D304" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E304" s="19"/>
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
       <c r="H304" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6699,15 +6512,13 @@
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
       <c r="D305" s="19">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E305" s="19"/>
-      <c r="F305" s="6">
-        <v>10</v>
-      </c>
+      <c r="F305" s="7"/>
       <c r="G305" s="7"/>
       <c r="H305" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6717,13 +6528,15 @@
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
       <c r="D306" s="19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E306" s="19"/>
-      <c r="F306" s="7"/>
+      <c r="F306" s="6">
+        <v>10</v>
+      </c>
       <c r="G306" s="7"/>
       <c r="H306" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6733,15 +6546,13 @@
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
       <c r="D307" s="19">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E307" s="19"/>
-      <c r="F307" s="6">
-        <v>90</v>
-      </c>
+      <c r="F307" s="7"/>
       <c r="G307" s="7"/>
       <c r="H307" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6751,13 +6562,13 @@
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
       <c r="D308" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E308" s="19"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
       <c r="H308" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6767,13 +6578,13 @@
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
       <c r="D309" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E309" s="19"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6783,29 +6594,31 @@
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
       <c r="D310" s="19">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E310" s="19"/>
-      <c r="F310" s="7"/>
+      <c r="F310" s="6">
+        <v>25</v>
+      </c>
       <c r="G310" s="7"/>
       <c r="H310" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A311" s="18" t="s">
         <v>314</v>
       </c>
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
       <c r="D311" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E311" s="19"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
       <c r="H311" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6815,15 +6628,15 @@
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
       <c r="D312" s="19">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="E312" s="19"/>
       <c r="F312" s="6">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="G312" s="7"/>
       <c r="H312" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6833,13 +6646,13 @@
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
       <c r="D313" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E313" s="19"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
       <c r="H313" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6849,13 +6662,13 @@
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
       <c r="D314" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E314" s="19"/>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
       <c r="H314" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6865,15 +6678,15 @@
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
       <c r="D315" s="19">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E315" s="19"/>
       <c r="F315" s="6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G315" s="7"/>
       <c r="H315" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6883,13 +6696,13 @@
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
       <c r="D316" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E316" s="19"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
       <c r="H316" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6899,15 +6712,13 @@
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
       <c r="D317" s="19">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E317" s="19"/>
-      <c r="F317" s="6">
-        <v>29</v>
-      </c>
+      <c r="F317" s="7"/>
       <c r="G317" s="7"/>
       <c r="H317" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6917,29 +6728,31 @@
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
       <c r="D318" s="19">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E318" s="19"/>
-      <c r="F318" s="7"/>
+      <c r="F318" s="6">
+        <v>35</v>
+      </c>
       <c r="G318" s="7"/>
       <c r="H318" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A319" s="18" t="s">
         <v>322</v>
       </c>
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
       <c r="D319" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E319" s="19"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
       <c r="H319" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6949,13 +6762,13 @@
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
       <c r="D320" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E320" s="19"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
       <c r="H320" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6965,13 +6778,13 @@
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
       <c r="D321" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E321" s="19"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
       <c r="H321" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6981,13 +6794,15 @@
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
       <c r="D322" s="19">
-        <v>3</v>
+        <v>501</v>
       </c>
       <c r="E322" s="19"/>
-      <c r="F322" s="7"/>
+      <c r="F322" s="6">
+        <v>500</v>
+      </c>
       <c r="G322" s="7"/>
       <c r="H322" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6997,13 +6812,13 @@
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
       <c r="D323" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E323" s="19"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
       <c r="H323" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7013,13 +6828,13 @@
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
       <c r="D324" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E324" s="19"/>
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
       <c r="H324" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7029,29 +6844,29 @@
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
       <c r="D325" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E325" s="19"/>
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
       <c r="H325" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="B326" s="18"/>
-      <c r="C326" s="18"/>
-      <c r="D326" s="19">
-        <v>2</v>
-      </c>
-      <c r="E326" s="19"/>
-      <c r="F326" s="7"/>
-      <c r="G326" s="7"/>
-      <c r="H326" s="6">
-        <v>2</v>
+      <c r="B326" s="16"/>
+      <c r="C326" s="16"/>
+      <c r="D326" s="21">
+        <v>329</v>
+      </c>
+      <c r="E326" s="21"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="9">
+        <v>329</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7061,13 +6876,13 @@
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
       <c r="D327" s="19">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="E327" s="19"/>
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
       <c r="H327" s="6">
-        <v>2</v>
+        <v>238</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7077,15 +6892,13 @@
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
       <c r="D328" s="19">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E328" s="19"/>
-      <c r="F328" s="6">
-        <v>15</v>
-      </c>
+      <c r="F328" s="7"/>
       <c r="G328" s="7"/>
       <c r="H328" s="6">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7095,15 +6908,13 @@
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
       <c r="D329" s="19">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E329" s="19"/>
-      <c r="F329" s="6">
-        <v>10</v>
-      </c>
+      <c r="F329" s="7"/>
       <c r="G329" s="7"/>
       <c r="H329" s="6">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -7113,1459 +6924,35 @@
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
       <c r="D330" s="19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E330" s="19"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
       <c r="H330" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A331" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="B331" s="18"/>
-      <c r="C331" s="18"/>
-      <c r="D331" s="19">
-        <v>2</v>
-      </c>
-      <c r="E331" s="19"/>
-      <c r="F331" s="7"/>
-      <c r="G331" s="7"/>
-      <c r="H331" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A332" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="B332" s="18"/>
-      <c r="C332" s="18"/>
-      <c r="D332" s="19">
-        <v>2</v>
-      </c>
-      <c r="E332" s="19"/>
-      <c r="F332" s="7"/>
-      <c r="G332" s="7"/>
-      <c r="H332" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B333" s="18"/>
-      <c r="C333" s="18"/>
-      <c r="D333" s="19">
-        <v>2</v>
-      </c>
-      <c r="E333" s="19"/>
-      <c r="F333" s="7"/>
-      <c r="G333" s="7"/>
-      <c r="H333" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="B334" s="18"/>
-      <c r="C334" s="18"/>
-      <c r="D334" s="19">
-        <v>32</v>
-      </c>
-      <c r="E334" s="19"/>
-      <c r="F334" s="6">
-        <v>30</v>
-      </c>
-      <c r="G334" s="7"/>
-      <c r="H334" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="B335" s="18"/>
-      <c r="C335" s="18"/>
-      <c r="D335" s="19">
-        <v>2</v>
-      </c>
-      <c r="E335" s="19"/>
-      <c r="F335" s="7"/>
-      <c r="G335" s="7"/>
-      <c r="H335" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="B336" s="18"/>
-      <c r="C336" s="18"/>
-      <c r="D336" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E336" s="19"/>
-      <c r="F336" s="6">
-        <v>1</v>
-      </c>
-      <c r="G336" s="7"/>
-      <c r="H336" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A337" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="B337" s="18"/>
-      <c r="C337" s="18"/>
-      <c r="D337" s="19">
-        <v>6</v>
-      </c>
-      <c r="E337" s="19"/>
-      <c r="F337" s="6">
-        <v>4</v>
-      </c>
-      <c r="G337" s="7"/>
-      <c r="H337" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="B338" s="18"/>
-      <c r="C338" s="18"/>
-      <c r="D338" s="19">
-        <v>2</v>
-      </c>
-      <c r="E338" s="19"/>
-      <c r="F338" s="7"/>
-      <c r="G338" s="7"/>
-      <c r="H338" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A339" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="B339" s="18"/>
-      <c r="C339" s="18"/>
-      <c r="D339" s="19">
-        <v>2</v>
-      </c>
-      <c r="E339" s="19"/>
-      <c r="F339" s="7"/>
-      <c r="G339" s="7"/>
-      <c r="H339" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A340" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="B340" s="18"/>
-      <c r="C340" s="18"/>
-      <c r="D340" s="19">
-        <v>2</v>
-      </c>
-      <c r="E340" s="19"/>
-      <c r="F340" s="7"/>
-      <c r="G340" s="7"/>
-      <c r="H340" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A341" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="B341" s="18"/>
-      <c r="C341" s="18"/>
-      <c r="D341" s="19">
-        <v>2</v>
-      </c>
-      <c r="E341" s="19"/>
-      <c r="F341" s="7"/>
-      <c r="G341" s="7"/>
-      <c r="H341" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A342" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="B342" s="18"/>
-      <c r="C342" s="18"/>
-      <c r="D342" s="19">
-        <v>2</v>
-      </c>
-      <c r="E342" s="19"/>
-      <c r="F342" s="7"/>
-      <c r="G342" s="7"/>
-      <c r="H342" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="B343" s="18"/>
-      <c r="C343" s="18"/>
-      <c r="D343" s="19">
-        <v>2</v>
-      </c>
-      <c r="E343" s="19"/>
-      <c r="F343" s="7"/>
-      <c r="G343" s="7"/>
-      <c r="H343" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A344" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="B344" s="18"/>
-      <c r="C344" s="18"/>
-      <c r="D344" s="19">
-        <v>2</v>
-      </c>
-      <c r="E344" s="19"/>
-      <c r="F344" s="7"/>
-      <c r="G344" s="7"/>
-      <c r="H344" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A345" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="B345" s="18"/>
-      <c r="C345" s="18"/>
-      <c r="D345" s="19">
-        <v>2</v>
-      </c>
-      <c r="E345" s="19"/>
-      <c r="F345" s="7"/>
-      <c r="G345" s="7"/>
-      <c r="H345" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A346" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="B346" s="18"/>
-      <c r="C346" s="18"/>
-      <c r="D346" s="19">
-        <v>2</v>
-      </c>
-      <c r="E346" s="19"/>
-      <c r="F346" s="7"/>
-      <c r="G346" s="7"/>
-      <c r="H346" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A347" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="B347" s="18"/>
-      <c r="C347" s="18"/>
-      <c r="D347" s="19">
-        <v>2</v>
-      </c>
-      <c r="E347" s="19"/>
-      <c r="F347" s="7"/>
-      <c r="G347" s="7"/>
-      <c r="H347" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A348" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="B348" s="18"/>
-      <c r="C348" s="18"/>
-      <c r="D348" s="19">
-        <v>8</v>
-      </c>
-      <c r="E348" s="19"/>
-      <c r="F348" s="6">
-        <v>6</v>
-      </c>
-      <c r="G348" s="7"/>
-      <c r="H348" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="B349" s="18"/>
-      <c r="C349" s="18"/>
-      <c r="D349" s="19">
-        <v>2</v>
-      </c>
-      <c r="E349" s="19"/>
-      <c r="F349" s="7"/>
-      <c r="G349" s="7"/>
-      <c r="H349" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A350" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="B350" s="18"/>
-      <c r="C350" s="18"/>
-      <c r="D350" s="19">
-        <v>2</v>
-      </c>
-      <c r="E350" s="19"/>
-      <c r="F350" s="7"/>
-      <c r="G350" s="7"/>
-      <c r="H350" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A351" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="B351" s="18"/>
-      <c r="C351" s="18"/>
-      <c r="D351" s="19">
-        <v>12</v>
-      </c>
-      <c r="E351" s="19"/>
-      <c r="F351" s="6">
-        <v>10</v>
-      </c>
-      <c r="G351" s="7"/>
-      <c r="H351" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A352" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="B352" s="18"/>
-      <c r="C352" s="18"/>
-      <c r="D352" s="19">
-        <v>33</v>
-      </c>
-      <c r="E352" s="19"/>
-      <c r="F352" s="6">
-        <v>31</v>
-      </c>
-      <c r="G352" s="7"/>
-      <c r="H352" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A353" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="B353" s="18"/>
-      <c r="C353" s="18"/>
-      <c r="D353" s="19">
-        <v>2</v>
-      </c>
-      <c r="E353" s="19"/>
-      <c r="F353" s="7"/>
-      <c r="G353" s="7"/>
-      <c r="H353" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A354" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="B354" s="18"/>
-      <c r="C354" s="18"/>
-      <c r="D354" s="19">
-        <v>4</v>
-      </c>
-      <c r="E354" s="19"/>
-      <c r="F354" s="6">
-        <v>2</v>
-      </c>
-      <c r="G354" s="7"/>
-      <c r="H354" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A355" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="B355" s="18"/>
-      <c r="C355" s="18"/>
-      <c r="D355" s="19">
-        <v>2</v>
-      </c>
-      <c r="E355" s="19"/>
-      <c r="F355" s="7"/>
-      <c r="G355" s="7"/>
-      <c r="H355" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A356" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="B356" s="18"/>
-      <c r="C356" s="18"/>
-      <c r="D356" s="19">
-        <v>2</v>
-      </c>
-      <c r="E356" s="19"/>
-      <c r="F356" s="7"/>
-      <c r="G356" s="7"/>
-      <c r="H356" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A357" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="B357" s="18"/>
-      <c r="C357" s="18"/>
-      <c r="D357" s="19">
-        <v>2</v>
-      </c>
-      <c r="E357" s="19"/>
-      <c r="F357" s="7"/>
-      <c r="G357" s="7"/>
-      <c r="H357" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A358" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="B358" s="18"/>
-      <c r="C358" s="18"/>
-      <c r="D358" s="19">
-        <v>2</v>
-      </c>
-      <c r="E358" s="19"/>
-      <c r="F358" s="7"/>
-      <c r="G358" s="7"/>
-      <c r="H358" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A359" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B359" s="18"/>
-      <c r="C359" s="18"/>
-      <c r="D359" s="19">
-        <v>2</v>
-      </c>
-      <c r="E359" s="19"/>
-      <c r="F359" s="7"/>
-      <c r="G359" s="7"/>
-      <c r="H359" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A360" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="B360" s="18"/>
-      <c r="C360" s="18"/>
-      <c r="D360" s="19">
-        <v>2</v>
-      </c>
-      <c r="E360" s="19"/>
-      <c r="F360" s="7"/>
-      <c r="G360" s="7"/>
-      <c r="H360" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A361" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="B361" s="18"/>
-      <c r="C361" s="18"/>
-      <c r="D361" s="19">
-        <v>2</v>
-      </c>
-      <c r="E361" s="19"/>
-      <c r="F361" s="7"/>
-      <c r="G361" s="7"/>
-      <c r="H361" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A362" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="B362" s="18"/>
-      <c r="C362" s="18"/>
-      <c r="D362" s="19">
-        <v>2</v>
-      </c>
-      <c r="E362" s="19"/>
-      <c r="F362" s="7"/>
-      <c r="G362" s="7"/>
-      <c r="H362" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A363" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="B363" s="18"/>
-      <c r="C363" s="18"/>
-      <c r="D363" s="19">
-        <v>2</v>
-      </c>
-      <c r="E363" s="19"/>
-      <c r="F363" s="7"/>
-      <c r="G363" s="7"/>
-      <c r="H363" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A364" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="B364" s="18"/>
-      <c r="C364" s="18"/>
-      <c r="D364" s="19">
-        <v>6</v>
-      </c>
-      <c r="E364" s="19"/>
-      <c r="F364" s="6">
-        <v>4</v>
-      </c>
-      <c r="G364" s="7"/>
-      <c r="H364" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A365" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="B365" s="18"/>
-      <c r="C365" s="18"/>
-      <c r="D365" s="19">
-        <v>2</v>
-      </c>
-      <c r="E365" s="19"/>
-      <c r="F365" s="7"/>
-      <c r="G365" s="7"/>
-      <c r="H365" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A366" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="B366" s="18"/>
-      <c r="C366" s="18"/>
-      <c r="D366" s="19">
-        <v>1</v>
-      </c>
-      <c r="E366" s="19"/>
-      <c r="F366" s="7"/>
-      <c r="G366" s="7"/>
-      <c r="H366" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B367" s="18"/>
-      <c r="C367" s="18"/>
-      <c r="D367" s="19">
-        <v>46</v>
-      </c>
-      <c r="E367" s="19"/>
-      <c r="F367" s="6">
-        <v>45</v>
-      </c>
-      <c r="G367" s="7"/>
-      <c r="H367" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="B368" s="18"/>
-      <c r="C368" s="18"/>
-      <c r="D368" s="19">
-        <v>11</v>
-      </c>
-      <c r="E368" s="19"/>
-      <c r="F368" s="6">
-        <v>10</v>
-      </c>
-      <c r="G368" s="7"/>
-      <c r="H368" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="B369" s="18"/>
-      <c r="C369" s="18"/>
-      <c r="D369" s="19">
-        <v>1</v>
-      </c>
-      <c r="E369" s="19"/>
-      <c r="F369" s="7"/>
-      <c r="G369" s="7"/>
-      <c r="H369" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B370" s="18"/>
-      <c r="C370" s="18"/>
-      <c r="D370" s="19">
-        <v>11</v>
-      </c>
-      <c r="E370" s="19"/>
-      <c r="F370" s="6">
-        <v>10</v>
-      </c>
-      <c r="G370" s="7"/>
-      <c r="H370" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A371" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="B371" s="18"/>
-      <c r="C371" s="18"/>
-      <c r="D371" s="19">
-        <v>1</v>
-      </c>
-      <c r="E371" s="19"/>
-      <c r="F371" s="7"/>
-      <c r="G371" s="7"/>
-      <c r="H371" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="B372" s="18"/>
-      <c r="C372" s="18"/>
-      <c r="D372" s="19">
-        <v>1</v>
-      </c>
-      <c r="E372" s="19"/>
-      <c r="F372" s="7"/>
-      <c r="G372" s="7"/>
-      <c r="H372" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B373" s="18"/>
-      <c r="C373" s="18"/>
-      <c r="D373" s="19">
-        <v>31</v>
-      </c>
-      <c r="E373" s="19"/>
-      <c r="F373" s="6">
-        <v>30</v>
-      </c>
-      <c r="G373" s="7"/>
-      <c r="H373" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="B374" s="18"/>
-      <c r="C374" s="18"/>
-      <c r="D374" s="19">
-        <v>1</v>
-      </c>
-      <c r="E374" s="19"/>
-      <c r="F374" s="7"/>
-      <c r="G374" s="7"/>
-      <c r="H374" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="B375" s="18"/>
-      <c r="C375" s="18"/>
-      <c r="D375" s="19">
-        <v>1</v>
-      </c>
-      <c r="E375" s="19"/>
-      <c r="F375" s="7"/>
-      <c r="G375" s="7"/>
-      <c r="H375" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B376" s="18"/>
-      <c r="C376" s="18"/>
-      <c r="D376" s="19">
-        <v>29</v>
-      </c>
-      <c r="E376" s="19"/>
-      <c r="F376" s="6">
-        <v>28</v>
-      </c>
-      <c r="G376" s="7"/>
-      <c r="H376" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="B377" s="18"/>
-      <c r="C377" s="18"/>
-      <c r="D377" s="19">
-        <v>6</v>
-      </c>
-      <c r="E377" s="19"/>
-      <c r="F377" s="6">
-        <v>5</v>
-      </c>
-      <c r="G377" s="7"/>
-      <c r="H377" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="B378" s="18"/>
-      <c r="C378" s="18"/>
-      <c r="D378" s="19">
-        <v>1</v>
-      </c>
-      <c r="E378" s="19"/>
-      <c r="F378" s="7"/>
-      <c r="G378" s="7"/>
-      <c r="H378" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B379" s="18"/>
-      <c r="C379" s="18"/>
-      <c r="D379" s="19">
-        <v>1</v>
-      </c>
-      <c r="E379" s="19"/>
-      <c r="F379" s="7"/>
-      <c r="G379" s="7"/>
-      <c r="H379" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="B380" s="18"/>
-      <c r="C380" s="18"/>
-      <c r="D380" s="19">
-        <v>36</v>
-      </c>
-      <c r="E380" s="19"/>
-      <c r="F380" s="6">
-        <v>35</v>
-      </c>
-      <c r="G380" s="7"/>
-      <c r="H380" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="B381" s="18"/>
-      <c r="C381" s="18"/>
-      <c r="D381" s="19">
-        <v>1</v>
-      </c>
-      <c r="E381" s="19"/>
-      <c r="F381" s="7"/>
-      <c r="G381" s="7"/>
-      <c r="H381" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A382" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B382" s="18"/>
-      <c r="C382" s="18"/>
-      <c r="D382" s="19">
-        <v>1</v>
-      </c>
-      <c r="E382" s="19"/>
-      <c r="F382" s="7"/>
-      <c r="G382" s="7"/>
-      <c r="H382" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B383" s="18"/>
-      <c r="C383" s="18"/>
-      <c r="D383" s="19">
-        <v>1</v>
-      </c>
-      <c r="E383" s="19"/>
-      <c r="F383" s="7"/>
-      <c r="G383" s="7"/>
-      <c r="H383" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="B384" s="18"/>
-      <c r="C384" s="18"/>
-      <c r="D384" s="19">
-        <v>1</v>
-      </c>
-      <c r="E384" s="19"/>
-      <c r="F384" s="7"/>
-      <c r="G384" s="7"/>
-      <c r="H384" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A385" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="B385" s="18"/>
-      <c r="C385" s="18"/>
-      <c r="D385" s="19">
-        <v>1</v>
-      </c>
-      <c r="E385" s="19"/>
-      <c r="F385" s="7"/>
-      <c r="G385" s="7"/>
-      <c r="H385" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="B386" s="18"/>
-      <c r="C386" s="18"/>
-      <c r="D386" s="19">
-        <v>501</v>
-      </c>
-      <c r="E386" s="19"/>
-      <c r="F386" s="6">
-        <v>500</v>
-      </c>
-      <c r="G386" s="7"/>
-      <c r="H386" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A387" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="B387" s="18"/>
-      <c r="C387" s="18"/>
-      <c r="D387" s="19">
-        <v>1</v>
-      </c>
-      <c r="E387" s="19"/>
-      <c r="F387" s="7"/>
-      <c r="G387" s="7"/>
-      <c r="H387" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A388" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B388" s="18"/>
-      <c r="C388" s="18"/>
-      <c r="D388" s="19">
-        <v>1</v>
-      </c>
-      <c r="E388" s="19"/>
-      <c r="F388" s="7"/>
-      <c r="G388" s="7"/>
-      <c r="H388" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A389" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="B389" s="18"/>
-      <c r="C389" s="18"/>
-      <c r="D389" s="19">
-        <v>26</v>
-      </c>
-      <c r="E389" s="19"/>
-      <c r="F389" s="6">
-        <v>25</v>
-      </c>
-      <c r="G389" s="7"/>
-      <c r="H389" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A390" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="B390" s="18"/>
-      <c r="C390" s="18"/>
-      <c r="D390" s="19">
-        <v>1</v>
-      </c>
-      <c r="E390" s="19"/>
-      <c r="F390" s="7"/>
-      <c r="G390" s="7"/>
-      <c r="H390" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A391" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B391" s="18"/>
-      <c r="C391" s="18"/>
-      <c r="D391" s="19">
-        <v>11</v>
-      </c>
-      <c r="E391" s="19"/>
-      <c r="F391" s="6">
-        <v>10</v>
-      </c>
-      <c r="G391" s="7"/>
-      <c r="H391" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A392" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="B392" s="18"/>
-      <c r="C392" s="18"/>
-      <c r="D392" s="19">
-        <v>1</v>
-      </c>
-      <c r="E392" s="19"/>
-      <c r="F392" s="7"/>
-      <c r="G392" s="7"/>
-      <c r="H392" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A393" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="B393" s="18"/>
-      <c r="C393" s="18"/>
-      <c r="D393" s="19">
-        <v>1</v>
-      </c>
-      <c r="E393" s="19"/>
-      <c r="F393" s="7"/>
-      <c r="G393" s="7"/>
-      <c r="H393" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A394" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="B394" s="18"/>
-      <c r="C394" s="18"/>
-      <c r="D394" s="19">
-        <v>1</v>
-      </c>
-      <c r="E394" s="19"/>
-      <c r="F394" s="7"/>
-      <c r="G394" s="7"/>
-      <c r="H394" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A395" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="B395" s="18"/>
-      <c r="C395" s="18"/>
-      <c r="D395" s="19">
-        <v>1</v>
-      </c>
-      <c r="E395" s="19"/>
-      <c r="F395" s="7"/>
-      <c r="G395" s="7"/>
-      <c r="H395" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A396" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="B396" s="18"/>
-      <c r="C396" s="18"/>
-      <c r="D396" s="19">
-        <v>1</v>
-      </c>
-      <c r="E396" s="19"/>
-      <c r="F396" s="7"/>
-      <c r="G396" s="7"/>
-      <c r="H396" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A397" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="B397" s="18"/>
-      <c r="C397" s="18"/>
-      <c r="D397" s="19">
-        <v>21</v>
-      </c>
-      <c r="E397" s="19"/>
-      <c r="F397" s="6">
-        <v>20</v>
-      </c>
-      <c r="G397" s="7"/>
-      <c r="H397" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A398" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="B398" s="18"/>
-      <c r="C398" s="18"/>
-      <c r="D398" s="19">
-        <v>1</v>
-      </c>
-      <c r="E398" s="19"/>
-      <c r="F398" s="7"/>
-      <c r="G398" s="7"/>
-      <c r="H398" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A399" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="B399" s="18"/>
-      <c r="C399" s="18"/>
-      <c r="D399" s="19">
-        <v>1</v>
-      </c>
-      <c r="E399" s="19"/>
-      <c r="F399" s="7"/>
-      <c r="G399" s="7"/>
-      <c r="H399" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A400" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="B400" s="18"/>
-      <c r="C400" s="18"/>
-      <c r="D400" s="19">
-        <v>1</v>
-      </c>
-      <c r="E400" s="19"/>
-      <c r="F400" s="7"/>
-      <c r="G400" s="7"/>
-      <c r="H400" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A401" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="B401" s="18"/>
-      <c r="C401" s="18"/>
-      <c r="D401" s="19">
-        <v>5</v>
-      </c>
-      <c r="E401" s="19"/>
-      <c r="F401" s="6">
-        <v>4</v>
-      </c>
-      <c r="G401" s="7"/>
-      <c r="H401" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B402" s="16"/>
-      <c r="C402" s="16"/>
-      <c r="D402" s="21">
-        <v>371</v>
-      </c>
-      <c r="E402" s="21"/>
-      <c r="F402" s="5"/>
-      <c r="G402" s="5"/>
-      <c r="H402" s="9">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A403" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="B403" s="18"/>
-      <c r="C403" s="18"/>
-      <c r="D403" s="19">
-        <v>277</v>
-      </c>
-      <c r="E403" s="19"/>
-      <c r="F403" s="7"/>
-      <c r="G403" s="7"/>
-      <c r="H403" s="6">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A404" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="B404" s="18"/>
-      <c r="C404" s="18"/>
-      <c r="D404" s="19">
-        <v>56</v>
-      </c>
-      <c r="E404" s="19"/>
-      <c r="F404" s="7"/>
-      <c r="G404" s="7"/>
-      <c r="H404" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="B405" s="18"/>
-      <c r="C405" s="18"/>
-      <c r="D405" s="19">
-        <v>24</v>
-      </c>
-      <c r="E405" s="19"/>
-      <c r="F405" s="7"/>
-      <c r="G405" s="7"/>
-      <c r="H405" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="B406" s="18"/>
-      <c r="C406" s="18"/>
-      <c r="D406" s="19">
-        <v>12</v>
-      </c>
-      <c r="E406" s="19"/>
-      <c r="F406" s="7"/>
-      <c r="G406" s="7"/>
-      <c r="H406" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B407" s="18"/>
-      <c r="C407" s="18"/>
-      <c r="D407" s="19">
-        <v>2</v>
-      </c>
-      <c r="E407" s="19"/>
-      <c r="F407" s="7"/>
-      <c r="G407" s="7"/>
-      <c r="H407" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B408" s="15"/>
-      <c r="C408" s="15"/>
-      <c r="D408" s="22">
-        <v>16952</v>
-      </c>
-      <c r="E408" s="22"/>
-      <c r="F408" s="10">
-        <v>8754</v>
-      </c>
-      <c r="G408" s="11"/>
-      <c r="H408" s="10">
-        <v>8198</v>
+      <c r="B331" s="15"/>
+      <c r="C331" s="15"/>
+      <c r="D331" s="22">
+        <v>17488</v>
+      </c>
+      <c r="E331" s="22"/>
+      <c r="F331" s="10">
+        <v>8773</v>
+      </c>
+      <c r="G331" s="11"/>
+      <c r="H331" s="10">
+        <v>8715</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="811">
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="D408:E408"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="D403:E403"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="D404:E404"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="D405:E405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="D406:E406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="D407:E407"/>
-    <mergeCell ref="A398:C398"/>
-    <mergeCell ref="D398:E398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="D399:E399"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="D400:E400"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="D401:E401"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="D402:E402"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="D393:E393"/>
-    <mergeCell ref="A394:C394"/>
-    <mergeCell ref="D394:E394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="D395:E395"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="D397:E397"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="D388:E388"/>
-    <mergeCell ref="A389:C389"/>
-    <mergeCell ref="D389:E389"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="D390:E390"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="D391:E391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="D392:E392"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="D383:E383"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="D384:E384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="D385:E385"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="D386:E386"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="D387:E387"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="D379:E379"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="D380:E380"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="A382:C382"/>
-    <mergeCell ref="D382:E382"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="D373:E373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="D374:E374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="D375:E375"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="D368:E368"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="D369:E369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="D370:E370"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="D371:E371"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="D363:E363"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="D364:E364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="D365:E365"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="D366:E366"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="D367:E367"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="D359:E359"/>
-    <mergeCell ref="A360:C360"/>
-    <mergeCell ref="D360:E360"/>
-    <mergeCell ref="A361:C361"/>
-    <mergeCell ref="D361:E361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="D353:E353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="D354:E354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="D356:E356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="D357:E357"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="D348:E348"/>
-    <mergeCell ref="A349:C349"/>
-    <mergeCell ref="D349:E349"/>
-    <mergeCell ref="A350:C350"/>
-    <mergeCell ref="D350:E350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="D351:E351"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="D352:E352"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="D343:E343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="D345:E345"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="D346:E346"/>
-    <mergeCell ref="A347:C347"/>
-    <mergeCell ref="D347:E347"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="D338:E338"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="D341:E341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="D334:E334"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="D335:E335"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="D336:E336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="D337:E337"/>
+  <mergeCells count="657">
     <mergeCell ref="A328:C328"/>
     <mergeCell ref="D328:E328"/>
     <mergeCell ref="A329:C329"/>
@@ -8574,8 +6961,6 @@
     <mergeCell ref="D330:E330"/>
     <mergeCell ref="A331:C331"/>
     <mergeCell ref="D331:E331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="D332:E332"/>
     <mergeCell ref="A323:C323"/>
     <mergeCell ref="D323:E323"/>
     <mergeCell ref="A324:C324"/>
